--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD31D78-7319-4CE4-BCFD-BD3F7711C875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0393CAA1-FFCC-4414-9122-98F1B6E67103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="301">
   <si>
     <t>Part Number</t>
   </si>
@@ -1005,6 +1005,24 @@
   </si>
   <si>
     <t>13к</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-47 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-40 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-150 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-1,8 кОм±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-13 кОм±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-510 Ом±1%-Л-А-М</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <f>A2&amp;" "&amp;I2</f>
+        <f t="shared" ref="K2:K33" si="0">A2&amp;" "&amp;I2</f>
         <v>Р1-8В-0805-0-А-М
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1514,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <f>A3&amp;" "&amp;I3</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-2512-0-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1552,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="str">
-        <f>A4&amp;" "&amp;I4</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-1210-0-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1566,9 +1584,8 @@
       <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="str">
-        <f>IF(H5=0.125,"R0805",IF(H5=0.1,"R0603","R1206"))</f>
-        <v>R0805</v>
+      <c r="C5" t="s">
+        <v>124</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>70</v>
@@ -1592,7 +1609,7 @@
         <v>215</v>
       </c>
       <c r="K5" t="str">
-        <f>A5&amp;" "&amp;I5</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-10Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1606,9 +1623,8 @@
       <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="str">
-        <f>IF(H6=0.125,"R0805",IF(H6=0.1,"R0603","R1206"))</f>
-        <v>R0603</v>
+      <c r="C6" t="s">
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>70</v>
@@ -1632,7 +1648,7 @@
         <v>216</v>
       </c>
       <c r="K6" t="str">
-        <f>A6&amp;" "&amp;I6</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,1-18,2 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1646,9 +1662,8 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="str">
-        <f>IF(H7=0.125,"R0805",IF(H7=0.1,"R0603","R1206"))</f>
-        <v>R0805</v>
+      <c r="C7" t="s">
+        <v>124</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>70</v>
@@ -1672,7 +1687,7 @@
         <v>217</v>
       </c>
       <c r="K7" t="str">
-        <f>A7&amp;" "&amp;I7</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-20Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1686,9 +1701,8 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="str">
-        <f>IF(H8=0.125,"R0805",IF(H8=0.1,"R0603","R1206"))</f>
-        <v>R0805</v>
+      <c r="C8" t="s">
+        <v>124</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>70</v>
@@ -1712,7 +1726,7 @@
         <v>218</v>
       </c>
       <c r="K8" t="str">
-        <f>A8&amp;" "&amp;I8</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-33,2Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1725,9 +1739,8 @@
       <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="str">
-        <f>IF(H9=0.125,"R0805",IF(H9=0.1,"R0603","R1206"))</f>
-        <v>R0603</v>
+      <c r="C9" t="s">
+        <v>127</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>70</v>
@@ -1751,7 +1764,7 @@
         <v>219</v>
       </c>
       <c r="K9" t="str">
-        <f>A9&amp;" "&amp;I9</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,1-51,1 Ом±1% -Т-А-М  ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -1764,9 +1777,8 @@
       <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="str">
-        <f>IF(H10=0.125,"R0805",IF(H10=0.1,"R0603","R1206"))</f>
-        <v>R0603</v>
+      <c r="C10" t="s">
+        <v>127</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>70</v>
@@ -1790,7 +1802,7 @@
         <v>220</v>
       </c>
       <c r="K10" t="str">
-        <f>A10&amp;" "&amp;I10</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,1-100 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1804,9 +1816,8 @@
       <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="str">
-        <f>IF(H11=0.125,"R0805",IF(H11=0.1,"R0603","R1206"))</f>
-        <v>R0805</v>
+      <c r="C11" t="s">
+        <v>124</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>70</v>
@@ -1830,7 +1841,7 @@
         <v>220</v>
       </c>
       <c r="K11" t="str">
-        <f>A11&amp;" "&amp;I11</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-100Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1844,9 +1855,8 @@
       <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" t="str">
-        <f>IF(H12=0.125,"R0805",IF(H12=0.1,"R0603","R1206"))</f>
-        <v>R1206</v>
+      <c r="C12" t="s">
+        <v>128</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>70</v>
@@ -1870,7 +1880,7 @@
         <v>220</v>
       </c>
       <c r="K12" t="str">
-        <f>A12&amp;" "&amp;I12</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,25-100±1%-Л-А-М
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1884,9 +1894,8 @@
       <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="str">
-        <f>IF(H13=0.125,"R0805",IF(H13=0.1,"R0603","R1206"))</f>
-        <v>R0805</v>
+      <c r="C13" t="s">
+        <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>70</v>
@@ -1910,7 +1919,7 @@
         <v>221</v>
       </c>
       <c r="K13" t="str">
-        <f>A13&amp;" "&amp;I13</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-130 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1924,9 +1933,8 @@
       <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="str">
-        <f>IF(H14=0.125,"R0805",IF(H14=0.1,"R0603","R1206"))</f>
-        <v>R0603</v>
+      <c r="C14" t="s">
+        <v>127</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>70</v>
@@ -1950,7 +1958,7 @@
         <v>222</v>
       </c>
       <c r="K14" t="str">
-        <f>A14&amp;" "&amp;I14</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,1-200 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -1964,9 +1972,8 @@
       <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" t="str">
-        <f>IF(H15=0.125,"R0805",IF(H15=0.1,"R0603","R1206"))</f>
-        <v>R0805</v>
+      <c r="C15" t="s">
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>70</v>
@@ -1990,7 +1997,7 @@
         <v>222</v>
       </c>
       <c r="K15" t="str">
-        <f>A15&amp;" "&amp;I15</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-200Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2004,9 +2011,8 @@
       <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="str">
-        <f>IF(H16=0.125,"R0805",IF(H16=0.1,"R0603","R1206"))</f>
-        <v>R0603</v>
+      <c r="C16" t="s">
+        <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>70</v>
@@ -2030,7 +2036,7 @@
         <v>223</v>
       </c>
       <c r="K16" t="str">
-        <f>A16&amp;" "&amp;I16</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,1-301 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2044,9 +2050,8 @@
       <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="str">
-        <f>IF(H17=0.125,"R0805",IF(H17=0.1,"R0603","R1206"))</f>
-        <v>R0805</v>
+      <c r="C17" t="s">
+        <v>124</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>70</v>
@@ -2070,7 +2075,7 @@
         <v>224</v>
       </c>
       <c r="K17" t="str">
-        <f>A17&amp;" "&amp;I17</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-332Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2083,9 +2088,8 @@
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="str">
-        <f>IF(H18=0.125,"R0805",IF(H18=0.1,"R0603","R1206"))</f>
-        <v>R1206</v>
+      <c r="C18" t="s">
+        <v>128</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>70</v>
@@ -2109,7 +2113,7 @@
         <v>225</v>
       </c>
       <c r="K18" t="str">
-        <f>A18&amp;" "&amp;I18</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,25-402 Ом±1%-Л-П-М  ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -2122,9 +2126,8 @@
       <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="str">
-        <f>IF(H19=0.125,"R0805",IF(H19=0.1,"R0603","R1206"))</f>
-        <v>R0805</v>
+      <c r="C19" t="s">
+        <v>124</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>70</v>
@@ -2148,7 +2151,7 @@
         <v>226</v>
       </c>
       <c r="K19" t="str">
-        <f>A19&amp;" "&amp;I19</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-562 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2162,9 +2165,8 @@
       <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="str">
-        <f>IF(H20=0.125,"R0805",IF(H20=0.1,"R0603","R1206"))</f>
-        <v>R0603</v>
+      <c r="C20" t="s">
+        <v>127</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>70</v>
@@ -2188,7 +2190,7 @@
         <v>237</v>
       </c>
       <c r="K20" t="str">
-        <f>A20&amp;" "&amp;I20</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,1-1кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2202,9 +2204,8 @@
       <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="str">
-        <f>IF(H21=0.125,"R0805",IF(H21=0.1,"R0603","R1206"))</f>
-        <v>R0805</v>
+      <c r="C21" t="s">
+        <v>124</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>70</v>
@@ -2228,7 +2229,7 @@
         <v>237</v>
       </c>
       <c r="K21" t="str">
-        <f>A21&amp;" "&amp;I21</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-1,0кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2242,9 +2243,8 @@
       <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" t="str">
-        <f>IF(H22=0.125,"R0805",IF(H22=0.1,"R0603","R1206"))</f>
-        <v>R1206</v>
+      <c r="C22" t="s">
+        <v>128</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>70</v>
@@ -2259,7 +2259,7 @@
         <v>84</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f>MID(A22,SEARCH("-",A22,SEARCH("-",A22)+1)+1,SEARCH("-",A22,SEARCH("-",A22)+4)-SEARCH("-",A22)-4)</f>
+        <f t="shared" ref="H22:H54" si="1">MID(A22,SEARCH("-",A22,SEARCH("-",A22)+1)+1,SEARCH("-",A22,SEARCH("-",A22)+4)-SEARCH("-",A22)-4)</f>
         <v>0,1</v>
       </c>
       <c r="I22" t="s">
@@ -2269,7 +2269,7 @@
         <v>264</v>
       </c>
       <c r="K22" t="str">
-        <f>A22&amp;" "&amp;I22</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,1-1,21 кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>85</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f>MID(A23,SEARCH("-",A23,SEARCH("-",A23)+1)+1,SEARCH("-",A23,SEARCH("-",A23)+4)-SEARCH("-",A23)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I23" t="s">
@@ -2309,7 +2309,7 @@
         <v>238</v>
       </c>
       <c r="K23" t="str">
-        <f>A23&amp;" "&amp;I23</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-1,5кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>86</v>
       </c>
       <c r="H24" s="4" t="str">
-        <f>MID(A24,SEARCH("-",A24,SEARCH("-",A24)+1)+1,SEARCH("-",A24,SEARCH("-",A24)+4)-SEARCH("-",A24)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I24" t="s">
@@ -2349,7 +2349,7 @@
         <v>195</v>
       </c>
       <c r="K24" t="str">
-        <f>A24&amp;" "&amp;I24</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-2,0кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>87</v>
       </c>
       <c r="H25" s="4" t="str">
-        <f>MID(A25,SEARCH("-",A25,SEARCH("-",A25)+1)+1,SEARCH("-",A25,SEARCH("-",A25)+4)-SEARCH("-",A25)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I25" t="s">
@@ -2389,7 +2389,7 @@
         <v>239</v>
       </c>
       <c r="K25" t="str">
-        <f>A25&amp;" "&amp;I25</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-2,74кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>88</v>
       </c>
       <c r="H26" s="4" t="str">
-        <f>MID(A26,SEARCH("-",A26,SEARCH("-",A26)+1)+1,SEARCH("-",A26,SEARCH("-",A26)+4)-SEARCH("-",A26)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I26" t="s">
@@ -2429,7 +2429,7 @@
         <v>240</v>
       </c>
       <c r="K26" t="str">
-        <f>A26&amp;" "&amp;I26</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-3,01кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>89</v>
       </c>
       <c r="H27" s="4" t="str">
-        <f>MID(A27,SEARCH("-",A27,SEARCH("-",A27)+1)+1,SEARCH("-",A27,SEARCH("-",A27)+4)-SEARCH("-",A27)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I27" t="s">
@@ -2469,7 +2469,7 @@
         <v>265</v>
       </c>
       <c r="K27" t="str">
-        <f>A27&amp;" "&amp;I27</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-3,32кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>90</v>
       </c>
       <c r="H28" s="4" t="str">
-        <f>MID(A28,SEARCH("-",A28,SEARCH("-",A28)+1)+1,SEARCH("-",A28,SEARCH("-",A28)+4)-SEARCH("-",A28)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,1</v>
       </c>
       <c r="I28" t="s">
@@ -2509,7 +2509,7 @@
         <v>265</v>
       </c>
       <c r="K28" t="str">
-        <f>A28&amp;" "&amp;I28</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,1-3,65 кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>91</v>
       </c>
       <c r="H29" s="4" t="str">
-        <f>MID(A29,SEARCH("-",A29,SEARCH("-",A29)+1)+1,SEARCH("-",A29,SEARCH("-",A29)+4)-SEARCH("-",A29)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I29" t="s">
@@ -2549,7 +2549,7 @@
         <v>241</v>
       </c>
       <c r="K29" t="str">
-        <f>A29&amp;" "&amp;I29</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-4,02кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>92</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f>MID(A30,SEARCH("-",A30,SEARCH("-",A30)+1)+1,SEARCH("-",A30,SEARCH("-",A30)+4)-SEARCH("-",A30)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,1</v>
       </c>
       <c r="I30" t="s">
@@ -2589,7 +2589,7 @@
         <v>242</v>
       </c>
       <c r="K30" t="str">
-        <f>A30&amp;" "&amp;I30</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,1-4,7кОм±5% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>93</v>
       </c>
       <c r="H31" s="4" t="str">
-        <f>MID(A31,SEARCH("-",A31,SEARCH("-",A31)+1)+1,SEARCH("-",A31,SEARCH("-",A31)+4)-SEARCH("-",A31)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,1</v>
       </c>
       <c r="I31" t="s">
@@ -2629,7 +2629,7 @@
         <v>243</v>
       </c>
       <c r="K31" t="str">
-        <f>A31&amp;" "&amp;I31</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,1-4,75кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>94</v>
       </c>
       <c r="H32" s="4" t="str">
-        <f>MID(A32,SEARCH("-",A32,SEARCH("-",A32)+1)+1,SEARCH("-",A32,SEARCH("-",A32)+4)-SEARCH("-",A32)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I32" t="s">
@@ -2669,7 +2669,7 @@
         <v>244</v>
       </c>
       <c r="K32" t="str">
-        <f>A32&amp;" "&amp;I32</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-5,11кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>95</v>
       </c>
       <c r="H33" s="4" t="str">
-        <f>MID(A33,SEARCH("-",A33,SEARCH("-",A33)+1)+1,SEARCH("-",A33,SEARCH("-",A33)+4)-SEARCH("-",A33)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I33" t="s">
@@ -2709,7 +2709,7 @@
         <v>245</v>
       </c>
       <c r="K33" t="str">
-        <f>A33&amp;" "&amp;I33</f>
+        <f t="shared" si="0"/>
         <v>Р1-8В-0,125-5,62кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>96</v>
       </c>
       <c r="H34" s="4" t="str">
-        <f>MID(A34,SEARCH("-",A34,SEARCH("-",A34)+1)+1,SEARCH("-",A34,SEARCH("-",A34)+4)-SEARCH("-",A34)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,1</v>
       </c>
       <c r="I34" t="s">
@@ -2749,7 +2749,7 @@
         <v>246</v>
       </c>
       <c r="K34" t="str">
-        <f>A34&amp;" "&amp;I34</f>
+        <f t="shared" ref="K34:K65" si="2">A34&amp;" "&amp;I34</f>
         <v>Р1-8В-0,1-10кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>96</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f>MID(A35,SEARCH("-",A35,SEARCH("-",A35)+1)+1,SEARCH("-",A35,SEARCH("-",A35)+4)-SEARCH("-",A35)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I35" t="s">
@@ -2789,7 +2789,7 @@
         <v>246</v>
       </c>
       <c r="K35" t="str">
-        <f>A35&amp;" "&amp;I35</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-10кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>97</v>
       </c>
       <c r="H36" s="4" t="str">
-        <f>MID(A36,SEARCH("-",A36,SEARCH("-",A36)+1)+1,SEARCH("-",A36,SEARCH("-",A36)+4)-SEARCH("-",A36)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I36" t="s">
@@ -2829,7 +2829,7 @@
         <v>247</v>
       </c>
       <c r="K36" t="str">
-        <f>A36&amp;" "&amp;I36</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-20кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>98</v>
       </c>
       <c r="H37" s="4" t="str">
-        <f>MID(A37,SEARCH("-",A37,SEARCH("-",A37)+1)+1,SEARCH("-",A37,SEARCH("-",A37)+4)-SEARCH("-",A37)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,1</v>
       </c>
       <c r="I37" t="s">
@@ -2869,7 +2869,7 @@
         <v>248</v>
       </c>
       <c r="K37" t="str">
-        <f>A37&amp;" "&amp;I37</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,1-24,9кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>99</v>
       </c>
       <c r="H38" s="4" t="str">
-        <f>MID(A38,SEARCH("-",A38,SEARCH("-",A38)+1)+1,SEARCH("-",A38,SEARCH("-",A38)+4)-SEARCH("-",A38)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,25</v>
       </c>
       <c r="I38" t="s">
@@ -2908,7 +2908,7 @@
         <v>249</v>
       </c>
       <c r="K38" t="str">
-        <f>A38&amp;" "&amp;I38</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,25-30,1кОм±1%-Л-П-М  ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
         <v>100</v>
       </c>
       <c r="H39" s="4" t="str">
-        <f>MID(A39,SEARCH("-",A39,SEARCH("-",A39)+1)+1,SEARCH("-",A39,SEARCH("-",A39)+4)-SEARCH("-",A39)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I39" t="s">
@@ -2947,7 +2947,7 @@
         <v>250</v>
       </c>
       <c r="K39" t="str">
-        <f>A39&amp;" "&amp;I39</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-33,2кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>101</v>
       </c>
       <c r="H40" s="4" t="str">
-        <f>MID(A40,SEARCH("-",A40,SEARCH("-",A40)+1)+1,SEARCH("-",A40,SEARCH("-",A40)+4)-SEARCH("-",A40)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I40" t="s">
@@ -2987,7 +2987,7 @@
         <v>251</v>
       </c>
       <c r="K40" t="str">
-        <f>A40&amp;" "&amp;I40</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-40,2кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>102</v>
       </c>
       <c r="H41" s="4" t="str">
-        <f>MID(A41,SEARCH("-",A41,SEARCH("-",A41)+1)+1,SEARCH("-",A41,SEARCH("-",A41)+4)-SEARCH("-",A41)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I41" t="s">
@@ -3027,7 +3027,7 @@
         <v>252</v>
       </c>
       <c r="K41" t="str">
-        <f>A41&amp;" "&amp;I41</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-46,4кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>103</v>
       </c>
       <c r="H42" s="4" t="str">
-        <f>MID(A42,SEARCH("-",A42,SEARCH("-",A42)+1)+1,SEARCH("-",A42,SEARCH("-",A42)+4)-SEARCH("-",A42)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I42" t="s">
@@ -3067,7 +3067,7 @@
         <v>253</v>
       </c>
       <c r="K42" t="str">
-        <f>A42&amp;" "&amp;I42</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-51,1кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>104</v>
       </c>
       <c r="H43" s="4" t="str">
-        <f>MID(A43,SEARCH("-",A43,SEARCH("-",A43)+1)+1,SEARCH("-",A43,SEARCH("-",A43)+4)-SEARCH("-",A43)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,1</v>
       </c>
       <c r="I43" t="s">
@@ -3107,7 +3107,7 @@
         <v>254</v>
       </c>
       <c r="K43" t="str">
-        <f>A43&amp;" "&amp;I43</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,1-56,2кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>105</v>
       </c>
       <c r="H44" s="4" t="str">
-        <f>MID(A44,SEARCH("-",A44,SEARCH("-",A44)+1)+1,SEARCH("-",A44,SEARCH("-",A44)+4)-SEARCH("-",A44)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,1</v>
       </c>
       <c r="I44" t="s">
@@ -3147,7 +3147,7 @@
         <v>255</v>
       </c>
       <c r="K44" t="str">
-        <f>A44&amp;" "&amp;I44</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,1-100кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>105</v>
       </c>
       <c r="H45" s="4" t="str">
-        <f>MID(A45,SEARCH("-",A45,SEARCH("-",A45)+1)+1,SEARCH("-",A45,SEARCH("-",A45)+4)-SEARCH("-",A45)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I45" t="s">
@@ -3187,7 +3187,7 @@
         <v>255</v>
       </c>
       <c r="K45" t="str">
-        <f>A45&amp;" "&amp;I45</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-100кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>106</v>
       </c>
       <c r="H46" s="4" t="str">
-        <f>MID(A46,SEARCH("-",A46,SEARCH("-",A46)+1)+1,SEARCH("-",A46,SEARCH("-",A46)+4)-SEARCH("-",A46)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,1</v>
       </c>
       <c r="I46" t="s">
@@ -3226,7 +3226,7 @@
         <v>256</v>
       </c>
       <c r="K46" t="str">
-        <f>A46&amp;" "&amp;I46</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,1-243кОм±1%-Л-П-М  ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
         <v>107</v>
       </c>
       <c r="H47" s="4" t="str">
-        <f>MID(A47,SEARCH("-",A47,SEARCH("-",A47)+1)+1,SEARCH("-",A47,SEARCH("-",A47)+4)-SEARCH("-",A47)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I47" t="s">
@@ -3265,7 +3265,7 @@
         <v>257</v>
       </c>
       <c r="K47" t="str">
-        <f>A47&amp;" "&amp;I47</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-301кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>108</v>
       </c>
       <c r="H48" s="4" t="str">
-        <f>MID(A48,SEARCH("-",A48,SEARCH("-",A48)+1)+1,SEARCH("-",A48,SEARCH("-",A48)+4)-SEARCH("-",A48)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,1</v>
       </c>
       <c r="I48" t="s">
@@ -3305,7 +3305,7 @@
         <v>258</v>
       </c>
       <c r="K48" t="str">
-        <f>A48&amp;" "&amp;I48</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,1-562кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>109</v>
       </c>
       <c r="H49" s="4" t="str">
-        <f>MID(A49,SEARCH("-",A49,SEARCH("-",A49)+1)+1,SEARCH("-",A49,SEARCH("-",A49)+4)-SEARCH("-",A49)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I49" t="s">
@@ -3345,7 +3345,7 @@
         <v>268</v>
       </c>
       <c r="K49" t="str">
-        <f>A49&amp;" "&amp;I49</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-1МОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>110</v>
       </c>
       <c r="H50" s="4" t="str">
-        <f>MID(A50,SEARCH("-",A50,SEARCH("-",A50)+1)+1,SEARCH("-",A50,SEARCH("-",A50)+4)-SEARCH("-",A50)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I50" t="s">
@@ -3385,7 +3385,7 @@
         <v>259</v>
       </c>
       <c r="K50" t="str">
-        <f>A50&amp;" "&amp;I50</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-80,6кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>111</v>
       </c>
       <c r="H51" s="4" t="str">
-        <f>MID(A51,SEARCH("-",A51,SEARCH("-",A51)+1)+1,SEARCH("-",A51,SEARCH("-",A51)+4)-SEARCH("-",A51)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I51" t="s">
@@ -3425,7 +3425,7 @@
         <v>260</v>
       </c>
       <c r="K51" t="str">
-        <f>A51&amp;" "&amp;I51</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-124кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>112</v>
       </c>
       <c r="H52" s="4" t="str">
-        <f>MID(A52,SEARCH("-",A52,SEARCH("-",A52)+1)+1,SEARCH("-",A52,SEARCH("-",A52)+4)-SEARCH("-",A52)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I52" t="s">
@@ -3465,7 +3465,7 @@
         <v>261</v>
       </c>
       <c r="K52" t="str">
-        <f>A52&amp;" "&amp;I52</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-150кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>113</v>
       </c>
       <c r="H53" s="4" t="str">
-        <f>MID(A53,SEARCH("-",A53,SEARCH("-",A53)+1)+1,SEARCH("-",A53,SEARCH("-",A53)+4)-SEARCH("-",A53)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I53" t="s">
@@ -3505,7 +3505,7 @@
         <v>262</v>
       </c>
       <c r="K53" t="str">
-        <f>A53&amp;" "&amp;I53</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-182кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>114</v>
       </c>
       <c r="H54" s="4" t="str">
-        <f>MID(A54,SEARCH("-",A54,SEARCH("-",A54)+1)+1,SEARCH("-",A54,SEARCH("-",A54)+4)-SEARCH("-",A54)-4)</f>
+        <f t="shared" si="1"/>
         <v>0,125</v>
       </c>
       <c r="I54" t="s">
@@ -3545,7 +3545,7 @@
         <v>263</v>
       </c>
       <c r="K54" t="str">
-        <f>A54&amp;" "&amp;I54</f>
+        <f t="shared" si="2"/>
         <v>Р1-8В-0,125-392кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>227</v>
       </c>
       <c r="K55" t="str">
-        <f>A55&amp;" "&amp;I55</f>
+        <f t="shared" si="2"/>
         <v>С5-47 25 15Ом ±2%  ОЖ0.467.531ТУ</v>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
         <v>228</v>
       </c>
       <c r="K56" t="str">
-        <f>A56&amp;" "&amp;I56</f>
+        <f t="shared" si="2"/>
         <v>Р2-105-0,75-0,022 Ом±5% -А 
  РКМУ.434150.001ТУ</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>229</v>
       </c>
       <c r="K57" t="str">
-        <f>A57&amp;" "&amp;I57</f>
+        <f t="shared" si="2"/>
         <v>Р2-105-0,75-0,068Ом±1% -А 
  РКМУ.434150.001ТУ</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>220</v>
       </c>
       <c r="K58" t="str">
-        <f>A58&amp;" "&amp;I58</f>
+        <f t="shared" si="2"/>
         <v>Р1-12-1-100 Ом ±1% -Т-"A" 
  АЛЯР.434110.005ТУ</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>230</v>
       </c>
       <c r="K59" t="str">
-        <f>A59&amp;" "&amp;I59</f>
+        <f t="shared" si="2"/>
         <v>Р1-12-1-210 Ом ±1% -М-"A" 
  АЛЯР.434110.005ТУ</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>231</v>
       </c>
       <c r="K60" t="str">
-        <f>A60&amp;" "&amp;I60</f>
+        <f t="shared" si="2"/>
         <v>Р1-12-1-2,43 кОм ±1% -М-"A" 
  АЛЯР.434110.005ТУ</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>211</v>
       </c>
       <c r="K61" t="str">
-        <f>A61&amp;" "&amp;I61</f>
+        <f t="shared" si="2"/>
         <v>Р1-105-2-0,01 Ом±5%  А РКМУ.434150.001ТУ</v>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
         <v>267</v>
       </c>
       <c r="K62" t="str">
-        <f>A62&amp;" "&amp;I62</f>
+        <f t="shared" si="2"/>
         <v>С2-33-2,4 кОм ±1%  Т-В-В ОЖ0.467.093ТУ</v>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
         <v>232</v>
       </c>
       <c r="K63" t="str">
-        <f>A63&amp;" "&amp;I63</f>
+        <f t="shared" si="2"/>
         <v>Р1--8В-2-120 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
         <v>220</v>
       </c>
       <c r="K64" t="str">
-        <f>A64&amp;" "&amp;I64</f>
+        <f t="shared" si="2"/>
         <v>Р1--8В-0,25-100 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -3950,7 +3950,7 @@
         <v>269</v>
       </c>
       <c r="K65" t="str">
-        <f>A65&amp;" "&amp;I65</f>
+        <f t="shared" si="2"/>
         <v>Р1--8В-2-240 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
         <v>212</v>
       </c>
       <c r="K66" t="str">
-        <f>A66&amp;" "&amp;I66</f>
+        <f t="shared" ref="K66:K97" si="3">A66&amp;" "&amp;I66</f>
         <v>Р1-8В-0,1-0-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
         <v>233</v>
       </c>
       <c r="K67" t="str">
-        <f>A67&amp;" "&amp;I67</f>
+        <f t="shared" si="3"/>
         <v>P1-8B-0,1-221Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
         <v>266</v>
       </c>
       <c r="K68" t="str">
-        <f>A68&amp;" "&amp;I68</f>
+        <f t="shared" si="3"/>
         <v>P1-8B-0,1-46,4кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4092,7 +4092,7 @@
         <v>234</v>
       </c>
       <c r="K69" t="str">
-        <f>A69&amp;" "&amp;I69</f>
+        <f t="shared" si="3"/>
         <v>P1-8B-0,1-464Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
         <v>202</v>
       </c>
       <c r="K70" t="str">
-        <f>A70&amp;" "&amp;I70</f>
+        <f t="shared" si="3"/>
         <v>P1-8B-0,1-5,11кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
         <v>235</v>
       </c>
       <c r="K71" t="str">
-        <f>A71&amp;" "&amp;I71</f>
+        <f t="shared" si="3"/>
         <v>P1-8B-0,1-121Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
         <v>236</v>
       </c>
       <c r="K72" t="str">
-        <f>A72&amp;" "&amp;I72</f>
+        <f t="shared" si="3"/>
         <v>P1-8B-0,1-549Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
         <v>231</v>
       </c>
       <c r="K73" t="str">
-        <f>A73&amp;" "&amp;I73</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">С2-33Н-1-2,43кОм </v>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>270</v>
       </c>
       <c r="K74" t="str">
-        <f>A74&amp;" "&amp;I74</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">С2-33Н-1-909Ом </v>
       </c>
     </row>
@@ -4293,11 +4293,11 @@
         <v>120</v>
       </c>
       <c r="J75" s="4" t="str">
-        <f>G75</f>
+        <f t="shared" ref="J75:J117" si="4">G75</f>
         <v>125к</v>
       </c>
       <c r="K75" t="str">
-        <f>A75&amp;" "&amp;I75</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-125кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4330,11 +4330,11 @@
         <v>120</v>
       </c>
       <c r="J76" s="4" t="str">
-        <f>G76</f>
+        <f t="shared" si="4"/>
         <v>390к</v>
       </c>
       <c r="K76" t="str">
-        <f>A76&amp;" "&amp;I76</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-390кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4367,11 +4367,11 @@
         <v>120</v>
       </c>
       <c r="J77" s="4" t="str">
-        <f>G77</f>
+        <f t="shared" si="4"/>
         <v>2,75к</v>
       </c>
       <c r="K77" t="str">
-        <f>A77&amp;" "&amp;I77</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-2,75кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4404,11 +4404,11 @@
         <v>120</v>
       </c>
       <c r="J78" s="4" t="str">
-        <f>G78</f>
+        <f t="shared" si="4"/>
         <v>4к</v>
       </c>
       <c r="K78" t="str">
-        <f>A78&amp;" "&amp;I78</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-4кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4441,11 +4441,11 @@
         <v>120</v>
       </c>
       <c r="J79" s="4">
-        <f>G79</f>
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="K79" t="str">
-        <f>A79&amp;" "&amp;I79</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-330Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4478,11 +4478,11 @@
         <v>120</v>
       </c>
       <c r="J80" s="4" t="str">
-        <f>G80</f>
+        <f t="shared" si="4"/>
         <v>3,3к</v>
       </c>
       <c r="K80" t="str">
-        <f>A80&amp;" "&amp;I80</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-3,3кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4515,11 +4515,11 @@
         <v>120</v>
       </c>
       <c r="J81" s="4">
-        <f>G81</f>
+        <f t="shared" si="4"/>
         <v>560</v>
       </c>
       <c r="K81" t="str">
-        <f>A81&amp;" "&amp;I81</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-560Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4552,11 +4552,11 @@
         <v>120</v>
       </c>
       <c r="J82" s="4" t="str">
-        <f>G82</f>
+        <f t="shared" si="4"/>
         <v>15к</v>
       </c>
       <c r="K82" t="str">
-        <f>A82&amp;" "&amp;I82</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-15кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4589,11 +4589,11 @@
         <v>120</v>
       </c>
       <c r="J83" s="4" t="str">
-        <f>G83</f>
+        <f t="shared" si="4"/>
         <v>5,1к</v>
       </c>
       <c r="K83" t="str">
-        <f>A83&amp;" "&amp;I83</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-5,1кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4626,11 +4626,11 @@
         <v>120</v>
       </c>
       <c r="J84" s="4" t="str">
-        <f>G84</f>
+        <f t="shared" si="4"/>
         <v>33к</v>
       </c>
       <c r="K84" t="str">
-        <f>A84&amp;" "&amp;I84</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-33кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4663,11 +4663,11 @@
         <v>120</v>
       </c>
       <c r="J85" s="4" t="str">
-        <f>G85</f>
+        <f t="shared" si="4"/>
         <v>2к</v>
       </c>
       <c r="K85" t="str">
-        <f>A85&amp;" "&amp;I85</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-2кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4700,11 +4700,11 @@
         <v>120</v>
       </c>
       <c r="J86" s="4">
-        <f>G86</f>
+        <f t="shared" si="4"/>
         <v>390</v>
       </c>
       <c r="K86" t="str">
-        <f>A86&amp;" "&amp;I86</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-390Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4737,11 +4737,11 @@
         <v>120</v>
       </c>
       <c r="J87" s="4" t="str">
-        <f>G87</f>
+        <f t="shared" si="4"/>
         <v>6,2к</v>
       </c>
       <c r="K87" t="str">
-        <f>A87&amp;" "&amp;I87</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-6,2кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4774,11 +4774,11 @@
         <v>120</v>
       </c>
       <c r="J88" s="4">
-        <f>G88</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="K88" t="str">
-        <f>A88&amp;" "&amp;I88</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-300Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4811,11 +4811,11 @@
         <v>120</v>
       </c>
       <c r="J89" s="4" t="str">
-        <f>G89</f>
+        <f t="shared" si="4"/>
         <v>80к</v>
       </c>
       <c r="K89" t="str">
-        <f>A89&amp;" "&amp;I89</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-80кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4848,11 +4848,11 @@
         <v>120</v>
       </c>
       <c r="J90" s="4" t="str">
-        <f>G90</f>
+        <f t="shared" si="4"/>
         <v>5,6к</v>
       </c>
       <c r="K90" t="str">
-        <f>A90&amp;" "&amp;I90</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-5,6кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4885,11 +4885,11 @@
         <v>120</v>
       </c>
       <c r="J91" s="4" t="str">
-        <f>G91</f>
+        <f t="shared" si="4"/>
         <v>51к</v>
       </c>
       <c r="K91" t="str">
-        <f>A91&amp;" "&amp;I91</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-51кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4922,11 +4922,11 @@
         <v>120</v>
       </c>
       <c r="J92" s="4" t="str">
-        <f>G92</f>
+        <f t="shared" si="4"/>
         <v>330к</v>
       </c>
       <c r="K92" t="str">
-        <f>A92&amp;" "&amp;I92</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-330кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4959,11 +4959,11 @@
         <v>120</v>
       </c>
       <c r="J93" s="4" t="str">
-        <f>G93</f>
+        <f t="shared" si="4"/>
         <v>300к</v>
       </c>
       <c r="K93" t="str">
-        <f>A93&amp;" "&amp;I93</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-300кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -4996,11 +4996,11 @@
         <v>120</v>
       </c>
       <c r="J94" s="4" t="str">
-        <f>G94</f>
+        <f t="shared" si="4"/>
         <v>5к</v>
       </c>
       <c r="K94" t="str">
-        <f>A94&amp;" "&amp;I94</f>
+        <f t="shared" si="3"/>
         <v>Р1-8В-0,125-5кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -5033,11 +5033,11 @@
         <v>122</v>
       </c>
       <c r="J95" s="4">
-        <f>G95</f>
+        <f t="shared" si="4"/>
         <v>0.33</v>
       </c>
       <c r="K95" t="str">
-        <f>A95&amp;" "&amp;I95</f>
+        <f t="shared" si="3"/>
         <v>P2-105-0,75-0,33Ом±1%-А РКМУ.434150.001ТУ</v>
       </c>
     </row>
@@ -5070,11 +5070,11 @@
         <v>122</v>
       </c>
       <c r="J96" s="4" t="str">
-        <f>G96</f>
+        <f t="shared" si="4"/>
         <v>0,33</v>
       </c>
       <c r="K96" t="str">
-        <f>A96&amp;" "&amp;I96</f>
+        <f t="shared" si="3"/>
         <v>P2-105-2,0-0,33Ом±1%-А РКМУ.434150.001ТУ</v>
       </c>
     </row>
@@ -5107,11 +5107,11 @@
         <v>122</v>
       </c>
       <c r="J97" s="4" t="str">
-        <f>G97</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K97" t="str">
-        <f>A97&amp;" "&amp;I97</f>
+        <f t="shared" si="3"/>
         <v>P2-105-0,25-0-А РКМУ.434150.001ТУ</v>
       </c>
     </row>
@@ -5144,11 +5144,11 @@
         <v>122</v>
       </c>
       <c r="J98" s="4" t="str">
-        <f>G98</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K98" t="str">
-        <f>A98&amp;" "&amp;I98</f>
+        <f t="shared" ref="K98:K117" si="5">A98&amp;" "&amp;I98</f>
         <v>P2-105-0,75-0-А РКМУ.434150.001ТУ</v>
       </c>
     </row>
@@ -5181,11 +5181,11 @@
         <v>122</v>
       </c>
       <c r="J99" s="4" t="str">
-        <f>G99</f>
+        <f t="shared" si="4"/>
         <v>0,01</v>
       </c>
       <c r="K99" t="str">
-        <f>A99&amp;" "&amp;I99</f>
+        <f t="shared" si="5"/>
         <v>P2-105-0,4-0,01Ом±1%-А РКМУ.434150.001ТУ</v>
       </c>
     </row>
@@ -5218,11 +5218,11 @@
         <v>120</v>
       </c>
       <c r="J100" s="4">
-        <f>G100</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K100" t="str">
-        <f>A100&amp;" "&amp;I100</f>
+        <f t="shared" si="5"/>
         <v>Р1-8В-0,25-10 Ом±1% -Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -5255,11 +5255,11 @@
         <v>120</v>
       </c>
       <c r="J101" s="4" t="str">
-        <f>G101</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="K101" t="str">
-        <f>A101&amp;" "&amp;I101</f>
+        <f t="shared" si="5"/>
         <v>Р1-8В-0,25-100 Ом±1% -Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -5292,11 +5292,11 @@
         <v>120</v>
       </c>
       <c r="J102" s="4" t="str">
-        <f>G102</f>
+        <f t="shared" si="4"/>
         <v>510</v>
       </c>
       <c r="K102" t="str">
-        <f>A102&amp;" "&amp;I102</f>
+        <f t="shared" si="5"/>
         <v>Р1-8В-0,25-510 Ом±1% -Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -5329,11 +5329,11 @@
         <v>120</v>
       </c>
       <c r="J103" s="4" t="str">
-        <f>G103</f>
+        <f t="shared" si="4"/>
         <v>470</v>
       </c>
       <c r="K103" t="str">
-        <f>A103&amp;" "&amp;I103</f>
+        <f t="shared" si="5"/>
         <v>Р1-8В-0,25-470 Ом±1% -Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -5366,11 +5366,11 @@
         <v>278</v>
       </c>
       <c r="J104" s="4">
-        <f>G104</f>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="K104" t="str">
-        <f>A104&amp;" "&amp;I104</f>
+        <f t="shared" si="5"/>
         <v>Р1-12-0,062-110 Ом±5% ШКАБ.434110.002ТУ</v>
       </c>
     </row>
@@ -5403,11 +5403,11 @@
         <v>278</v>
       </c>
       <c r="J105" s="4">
-        <f>G105</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="K105" t="str">
-        <f>A105&amp;" "&amp;I105</f>
+        <f t="shared" si="5"/>
         <v>Р1-12-0,062-56 Ом±5% ШКАБ.434110.002ТУ</v>
       </c>
     </row>
@@ -5440,11 +5440,11 @@
         <v>278</v>
       </c>
       <c r="J106" s="4">
-        <f>G106</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="K106" t="str">
-        <f>A106&amp;" "&amp;I106</f>
+        <f t="shared" si="5"/>
         <v>Р1-12-0,062-27 Ом±5% ШКАБ.434110.002ТУ</v>
       </c>
     </row>
@@ -5477,11 +5477,11 @@
         <v>278</v>
       </c>
       <c r="J107" s="4">
-        <f>G107</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="K107" t="str">
-        <f>A107&amp;" "&amp;I107</f>
+        <f t="shared" si="5"/>
         <v>Р1-12-0,062-13 Ом±5% ШКАБ.434110.002ТУ</v>
       </c>
     </row>
@@ -5514,11 +5514,11 @@
         <v>278</v>
       </c>
       <c r="J108" s="4">
-        <f>G108</f>
+        <f t="shared" si="4"/>
         <v>6.8</v>
       </c>
       <c r="K108" t="str">
-        <f>A108&amp;" "&amp;I108</f>
+        <f t="shared" si="5"/>
         <v>Р1-12-0,062-6,8 Ом±5% ШКАБ.434110.002ТУ</v>
       </c>
     </row>
@@ -5551,11 +5551,11 @@
         <v>278</v>
       </c>
       <c r="J109" s="4">
-        <f>G109</f>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="K109" t="str">
-        <f>A109&amp;" "&amp;I109</f>
+        <f t="shared" si="5"/>
         <v>Р1-12-0,062-180 Ом±5% ШКАБ.434110.002ТУ</v>
       </c>
     </row>
@@ -5588,11 +5588,11 @@
         <v>278</v>
       </c>
       <c r="J110" s="4">
-        <f>G110</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="K110" t="str">
-        <f>A110&amp;" "&amp;I110</f>
+        <f t="shared" si="5"/>
         <v>Р1-12-0,062-200 Ом±5% ШКАБ.434110.002ТУ</v>
       </c>
     </row>
@@ -5625,11 +5625,11 @@
         <v>278</v>
       </c>
       <c r="J111" s="4">
-        <f>G111</f>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="K111" t="str">
-        <f>A111&amp;" "&amp;I111</f>
+        <f t="shared" si="5"/>
         <v>Р1-12-0,062-220 Ом±5% ШКАБ.434110.002ТУ</v>
       </c>
     </row>
@@ -5662,11 +5662,11 @@
         <v>120</v>
       </c>
       <c r="J112" s="4">
-        <f>G112</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="K112" t="str">
-        <f>A112&amp;" "&amp;I112</f>
+        <f t="shared" si="5"/>
         <v>Р1-8В-0,25-47 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -5699,11 +5699,11 @@
         <v>120</v>
       </c>
       <c r="J113" s="4" t="str">
-        <f>G113</f>
+        <f t="shared" si="4"/>
         <v>1к</v>
       </c>
       <c r="K113" t="str">
-        <f>A113&amp;" "&amp;I113</f>
+        <f t="shared" si="5"/>
         <v>Р1-8В-0,25-1 кОм±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -5736,11 +5736,11 @@
         <v>120</v>
       </c>
       <c r="J114" s="4">
-        <f>G114</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="K114" t="str">
-        <f>A114&amp;" "&amp;I114</f>
+        <f t="shared" si="5"/>
         <v>Р1-8В-0,25-40 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -5773,11 +5773,11 @@
         <v>120</v>
       </c>
       <c r="J115" s="4">
-        <f>G115</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="K115" t="str">
-        <f>A115&amp;" "&amp;I115</f>
+        <f t="shared" si="5"/>
         <v>Р1-8В-0,25-150 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -5810,11 +5810,11 @@
         <v>120</v>
       </c>
       <c r="J116" s="4" t="str">
-        <f>G116</f>
+        <f t="shared" si="4"/>
         <v>1,8к</v>
       </c>
       <c r="K116" t="str">
-        <f>A116&amp;" "&amp;I116</f>
+        <f t="shared" si="5"/>
         <v>Р1-8В-0,25-1,8 кОм±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
@@ -5847,12 +5847,234 @@
         <v>120</v>
       </c>
       <c r="J117" s="4" t="str">
-        <f>G117</f>
+        <f t="shared" si="4"/>
         <v>13к</v>
       </c>
       <c r="K117" t="str">
-        <f>A117&amp;" "&amp;I117</f>
+        <f t="shared" si="5"/>
         <v>Р1-8В-0,25-13 кОм±1%-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>295</v>
+      </c>
+      <c r="B118" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E118" t="s">
+        <v>132</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="4">
+        <v>47</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I118" t="s">
+        <v>120</v>
+      </c>
+      <c r="J118" s="4">
+        <f t="shared" ref="J118:J123" si="6">G118</f>
+        <v>47</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" ref="K118:K123" si="7">A118&amp;" "&amp;I118</f>
+        <v>Р1-8В-0,125-47 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>300</v>
+      </c>
+      <c r="B119" t="s">
+        <v>69</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E119" t="s">
+        <v>132</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I119" t="s">
+        <v>120</v>
+      </c>
+      <c r="J119" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="7"/>
+        <v>Р1-8В-0,125-510 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>296</v>
+      </c>
+      <c r="B120" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E120" t="s">
+        <v>132</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="4">
+        <v>40</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I120" t="s">
+        <v>120</v>
+      </c>
+      <c r="J120" s="4">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="7"/>
+        <v>Р1-8В-0,125-40 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>297</v>
+      </c>
+      <c r="B121" t="s">
+        <v>69</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E121" t="s">
+        <v>132</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="4">
+        <v>150</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I121" t="s">
+        <v>120</v>
+      </c>
+      <c r="J121" s="4">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="7"/>
+        <v>Р1-8В-0,125-150 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>298</v>
+      </c>
+      <c r="B122" t="s">
+        <v>69</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E122" t="s">
+        <v>132</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H122" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I122" t="s">
+        <v>120</v>
+      </c>
+      <c r="J122" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>1,8к</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="7"/>
+        <v>Р1-8В-0,125-1,8 кОм±1%-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>299</v>
+      </c>
+      <c r="B123" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E123" t="s">
+        <v>132</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I123" t="s">
+        <v>120</v>
+      </c>
+      <c r="J123" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>13к</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="7"/>
+        <v>Р1-8В-0,125-13 кОм±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0393CAA1-FFCC-4414-9122-98F1B6E67103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1549CA-8132-4F05-95B5-E2F773E3166F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="304">
   <si>
     <t>Part Number</t>
   </si>
@@ -956,9 +956,6 @@
     <t>470</t>
   </si>
   <si>
-    <t>ШКАБ.434110.002ТУ</t>
-  </si>
-  <si>
     <t>Р1-12-0,062-110 Ом±5%</t>
   </si>
   <si>
@@ -1023,6 +1020,18 @@
   </si>
   <si>
     <t>Р1-8В-0,125-510 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>StandartDoc</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>АО "НПО "Эркон"</t>
+  </si>
+  <si>
+    <t>АО "Кермет"</t>
   </si>
 </sst>
 </file>
@@ -1405,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,11 +1431,13 @@
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
-    <col min="11" max="11" width="57.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="48.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1460,8 +1471,14 @@
       <c r="K1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>MID(Лист2!A1,1,SEARCH("ОЖ0",Лист2!A1)-1)</f>
         <v xml:space="preserve">Р1-8В-0805-0-А-М
@@ -1498,8 +1515,14 @@
         <v>Р1-8В-0805-0-А-М
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>MID(Лист2!A2,1,SEARCH("ОЖ0",Лист2!A2)-1)</f>
         <v xml:space="preserve">Р1-8В-2512-0-А-М 
@@ -1536,8 +1559,14 @@
         <v>Р1-8В-2512-0-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>MID(Лист2!A3,1,SEARCH("ОЖ0",Лист2!A3)-1)</f>
         <v xml:space="preserve">Р1-8В-1210-0-А-М 
@@ -1574,8 +1603,14 @@
         <v>Р1-8В-1210-0-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>MID(Лист2!A4,1,SEARCH("ОЖ0",Лист2!A4)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-10Ом±1% -Т-А-М 
@@ -1613,8 +1648,14 @@
         <v>Р1-8В-0,125-10Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>MID(Лист2!A5,1,SEARCH("ОЖ0",Лист2!A5)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-18,2 Ом±1% -Т-А-М 
@@ -1652,8 +1693,14 @@
         <v>Р1-8В-0,1-18,2 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>MID(Лист2!A6,1,SEARCH("ОЖ0",Лист2!A6)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-20Ом±1% -Т-А-М 
@@ -1691,8 +1738,14 @@
         <v>Р1-8В-0,125-20Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>MID(Лист2!A7,1,SEARCH("ОЖ0",Лист2!A7)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-33,2Ом±1% -Т-А-М 
@@ -1730,8 +1783,14 @@
         <v>Р1-8В-0,125-33,2Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>MID(Лист2!A8,1,SEARCH("ОЖ0",Лист2!A8)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-51,1 Ом±1% -Т-А-М </v>
@@ -1767,8 +1826,14 @@
         <f t="shared" si="0"/>
         <v>Р1-8В-0,1-51,1 Ом±1% -Т-А-М  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>MID(Лист2!A9,1,SEARCH("ОЖ0",Лист2!A9)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-100 Ом±1% -Т-А-М 
@@ -1806,8 +1871,14 @@
         <v>Р1-8В-0,1-100 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>MID(Лист2!A10,1,SEARCH("ОЖ0",Лист2!A10)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-100Ом±1% -Т-А-М 
@@ -1845,8 +1916,14 @@
         <v>Р1-8В-0,125-100Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>MID(Лист2!A11,1,SEARCH("ОЖ0",Лист2!A11)-1)</f>
         <v xml:space="preserve">Р1-8В-0,25-100±1%-Л-А-М
@@ -1884,8 +1961,14 @@
         <v>Р1-8В-0,25-100±1%-Л-А-М
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>MID(Лист2!A12,1,SEARCH("ОЖ0",Лист2!A12)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-130 Ом±1% -Т-А-М 
@@ -1923,8 +2006,14 @@
         <v>Р1-8В-0,125-130 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>MID(Лист2!A13,1,SEARCH("ОЖ0",Лист2!A13)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-200 Ом±1% -Т-А-М 
@@ -1962,8 +2051,14 @@
         <v>Р1-8В-0,1-200 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>MID(Лист2!A14,1,SEARCH("ОЖ0",Лист2!A14)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-200Ом±1% -Т-А-М 
@@ -2001,8 +2096,14 @@
         <v>Р1-8В-0,125-200Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>MID(Лист2!A15,1,SEARCH("ОЖ0",Лист2!A15)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-301 Ом±1% -Т-А-М 
@@ -2040,8 +2141,14 @@
         <v>Р1-8В-0,1-301 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>MID(Лист2!A16,1,SEARCH("ОЖ0",Лист2!A16)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-332Ом±1% -Т-А-М 
@@ -2079,8 +2186,14 @@
         <v>Р1-8В-0,125-332Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>MID(Лист2!A17,1,SEARCH("ОЖ0",Лист2!A17)-1)</f>
         <v xml:space="preserve">Р1-8В-0,25-402 Ом±1%-Л-П-М </v>
@@ -2116,8 +2229,14 @@
         <f t="shared" si="0"/>
         <v>Р1-8В-0,25-402 Ом±1%-Л-П-М  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>MID(Лист2!A18,1,SEARCH("ОЖ0",Лист2!A18)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-562 Ом±1% -Т-А-М 
@@ -2155,8 +2274,14 @@
         <v>Р1-8В-0,125-562 Ом±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>MID(Лист2!A19,1,SEARCH("ОЖ0",Лист2!A19)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-1кОм±1% -Т-А-М 
@@ -2194,8 +2319,14 @@
         <v>Р1-8В-0,1-1кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>MID(Лист2!A20,1,SEARCH("ОЖ0",Лист2!A20)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-1,0кОм±1% -Т-А-М 
@@ -2233,8 +2364,14 @@
         <v>Р1-8В-0,125-1,0кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>MID(Лист2!A21,1,SEARCH("ОЖ0",Лист2!A21)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-1,21 кОм±1% -Т-А-М 
@@ -2273,8 +2410,14 @@
         <v>Р1-8В-0,1-1,21 кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>MID(Лист2!A22,1,SEARCH("ОЖ0",Лист2!A22)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-1,5кОм±1% -Т-А-М 
@@ -2313,8 +2456,14 @@
         <v>Р1-8В-0,125-1,5кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>MID(Лист2!A23,1,SEARCH("ОЖ0",Лист2!A23)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-2,0кОм±1% -Т-А-М 
@@ -2353,8 +2502,14 @@
         <v>Р1-8В-0,125-2,0кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>MID(Лист2!A24,1,SEARCH("ОЖ0",Лист2!A24)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-2,74кОм±1% -Т-А-М 
@@ -2393,8 +2548,14 @@
         <v>Р1-8В-0,125-2,74кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>MID(Лист2!A25,1,SEARCH("ОЖ0",Лист2!A25)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-3,01кОм±1% -Т-А-М 
@@ -2433,8 +2594,14 @@
         <v>Р1-8В-0,125-3,01кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>MID(Лист2!A26,1,SEARCH("ОЖ0",Лист2!A26)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-3,32кОм±1% -Т-А-М 
@@ -2473,8 +2640,14 @@
         <v>Р1-8В-0,125-3,32кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>MID(Лист2!A27,1,SEARCH("ОЖ0",Лист2!A27)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-3,65 кОм±1% -Т-А-М 
@@ -2513,8 +2686,14 @@
         <v>Р1-8В-0,1-3,65 кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>120</v>
+      </c>
+      <c r="M28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>MID(Лист2!A28,1,SEARCH("ОЖ0",Лист2!A28)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-4,02кОм±1% -Т-А-М 
@@ -2553,8 +2732,14 @@
         <v>Р1-8В-0,125-4,02кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>120</v>
+      </c>
+      <c r="M29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>MID(Лист2!A29,1,SEARCH("ОЖ0",Лист2!A29)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-4,7кОм±5% -Т-А-М 
@@ -2593,8 +2778,14 @@
         <v>Р1-8В-0,1-4,7кОм±5% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>MID(Лист2!A30,1,SEARCH("ОЖ0",Лист2!A30)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-4,75кОм±1% -Т-А-М 
@@ -2633,8 +2824,14 @@
         <v>Р1-8В-0,1-4,75кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>MID(Лист2!A31,1,SEARCH("ОЖ0",Лист2!A31)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-5,11кОм±1% -Т-А-М 
@@ -2673,8 +2870,14 @@
         <v>Р1-8В-0,125-5,11кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>120</v>
+      </c>
+      <c r="M32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>MID(Лист2!A32,1,SEARCH("ОЖ0",Лист2!A32)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-5,62кОм±1% -Т-А-М 
@@ -2713,8 +2916,14 @@
         <v>Р1-8В-0,125-5,62кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>120</v>
+      </c>
+      <c r="M33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>MID(Лист2!A33,1,SEARCH("ОЖ0",Лист2!A33)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-10кОм±1% -Т-А-М 
@@ -2753,8 +2962,14 @@
         <v>Р1-8В-0,1-10кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>MID(Лист2!A34,1,SEARCH("ОЖ0",Лист2!A34)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-10кОм±1% -Т-А-М 
@@ -2793,8 +3008,14 @@
         <v>Р1-8В-0,125-10кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>MID(Лист2!A35,1,SEARCH("ОЖ0",Лист2!A35)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-20кОм±1% -Т-А-М 
@@ -2833,8 +3054,14 @@
         <v>Р1-8В-0,125-20кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>MID(Лист2!A36,1,SEARCH("ОЖ0",Лист2!A36)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-24,9кОм±1% -Т-А-М 
@@ -2873,8 +3100,14 @@
         <v>Р1-8В-0,1-24,9кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>MID(Лист2!A37,1,SEARCH("ОЖ0",Лист2!A37)-1)</f>
         <v xml:space="preserve">Р1-8В-0,25-30,1кОм±1%-Л-П-М </v>
@@ -2911,8 +3144,14 @@
         <f t="shared" si="2"/>
         <v>Р1-8В-0,25-30,1кОм±1%-Л-П-М  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>120</v>
+      </c>
+      <c r="M38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>MID(Лист2!A38,1,SEARCH("ОЖ0",Лист2!A38)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-33,2кОм±1% -Т-А-М 
@@ -2951,8 +3190,14 @@
         <v>Р1-8В-0,125-33,2кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>120</v>
+      </c>
+      <c r="M39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>MID(Лист2!A39,1,SEARCH("ОЖ0",Лист2!A39)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-40,2кОм±1% -Т-А-М 
@@ -2991,8 +3236,14 @@
         <v>Р1-8В-0,125-40,2кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>120</v>
+      </c>
+      <c r="M40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>MID(Лист2!A40,1,SEARCH("ОЖ0",Лист2!A40)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-46,4кОм±1% -Т-А-М 
@@ -3031,8 +3282,14 @@
         <v>Р1-8В-0,125-46,4кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>120</v>
+      </c>
+      <c r="M41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>MID(Лист2!A41,1,SEARCH("ОЖ0",Лист2!A41)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-51,1кОм±1% -Т-А-М 
@@ -3071,8 +3328,14 @@
         <v>Р1-8В-0,125-51,1кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>120</v>
+      </c>
+      <c r="M42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>MID(Лист2!A42,1,SEARCH("ОЖ0",Лист2!A42)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-56,2кОм±1% -Т-А-М 
@@ -3111,8 +3374,14 @@
         <v>Р1-8В-0,1-56,2кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>120</v>
+      </c>
+      <c r="M43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>MID(Лист2!A43,1,SEARCH("ОЖ0",Лист2!A43)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-100кОм±1% -Т-А-М 
@@ -3151,8 +3420,14 @@
         <v>Р1-8В-0,1-100кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>120</v>
+      </c>
+      <c r="M44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>MID(Лист2!A44,1,SEARCH("ОЖ0",Лист2!A44)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-100кОм±1% -Т-А-М 
@@ -3191,8 +3466,14 @@
         <v>Р1-8В-0,125-100кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>120</v>
+      </c>
+      <c r="M45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>MID(Лист2!A45,1,SEARCH("ОЖ0",Лист2!A45)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-243кОм±1%-Л-П-М </v>
@@ -3229,8 +3510,14 @@
         <f t="shared" si="2"/>
         <v>Р1-8В-0,1-243кОм±1%-Л-П-М  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>120</v>
+      </c>
+      <c r="M46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>MID(Лист2!A46,1,SEARCH("ОЖ0",Лист2!A46)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-301кОм±1% -Т-А-М 
@@ -3269,8 +3556,14 @@
         <v>Р1-8В-0,125-301кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>120</v>
+      </c>
+      <c r="M47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>MID(Лист2!A47,1,SEARCH("ОЖ0",Лист2!A47)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-562кОм±1% -Т-А-М 
@@ -3309,8 +3602,14 @@
         <v>Р1-8В-0,1-562кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>120</v>
+      </c>
+      <c r="M48" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>MID(Лист2!A48,1,SEARCH("ОЖ0",Лист2!A48)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-1МОм±1% -Т-А-М 
@@ -3349,8 +3648,14 @@
         <v>Р1-8В-0,125-1МОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>120</v>
+      </c>
+      <c r="M49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>MID(Лист2!A49,1,SEARCH("ОЖ0",Лист2!A49)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-80,6кОм±1% -Т-А-М 
@@ -3389,8 +3694,14 @@
         <v>Р1-8В-0,125-80,6кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>120</v>
+      </c>
+      <c r="M50" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>MID(Лист2!A50,1,SEARCH("ОЖ0",Лист2!A50)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-124кОм±1% -Т-А-М 
@@ -3429,8 +3740,14 @@
         <v>Р1-8В-0,125-124кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>120</v>
+      </c>
+      <c r="M51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>MID(Лист2!A51,1,SEARCH("ОЖ0",Лист2!A51)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-150кОм±1% -Т-А-М 
@@ -3469,8 +3786,14 @@
         <v>Р1-8В-0,125-150кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>120</v>
+      </c>
+      <c r="M52" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>MID(Лист2!A52,1,SEARCH("ОЖ0",Лист2!A52)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-182кОм±1% -Т-А-М 
@@ -3509,8 +3832,14 @@
         <v>Р1-8В-0,125-182кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>120</v>
+      </c>
+      <c r="M53" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>MID(Лист2!A53,1,SEARCH("ОЖ0",Лист2!A53)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-392кОм±1% -Т-А-М 
@@ -3549,8 +3878,14 @@
         <v>Р1-8В-0,125-392кОм±1% -Т-А-М 
  ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>120</v>
+      </c>
+      <c r="M54" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>MID(Лист2!A54,1,SEARCH("ОЖ0",Лист2!A54)-1)</f>
         <v xml:space="preserve">С5-47 25 15Ом ±2% </v>
@@ -3586,8 +3921,14 @@
         <f t="shared" si="2"/>
         <v>С5-47 25 15Ом ±2%  ОЖ0.467.531ТУ</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>121</v>
+      </c>
+      <c r="M55" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>MID(Лист2!A55,1,SEARCH("РКМУ",Лист2!A55)-1)</f>
         <v xml:space="preserve">Р2-105-0,75-0,022 Ом±5% -А 
@@ -3625,8 +3966,14 @@
         <v>Р2-105-0,75-0,022 Ом±5% -А 
  РКМУ.434150.001ТУ</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>MID(Лист2!A56,1,SEARCH("РКМУ",Лист2!A56)-1)</f>
         <v xml:space="preserve">Р2-105-0,75-0,068Ом±1% -А 
@@ -3664,8 +4011,14 @@
         <v>Р2-105-0,75-0,068Ом±1% -А 
  РКМУ.434150.001ТУ</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" t="s">
+        <v>122</v>
+      </c>
+      <c r="M57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>MID(Лист2!A57,1,SEARCH("АЛЯР",Лист2!A57)-1)</f>
         <v xml:space="preserve">Р1-12-1-100 Ом ±1% -Т-"A" 
@@ -3704,8 +4057,14 @@
         <v>Р1-12-1-100 Ом ±1% -Т-"A" 
  АЛЯР.434110.005ТУ</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" t="s">
+        <v>123</v>
+      </c>
+      <c r="M58" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>MID(Лист2!A58,1,SEARCH("АЛЯР",Лист2!A58)-1)</f>
         <v xml:space="preserve">Р1-12-1-210 Ом ±1% -М-"A" 
@@ -3744,8 +4103,14 @@
         <v>Р1-12-1-210 Ом ±1% -М-"A" 
  АЛЯР.434110.005ТУ</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>123</v>
+      </c>
+      <c r="M59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>MID(Лист2!A59,1,SEARCH("АЛЯР",Лист2!A59)-1)</f>
         <v xml:space="preserve">Р1-12-1-2,43 кОм ±1% -М-"A" 
@@ -3784,8 +4149,14 @@
         <v>Р1-12-1-2,43 кОм ±1% -М-"A" 
  АЛЯР.434110.005ТУ</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>123</v>
+      </c>
+      <c r="M60" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3820,8 +4191,14 @@
         <f t="shared" si="2"/>
         <v>Р1-105-2-0,01 Ом±5%  А РКМУ.434150.001ТУ</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>122</v>
+      </c>
+      <c r="M61" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -3851,8 +4228,14 @@
         <f t="shared" si="2"/>
         <v>С2-33-2,4 кОм ±1%  Т-В-В ОЖ0.467.093ТУ</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>139</v>
+      </c>
+      <c r="M62" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -3885,8 +4268,14 @@
         <f t="shared" si="2"/>
         <v>Р1--8В-2-120 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>120</v>
+      </c>
+      <c r="M63" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>136</v>
       </c>
@@ -3919,8 +4308,14 @@
         <f t="shared" si="2"/>
         <v>Р1--8В-0,25-100 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>120</v>
+      </c>
+      <c r="M64" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -3953,8 +4348,14 @@
         <f t="shared" si="2"/>
         <v>Р1--8В-2-240 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>120</v>
+      </c>
+      <c r="M65" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -3987,8 +4388,14 @@
         <f t="shared" ref="K66:K97" si="3">A66&amp;" "&amp;I66</f>
         <v>Р1-8В-0,1-0-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" t="s">
+        <v>120</v>
+      </c>
+      <c r="M66" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -4023,8 +4430,14 @@
         <f t="shared" si="3"/>
         <v>P1-8B-0,1-221Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>120</v>
+      </c>
+      <c r="M67" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -4059,8 +4472,14 @@
         <f t="shared" si="3"/>
         <v>P1-8B-0,1-46,4кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" t="s">
+        <v>120</v>
+      </c>
+      <c r="M68" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -4095,8 +4514,14 @@
         <f t="shared" si="3"/>
         <v>P1-8B-0,1-464Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>120</v>
+      </c>
+      <c r="M69" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -4131,8 +4556,14 @@
         <f t="shared" si="3"/>
         <v>P1-8B-0,1-5,11кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" t="s">
+        <v>120</v>
+      </c>
+      <c r="M70" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -4167,8 +4598,14 @@
         <f t="shared" si="3"/>
         <v>P1-8B-0,1-121Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" t="s">
+        <v>120</v>
+      </c>
+      <c r="M71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>148</v>
       </c>
@@ -4203,8 +4640,14 @@
         <f t="shared" si="3"/>
         <v>P1-8B-0,1-549Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" t="s">
+        <v>120</v>
+      </c>
+      <c r="M72" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -4233,8 +4676,14 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">С2-33Н-1-2,43кОм </v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" t="s">
+        <v>139</v>
+      </c>
+      <c r="M73" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>162</v>
       </c>
@@ -4263,8 +4712,14 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">С2-33Н-1-909Ом </v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>139</v>
+      </c>
+      <c r="M74" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>169</v>
       </c>
@@ -4300,8 +4755,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-125кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>120</v>
+      </c>
+      <c r="M75" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>170</v>
       </c>
@@ -4337,8 +4798,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-390кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>120</v>
+      </c>
+      <c r="M76" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>171</v>
       </c>
@@ -4374,8 +4841,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-2,75кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" t="s">
+        <v>120</v>
+      </c>
+      <c r="M77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>172</v>
       </c>
@@ -4411,8 +4884,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-4кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>120</v>
+      </c>
+      <c r="M78" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>174</v>
       </c>
@@ -4448,8 +4927,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-330Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>120</v>
+      </c>
+      <c r="M79" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>203</v>
       </c>
@@ -4485,8 +4970,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-3,3кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" t="s">
+        <v>120</v>
+      </c>
+      <c r="M80" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>175</v>
       </c>
@@ -4522,8 +5013,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-560Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" t="s">
+        <v>120</v>
+      </c>
+      <c r="M81" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>176</v>
       </c>
@@ -4559,8 +5056,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-15кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" t="s">
+        <v>120</v>
+      </c>
+      <c r="M82" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>177</v>
       </c>
@@ -4596,8 +5099,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-5,1кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" t="s">
+        <v>120</v>
+      </c>
+      <c r="M83" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>178</v>
       </c>
@@ -4633,8 +5142,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-33кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" t="s">
+        <v>120</v>
+      </c>
+      <c r="M84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>179</v>
       </c>
@@ -4670,8 +5185,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-2кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" t="s">
+        <v>120</v>
+      </c>
+      <c r="M85" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>180</v>
       </c>
@@ -4707,8 +5228,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-390Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" t="s">
+        <v>120</v>
+      </c>
+      <c r="M86" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>181</v>
       </c>
@@ -4744,8 +5271,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-6,2кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" t="s">
+        <v>120</v>
+      </c>
+      <c r="M87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>182</v>
       </c>
@@ -4781,8 +5314,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-300Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" t="s">
+        <v>120</v>
+      </c>
+      <c r="M88" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>183</v>
       </c>
@@ -4818,8 +5357,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-80кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" t="s">
+        <v>120</v>
+      </c>
+      <c r="M89" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>184</v>
       </c>
@@ -4855,8 +5400,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-5,6кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" t="s">
+        <v>120</v>
+      </c>
+      <c r="M90" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>185</v>
       </c>
@@ -4892,8 +5443,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-51кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" t="s">
+        <v>120</v>
+      </c>
+      <c r="M91" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>173</v>
       </c>
@@ -4929,8 +5486,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-330кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" t="s">
+        <v>120</v>
+      </c>
+      <c r="M92" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>186</v>
       </c>
@@ -4966,8 +5529,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-300кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" t="s">
+        <v>120</v>
+      </c>
+      <c r="M93" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>187</v>
       </c>
@@ -5003,8 +5572,14 @@
         <f t="shared" si="3"/>
         <v>Р1-8В-0,125-5кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" t="s">
+        <v>120</v>
+      </c>
+      <c r="M94" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -5040,8 +5615,14 @@
         <f t="shared" si="3"/>
         <v>P2-105-0,75-0,33Ом±1%-А РКМУ.434150.001ТУ</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" t="s">
+        <v>122</v>
+      </c>
+      <c r="M95" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>206</v>
       </c>
@@ -5077,8 +5658,14 @@
         <f t="shared" si="3"/>
         <v>P2-105-2,0-0,33Ом±1%-А РКМУ.434150.001ТУ</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" t="s">
+        <v>122</v>
+      </c>
+      <c r="M96" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>207</v>
       </c>
@@ -5114,8 +5701,14 @@
         <f t="shared" si="3"/>
         <v>P2-105-0,25-0-А РКМУ.434150.001ТУ</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" t="s">
+        <v>122</v>
+      </c>
+      <c r="M97" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>208</v>
       </c>
@@ -5151,8 +5744,14 @@
         <f t="shared" ref="K98:K117" si="5">A98&amp;" "&amp;I98</f>
         <v>P2-105-0,75-0-А РКМУ.434150.001ТУ</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" t="s">
+        <v>122</v>
+      </c>
+      <c r="M98" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>209</v>
       </c>
@@ -5188,8 +5787,14 @@
         <f t="shared" si="5"/>
         <v>P2-105-0,4-0,01Ом±1%-А РКМУ.434150.001ТУ</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" t="s">
+        <v>122</v>
+      </c>
+      <c r="M99" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>271</v>
       </c>
@@ -5225,8 +5830,14 @@
         <f t="shared" si="5"/>
         <v>Р1-8В-0,25-10 Ом±1% -Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" t="s">
+        <v>120</v>
+      </c>
+      <c r="M100" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>272</v>
       </c>
@@ -5262,8 +5873,14 @@
         <f t="shared" si="5"/>
         <v>Р1-8В-0,25-100 Ом±1% -Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" t="s">
+        <v>120</v>
+      </c>
+      <c r="M101" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>273</v>
       </c>
@@ -5299,8 +5916,14 @@
         <f t="shared" si="5"/>
         <v>Р1-8В-0,25-510 Ом±1% -Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" t="s">
+        <v>120</v>
+      </c>
+      <c r="M102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>275</v>
       </c>
@@ -5336,10 +5959,16 @@
         <f t="shared" si="5"/>
         <v>Р1-8В-0,25-470 Ом±1% -Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" t="s">
+        <v>120</v>
+      </c>
+      <c r="M103" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B104" t="s">
         <v>69</v>
@@ -5363,7 +5992,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="I104" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="J104" s="4">
         <f t="shared" si="4"/>
@@ -5371,12 +6000,18 @@
       </c>
       <c r="K104" t="str">
         <f t="shared" si="5"/>
-        <v>Р1-12-0,062-110 Ом±5% ШКАБ.434110.002ТУ</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Р1-12-0,062-110 Ом±5% АЛЯР.434110.005ТУ</v>
+      </c>
+      <c r="L104" t="s">
+        <v>123</v>
+      </c>
+      <c r="M104" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B105" t="s">
         <v>69</v>
@@ -5400,7 +6035,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="I105" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="J105" s="4">
         <f t="shared" si="4"/>
@@ -5408,12 +6043,18 @@
       </c>
       <c r="K105" t="str">
         <f t="shared" si="5"/>
-        <v>Р1-12-0,062-56 Ом±5% ШКАБ.434110.002ТУ</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Р1-12-0,062-56 Ом±5% АЛЯР.434110.005ТУ</v>
+      </c>
+      <c r="L105" t="s">
+        <v>123</v>
+      </c>
+      <c r="M105" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B106" t="s">
         <v>69</v>
@@ -5437,7 +6078,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="I106" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="J106" s="4">
         <f t="shared" si="4"/>
@@ -5445,12 +6086,18 @@
       </c>
       <c r="K106" t="str">
         <f t="shared" si="5"/>
-        <v>Р1-12-0,062-27 Ом±5% ШКАБ.434110.002ТУ</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Р1-12-0,062-27 Ом±5% АЛЯР.434110.005ТУ</v>
+      </c>
+      <c r="L106" t="s">
+        <v>123</v>
+      </c>
+      <c r="M106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B107" t="s">
         <v>69</v>
@@ -5474,7 +6121,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="I107" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="J107" s="4">
         <f t="shared" si="4"/>
@@ -5482,12 +6129,18 @@
       </c>
       <c r="K107" t="str">
         <f t="shared" si="5"/>
-        <v>Р1-12-0,062-13 Ом±5% ШКАБ.434110.002ТУ</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Р1-12-0,062-13 Ом±5% АЛЯР.434110.005ТУ</v>
+      </c>
+      <c r="L107" t="s">
+        <v>123</v>
+      </c>
+      <c r="M107" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B108" t="s">
         <v>69</v>
@@ -5511,7 +6164,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="I108" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="J108" s="4">
         <f t="shared" si="4"/>
@@ -5519,12 +6172,18 @@
       </c>
       <c r="K108" t="str">
         <f t="shared" si="5"/>
-        <v>Р1-12-0,062-6,8 Ом±5% ШКАБ.434110.002ТУ</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Р1-12-0,062-6,8 Ом±5% АЛЯР.434110.005ТУ</v>
+      </c>
+      <c r="L108" t="s">
+        <v>123</v>
+      </c>
+      <c r="M108" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B109" t="s">
         <v>69</v>
@@ -5548,7 +6207,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="I109" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="J109" s="4">
         <f t="shared" si="4"/>
@@ -5556,12 +6215,18 @@
       </c>
       <c r="K109" t="str">
         <f t="shared" si="5"/>
-        <v>Р1-12-0,062-180 Ом±5% ШКАБ.434110.002ТУ</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Р1-12-0,062-180 Ом±5% АЛЯР.434110.005ТУ</v>
+      </c>
+      <c r="L109" t="s">
+        <v>123</v>
+      </c>
+      <c r="M109" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B110" t="s">
         <v>69</v>
@@ -5585,7 +6250,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="I110" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="J110" s="4">
         <f t="shared" si="4"/>
@@ -5593,12 +6258,18 @@
       </c>
       <c r="K110" t="str">
         <f t="shared" si="5"/>
-        <v>Р1-12-0,062-200 Ом±5% ШКАБ.434110.002ТУ</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Р1-12-0,062-200 Ом±5% АЛЯР.434110.005ТУ</v>
+      </c>
+      <c r="L110" t="s">
+        <v>123</v>
+      </c>
+      <c r="M110" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
@@ -5622,7 +6293,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="I111" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="J111" s="4">
         <f t="shared" si="4"/>
@@ -5630,12 +6301,18 @@
       </c>
       <c r="K111" t="str">
         <f t="shared" si="5"/>
-        <v>Р1-12-0,062-220 Ом±5% ШКАБ.434110.002ТУ</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Р1-12-0,062-220 Ом±5% АЛЯР.434110.005ТУ</v>
+      </c>
+      <c r="L111" t="s">
+        <v>123</v>
+      </c>
+      <c r="M111" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
@@ -5669,10 +6346,16 @@
         <f t="shared" si="5"/>
         <v>Р1-8В-0,25-47 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" t="s">
+        <v>120</v>
+      </c>
+      <c r="M112" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B113" t="s">
         <v>69</v>
@@ -5706,10 +6389,16 @@
         <f t="shared" si="5"/>
         <v>Р1-8В-0,25-1 кОм±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" t="s">
+        <v>120</v>
+      </c>
+      <c r="M113" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B114" t="s">
         <v>69</v>
@@ -5743,10 +6432,16 @@
         <f t="shared" si="5"/>
         <v>Р1-8В-0,25-40 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" t="s">
+        <v>120</v>
+      </c>
+      <c r="M114" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B115" t="s">
         <v>69</v>
@@ -5780,10 +6475,16 @@
         <f t="shared" si="5"/>
         <v>Р1-8В-0,25-150 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" t="s">
+        <v>120</v>
+      </c>
+      <c r="M115" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B116" t="s">
         <v>69</v>
@@ -5801,7 +6502,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H116" s="4">
         <v>0.25</v>
@@ -5817,10 +6518,16 @@
         <f t="shared" si="5"/>
         <v>Р1-8В-0,25-1,8 кОм±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" t="s">
+        <v>120</v>
+      </c>
+      <c r="M116" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B117" t="s">
         <v>69</v>
@@ -5838,7 +6545,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H117" s="4">
         <v>0.25</v>
@@ -5854,10 +6561,16 @@
         <f t="shared" si="5"/>
         <v>Р1-8В-0,25-13 кОм±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" t="s">
+        <v>120</v>
+      </c>
+      <c r="M117" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B118" t="s">
         <v>69</v>
@@ -5891,10 +6604,16 @@
         <f t="shared" ref="K118:K123" si="7">A118&amp;" "&amp;I118</f>
         <v>Р1-8В-0,125-47 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" t="s">
+        <v>120</v>
+      </c>
+      <c r="M118" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B119" t="s">
         <v>69</v>
@@ -5928,10 +6647,16 @@
         <f t="shared" si="7"/>
         <v>Р1-8В-0,125-510 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" t="s">
+        <v>120</v>
+      </c>
+      <c r="M119" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B120" t="s">
         <v>69</v>
@@ -5965,10 +6690,16 @@
         <f t="shared" si="7"/>
         <v>Р1-8В-0,125-40 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" t="s">
+        <v>120</v>
+      </c>
+      <c r="M120" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B121" t="s">
         <v>69</v>
@@ -6002,10 +6733,16 @@
         <f t="shared" si="7"/>
         <v>Р1-8В-0,125-150 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" t="s">
+        <v>120</v>
+      </c>
+      <c r="M121" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B122" t="s">
         <v>69</v>
@@ -6023,7 +6760,7 @@
         <v>9</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H122" s="4">
         <v>0.25</v>
@@ -6039,10 +6776,16 @@
         <f t="shared" si="7"/>
         <v>Р1-8В-0,125-1,8 кОм±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" t="s">
+        <v>120</v>
+      </c>
+      <c r="M122" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B123" t="s">
         <v>69</v>
@@ -6060,7 +6803,7 @@
         <v>9</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H123" s="4">
         <v>0.25</v>
@@ -6075,6 +6818,12 @@
       <c r="K123" t="str">
         <f t="shared" si="7"/>
         <v>Р1-8В-0,125-13 кОм±1%-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L123" t="s">
+        <v>120</v>
+      </c>
+      <c r="M123" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1549CA-8132-4F05-95B5-E2F773E3166F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78813851-0311-4B63-9E99-D1143BB2856A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="300">
   <si>
     <t>Part Number</t>
   </si>
@@ -569,24 +569,6 @@
     <t>P1-8B-0,1-549Ом±1% -Т-А-М</t>
   </si>
   <si>
-    <t>R0604</t>
-  </si>
-  <si>
-    <t>R0605</t>
-  </si>
-  <si>
-    <t>R0606</t>
-  </si>
-  <si>
-    <t>R0607</t>
-  </si>
-  <si>
-    <t>R0608</t>
-  </si>
-  <si>
-    <t>R0609</t>
-  </si>
-  <si>
     <t>P1-8B-0,1-221Ом±1% -Т-А-М</t>
   </si>
   <si>
@@ -605,12 +587,6 @@
     <t>549Ом</t>
   </si>
   <si>
-    <t>С2-33Н-1-2,43кОм</t>
-  </si>
-  <si>
-    <t>С2-33Н-1-909Ом</t>
-  </si>
-  <si>
     <t>С2-33Н-1</t>
   </si>
   <si>
@@ -1032,6 +1008,18 @@
   </si>
   <si>
     <t>АО "Кермет"</t>
+  </si>
+  <si>
+    <t>С2-33Н-1-909Ом±1%-А-В-В</t>
+  </si>
+  <si>
+    <t>С2-33Н-1-2,43кОм±1%-А-В-В</t>
+  </si>
+  <si>
+    <t>Р1-8В-0603-0-А-М</t>
+  </si>
+  <si>
+    <t>С2-33Н-1-200 Ом±1%-А-В-В</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1134,6 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1414,17 +1403,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
@@ -1444,7 +1433,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1472,10 +1461,10 @@
         <v>131</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1487,7 +1476,7 @@
       <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1519,7 +1508,7 @@
         <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1531,7 +1520,7 @@
       <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1563,7 +1552,7 @@
         <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1575,7 +1564,7 @@
       <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1607,7 +1596,7 @@
         <v>120</v>
       </c>
       <c r="M4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1619,7 +1608,7 @@
       <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1632,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H5" s="4">
         <v>0.125</v>
@@ -1641,7 +1630,7 @@
         <v>120</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
@@ -1652,7 +1641,7 @@
         <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1664,7 +1653,7 @@
       <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1686,7 +1675,7 @@
         <v>120</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
@@ -1697,7 +1686,7 @@
         <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1709,7 +1698,7 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1722,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H7" s="4">
         <v>0.125</v>
@@ -1731,7 +1720,7 @@
         <v>120</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
@@ -1742,7 +1731,7 @@
         <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1754,7 +1743,7 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1767,7 +1756,7 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H8" s="4">
         <v>0.125</v>
@@ -1776,7 +1765,7 @@
         <v>120</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
@@ -1787,7 +1776,7 @@
         <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1798,7 +1787,7 @@
       <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1820,7 +1809,7 @@
         <v>120</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
@@ -1830,7 +1819,7 @@
         <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1842,7 +1831,7 @@
       <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1864,7 +1853,7 @@
         <v>120</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
@@ -1875,7 +1864,7 @@
         <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1887,7 +1876,7 @@
       <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1909,7 +1898,7 @@
         <v>120</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
@@ -1920,7 +1909,7 @@
         <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1932,7 +1921,7 @@
       <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1954,7 +1943,7 @@
         <v>120</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
@@ -1965,7 +1954,7 @@
         <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1977,7 +1966,7 @@
       <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1999,7 +1988,7 @@
         <v>120</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
@@ -2010,7 +1999,7 @@
         <v>120</v>
       </c>
       <c r="M13" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2022,7 +2011,7 @@
       <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2044,7 +2033,7 @@
         <v>120</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
@@ -2055,7 +2044,7 @@
         <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2067,7 +2056,7 @@
       <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2089,7 +2078,7 @@
         <v>120</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
@@ -2100,7 +2089,7 @@
         <v>120</v>
       </c>
       <c r="M15" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2112,7 +2101,7 @@
       <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2134,7 +2123,7 @@
         <v>120</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
@@ -2145,7 +2134,7 @@
         <v>120</v>
       </c>
       <c r="M16" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2157,7 +2146,7 @@
       <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2179,7 +2168,7 @@
         <v>120</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
@@ -2190,7 +2179,7 @@
         <v>120</v>
       </c>
       <c r="M17" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2201,7 +2190,7 @@
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2223,7 +2212,7 @@
         <v>120</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
@@ -2233,7 +2222,7 @@
         <v>120</v>
       </c>
       <c r="M18" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2245,7 +2234,7 @@
       <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2267,7 +2256,7 @@
         <v>120</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -2278,7 +2267,7 @@
         <v>120</v>
       </c>
       <c r="M19" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2290,7 +2279,7 @@
       <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2312,7 +2301,7 @@
         <v>120</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -2323,7 +2312,7 @@
         <v>120</v>
       </c>
       <c r="M20" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2335,7 +2324,7 @@
       <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2357,7 +2346,7 @@
         <v>120</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -2368,7 +2357,7 @@
         <v>120</v>
       </c>
       <c r="M21" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2380,7 +2369,7 @@
       <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -2403,7 +2392,7 @@
         <v>120</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -2414,7 +2403,7 @@
         <v>120</v>
       </c>
       <c r="M22" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2426,7 +2415,7 @@
       <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2449,7 +2438,7 @@
         <v>120</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -2460,7 +2449,7 @@
         <v>120</v>
       </c>
       <c r="M23" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2472,7 +2461,7 @@
       <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -2495,7 +2484,7 @@
         <v>120</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -2506,7 +2495,7 @@
         <v>120</v>
       </c>
       <c r="M24" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2518,7 +2507,7 @@
       <c r="B25" t="s">
         <v>69</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2541,7 +2530,7 @@
         <v>120</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -2552,7 +2541,7 @@
         <v>120</v>
       </c>
       <c r="M25" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2564,7 +2553,7 @@
       <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2587,7 +2576,7 @@
         <v>120</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
@@ -2598,7 +2587,7 @@
         <v>120</v>
       </c>
       <c r="M26" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2610,7 +2599,7 @@
       <c r="B27" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2633,7 +2622,7 @@
         <v>120</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
@@ -2644,7 +2633,7 @@
         <v>120</v>
       </c>
       <c r="M27" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2656,7 +2645,7 @@
       <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2679,7 +2668,7 @@
         <v>120</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
@@ -2690,7 +2679,7 @@
         <v>120</v>
       </c>
       <c r="M28" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2702,7 +2691,7 @@
       <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -2725,7 +2714,7 @@
         <v>120</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
@@ -2736,7 +2725,7 @@
         <v>120</v>
       </c>
       <c r="M29" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2748,7 +2737,7 @@
       <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2771,7 +2760,7 @@
         <v>120</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
@@ -2782,7 +2771,7 @@
         <v>120</v>
       </c>
       <c r="M30" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2794,7 +2783,7 @@
       <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2817,7 +2806,7 @@
         <v>120</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
@@ -2828,7 +2817,7 @@
         <v>120</v>
       </c>
       <c r="M31" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2840,7 +2829,7 @@
       <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2863,7 +2852,7 @@
         <v>120</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
@@ -2874,7 +2863,7 @@
         <v>120</v>
       </c>
       <c r="M32" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2886,7 +2875,7 @@
       <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2909,7 +2898,7 @@
         <v>120</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
@@ -2920,7 +2909,7 @@
         <v>120</v>
       </c>
       <c r="M33" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2932,7 +2921,7 @@
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2955,7 +2944,7 @@
         <v>120</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" ref="K34:K65" si="2">A34&amp;" "&amp;I34</f>
@@ -2966,7 +2955,7 @@
         <v>120</v>
       </c>
       <c r="M34" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2978,7 +2967,7 @@
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -3001,7 +2990,7 @@
         <v>120</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="2"/>
@@ -3012,7 +3001,7 @@
         <v>120</v>
       </c>
       <c r="M35" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3024,7 +3013,7 @@
       <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3047,7 +3036,7 @@
         <v>120</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="2"/>
@@ -3058,7 +3047,7 @@
         <v>120</v>
       </c>
       <c r="M36" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3070,7 +3059,7 @@
       <c r="B37" t="s">
         <v>69</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -3093,7 +3082,7 @@
         <v>120</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="2"/>
@@ -3104,7 +3093,7 @@
         <v>120</v>
       </c>
       <c r="M37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3115,7 +3104,7 @@
       <c r="B38" t="s">
         <v>69</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -3138,7 +3127,7 @@
         <v>120</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
@@ -3148,7 +3137,7 @@
         <v>120</v>
       </c>
       <c r="M38" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -3160,7 +3149,7 @@
       <c r="B39" t="s">
         <v>69</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -3183,7 +3172,7 @@
         <v>120</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
@@ -3194,7 +3183,7 @@
         <v>120</v>
       </c>
       <c r="M39" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -3206,7 +3195,7 @@
       <c r="B40" t="s">
         <v>69</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3229,7 +3218,7 @@
         <v>120</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
@@ -3240,7 +3229,7 @@
         <v>120</v>
       </c>
       <c r="M40" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3252,7 +3241,7 @@
       <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -3275,7 +3264,7 @@
         <v>120</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
@@ -3286,7 +3275,7 @@
         <v>120</v>
       </c>
       <c r="M41" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -3298,7 +3287,7 @@
       <c r="B42" t="s">
         <v>69</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -3321,7 +3310,7 @@
         <v>120</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="2"/>
@@ -3332,7 +3321,7 @@
         <v>120</v>
       </c>
       <c r="M42" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3344,7 +3333,7 @@
       <c r="B43" t="s">
         <v>69</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -3367,7 +3356,7 @@
         <v>120</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="2"/>
@@ -3378,7 +3367,7 @@
         <v>120</v>
       </c>
       <c r="M43" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3390,7 +3379,7 @@
       <c r="B44" t="s">
         <v>69</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -3413,7 +3402,7 @@
         <v>120</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="2"/>
@@ -3424,7 +3413,7 @@
         <v>120</v>
       </c>
       <c r="M44" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3436,7 +3425,7 @@
       <c r="B45" t="s">
         <v>69</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -3459,7 +3448,7 @@
         <v>120</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
@@ -3470,7 +3459,7 @@
         <v>120</v>
       </c>
       <c r="M45" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3481,7 +3470,7 @@
       <c r="B46" t="s">
         <v>69</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -3504,7 +3493,7 @@
         <v>120</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
@@ -3514,7 +3503,7 @@
         <v>120</v>
       </c>
       <c r="M46" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3526,7 +3515,7 @@
       <c r="B47" t="s">
         <v>69</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -3549,7 +3538,7 @@
         <v>120</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
@@ -3560,7 +3549,7 @@
         <v>120</v>
       </c>
       <c r="M47" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3572,7 +3561,7 @@
       <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -3595,7 +3584,7 @@
         <v>120</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
@@ -3606,7 +3595,7 @@
         <v>120</v>
       </c>
       <c r="M48" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3618,7 +3607,7 @@
       <c r="B49" t="s">
         <v>69</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -3641,7 +3630,7 @@
         <v>120</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
@@ -3652,7 +3641,7 @@
         <v>120</v>
       </c>
       <c r="M49" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3664,7 +3653,7 @@
       <c r="B50" t="s">
         <v>69</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -3687,7 +3676,7 @@
         <v>120</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
@@ -3698,7 +3687,7 @@
         <v>120</v>
       </c>
       <c r="M50" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3710,7 +3699,7 @@
       <c r="B51" t="s">
         <v>69</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -3733,7 +3722,7 @@
         <v>120</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
@@ -3744,7 +3733,7 @@
         <v>120</v>
       </c>
       <c r="M51" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3756,7 +3745,7 @@
       <c r="B52" t="s">
         <v>69</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -3779,7 +3768,7 @@
         <v>120</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="2"/>
@@ -3790,7 +3779,7 @@
         <v>120</v>
       </c>
       <c r="M52" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3802,7 +3791,7 @@
       <c r="B53" t="s">
         <v>69</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -3825,7 +3814,7 @@
         <v>120</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="2"/>
@@ -3836,7 +3825,7 @@
         <v>120</v>
       </c>
       <c r="M53" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3848,7 +3837,7 @@
       <c r="B54" t="s">
         <v>69</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -3871,7 +3860,7 @@
         <v>120</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
@@ -3882,7 +3871,7 @@
         <v>120</v>
       </c>
       <c r="M54" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3893,7 +3882,7 @@
       <c r="B55" t="s">
         <v>69</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="6" t="s">
         <v>129</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -3915,7 +3904,7 @@
         <v>121</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
@@ -3925,7 +3914,7 @@
         <v>121</v>
       </c>
       <c r="M55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3937,7 +3926,7 @@
       <c r="B56" t="s">
         <v>69</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -3959,7 +3948,7 @@
         <v>122</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
@@ -3970,7 +3959,7 @@
         <v>122</v>
       </c>
       <c r="M56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3982,7 +3971,7 @@
       <c r="B57" t="s">
         <v>69</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -4004,7 +3993,7 @@
         <v>122</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="2"/>
@@ -4015,7 +4004,7 @@
         <v>122</v>
       </c>
       <c r="M57" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -4027,7 +4016,7 @@
       <c r="B58" t="s">
         <v>69</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -4050,7 +4039,7 @@
         <v>123</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="2"/>
@@ -4061,7 +4050,7 @@
         <v>123</v>
       </c>
       <c r="M58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4073,7 +4062,7 @@
       <c r="B59" t="s">
         <v>69</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -4096,7 +4085,7 @@
         <v>123</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="2"/>
@@ -4107,7 +4096,7 @@
         <v>123</v>
       </c>
       <c r="M59" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4119,7 +4108,7 @@
       <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -4142,7 +4131,7 @@
         <v>123</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
@@ -4153,7 +4142,7 @@
         <v>123</v>
       </c>
       <c r="M60" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -4163,7 +4152,7 @@
       <c r="B61" t="s">
         <v>69</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -4185,7 +4174,7 @@
         <v>122</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
@@ -4195,7 +4184,7 @@
         <v>122</v>
       </c>
       <c r="M61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4222,7 +4211,7 @@
         <v>139</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="2"/>
@@ -4232,7 +4221,7 @@
         <v>139</v>
       </c>
       <c r="M62" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -4242,7 +4231,7 @@
       <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -4262,7 +4251,7 @@
         <v>120</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="2"/>
@@ -4272,7 +4261,7 @@
         <v>120</v>
       </c>
       <c r="M63" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -4282,7 +4271,7 @@
       <c r="B64" t="s">
         <v>69</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -4302,7 +4291,7 @@
         <v>120</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="2"/>
@@ -4312,7 +4301,7 @@
         <v>120</v>
       </c>
       <c r="M64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -4322,7 +4311,7 @@
       <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -4342,7 +4331,7 @@
         <v>120</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="2"/>
@@ -4352,7 +4341,7 @@
         <v>120</v>
       </c>
       <c r="M65" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -4362,7 +4351,7 @@
       <c r="B66" t="s">
         <v>69</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -4382,7 +4371,7 @@
         <v>120</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" ref="K66:K97" si="3">A66&amp;" "&amp;I66</f>
@@ -4392,18 +4381,18 @@
         <v>120</v>
       </c>
       <c r="M66" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
       </c>
-      <c r="C67" t="s">
-        <v>149</v>
+      <c r="C67" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>70</v>
@@ -4415,7 +4404,7 @@
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H67" s="4">
         <v>0.1</v>
@@ -4424,7 +4413,7 @@
         <v>120</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="3"/>
@@ -4434,7 +4423,7 @@
         <v>120</v>
       </c>
       <c r="M67" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -4444,8 +4433,8 @@
       <c r="B68" t="s">
         <v>69</v>
       </c>
-      <c r="C68" t="s">
-        <v>150</v>
+      <c r="C68" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>70</v>
@@ -4466,7 +4455,7 @@
         <v>120</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="3"/>
@@ -4476,18 +4465,18 @@
         <v>120</v>
       </c>
       <c r="M68" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
-      <c r="C69" t="s">
-        <v>151</v>
+      <c r="C69" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>70</v>
@@ -4499,7 +4488,7 @@
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H69" s="4">
         <v>0.1</v>
@@ -4508,7 +4497,7 @@
         <v>120</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="3"/>
@@ -4518,7 +4507,7 @@
         <v>120</v>
       </c>
       <c r="M69" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -4528,8 +4517,8 @@
       <c r="B70" t="s">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
-        <v>152</v>
+      <c r="C70" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>70</v>
@@ -4550,7 +4539,7 @@
         <v>120</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="3"/>
@@ -4560,7 +4549,7 @@
         <v>120</v>
       </c>
       <c r="M70" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -4570,20 +4559,20 @@
       <c r="B71" t="s">
         <v>69</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
         <v>153</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E71" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" t="s">
-        <v>159</v>
       </c>
       <c r="H71" s="4">
         <v>0.1</v>
@@ -4592,7 +4581,7 @@
         <v>120</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="3"/>
@@ -4602,7 +4591,7 @@
         <v>120</v>
       </c>
       <c r="M71" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -4612,20 +4601,20 @@
       <c r="B72" t="s">
         <v>69</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
         <v>154</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E72" t="s">
-        <v>132</v>
-      </c>
-      <c r="F72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" t="s">
-        <v>160</v>
       </c>
       <c r="H72" s="4">
         <v>0.1</v>
@@ -4634,7 +4623,7 @@
         <v>120</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="3"/>
@@ -4644,18 +4633,18 @@
         <v>120</v>
       </c>
       <c r="M72" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="B73" t="s">
         <v>69</v>
       </c>
-      <c r="C73" t="s">
-        <v>163</v>
+      <c r="C73" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>70</v>
@@ -4667,31 +4656,34 @@
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>164</v>
+        <v>156</v>
+      </c>
+      <c r="I73" t="s">
+        <v>139</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">С2-33Н-1-2,43кОм </v>
+        <v>С2-33Н-1-2,43кОм±1%-А-В-В ОЖ0.467.093ТУ</v>
       </c>
       <c r="L73" t="s">
         <v>139</v>
       </c>
       <c r="M73" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="B74" t="s">
         <v>69</v>
       </c>
-      <c r="C74" t="s">
-        <v>163</v>
+      <c r="C74" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>70</v>
@@ -4703,30 +4695,33 @@
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="I74" t="s">
+        <v>139</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">С2-33Н-1-909Ом </v>
+        <v>С2-33Н-1-909Ом±1%-А-В-В ОЖ0.467.093ТУ</v>
       </c>
       <c r="L74" t="s">
         <v>139</v>
       </c>
       <c r="M74" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
         <v>69</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -4739,7 +4734,7 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H75" s="4">
         <v>0.125</v>
@@ -4759,17 +4754,17 @@
         <v>120</v>
       </c>
       <c r="M75" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s">
         <v>69</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4782,7 +4777,7 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H76" s="4">
         <v>0.125</v>
@@ -4802,17 +4797,17 @@
         <v>120</v>
       </c>
       <c r="M76" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
         <v>69</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -4825,7 +4820,7 @@
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H77" s="4">
         <v>0.125</v>
@@ -4845,17 +4840,17 @@
         <v>120</v>
       </c>
       <c r="M77" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s">
         <v>69</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -4868,7 +4863,7 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H78" s="4">
         <v>0.125</v>
@@ -4888,17 +4883,17 @@
         <v>120</v>
       </c>
       <c r="M78" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B79" t="s">
         <v>69</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -4931,17 +4926,17 @@
         <v>120</v>
       </c>
       <c r="M79" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B80" t="s">
         <v>69</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -4954,7 +4949,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H80" s="4">
         <v>0.125</v>
@@ -4974,17 +4969,17 @@
         <v>120</v>
       </c>
       <c r="M80" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s">
         <v>69</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -5017,17 +5012,17 @@
         <v>120</v>
       </c>
       <c r="M81" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
         <v>69</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -5040,7 +5035,7 @@
         <v>9</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H82" s="4">
         <v>0.125</v>
@@ -5060,17 +5055,17 @@
         <v>120</v>
       </c>
       <c r="M82" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
         <v>69</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -5083,7 +5078,7 @@
         <v>9</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H83" s="4">
         <v>0.125</v>
@@ -5103,17 +5098,17 @@
         <v>120</v>
       </c>
       <c r="M83" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B84" t="s">
         <v>69</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -5126,7 +5121,7 @@
         <v>9</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H84" s="4">
         <v>0.125</v>
@@ -5146,17 +5141,17 @@
         <v>120</v>
       </c>
       <c r="M84" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
         <v>69</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -5169,7 +5164,7 @@
         <v>9</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H85" s="4">
         <v>0.125</v>
@@ -5189,17 +5184,17 @@
         <v>120</v>
       </c>
       <c r="M85" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
         <v>69</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -5232,17 +5227,17 @@
         <v>120</v>
       </c>
       <c r="M86" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
         <v>69</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5255,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H87" s="4">
         <v>0.125</v>
@@ -5275,17 +5270,17 @@
         <v>120</v>
       </c>
       <c r="M87" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
         <v>69</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -5318,17 +5313,17 @@
         <v>120</v>
       </c>
       <c r="M88" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
         <v>69</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -5341,7 +5336,7 @@
         <v>9</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H89" s="4">
         <v>0.125</v>
@@ -5361,17 +5356,17 @@
         <v>120</v>
       </c>
       <c r="M89" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
         <v>69</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -5384,7 +5379,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H90" s="4">
         <v>0.125</v>
@@ -5404,17 +5399,17 @@
         <v>120</v>
       </c>
       <c r="M90" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B91" t="s">
         <v>69</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -5427,7 +5422,7 @@
         <v>9</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H91" s="4">
         <v>0.125</v>
@@ -5447,17 +5442,17 @@
         <v>120</v>
       </c>
       <c r="M91" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
         <v>69</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -5470,7 +5465,7 @@
         <v>9</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H92" s="4">
         <v>0.125</v>
@@ -5490,17 +5485,17 @@
         <v>120</v>
       </c>
       <c r="M92" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s">
         <v>69</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -5513,7 +5508,7 @@
         <v>9</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H93" s="4">
         <v>0.125</v>
@@ -5533,17 +5528,17 @@
         <v>120</v>
       </c>
       <c r="M93" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B94" t="s">
         <v>69</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -5556,7 +5551,7 @@
         <v>9</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H94" s="4">
         <v>0.125</v>
@@ -5576,18 +5571,18 @@
         <v>120</v>
       </c>
       <c r="M94" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="B95" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" t="s">
-        <v>213</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>70</v>
@@ -5619,17 +5614,17 @@
         <v>122</v>
       </c>
       <c r="M95" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B96" t="s">
         <v>69</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -5642,7 +5637,7 @@
         <v>9</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H96" s="4">
         <v>2</v>
@@ -5662,17 +5657,17 @@
         <v>122</v>
       </c>
       <c r="M96" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B97" t="s">
         <v>69</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -5685,7 +5680,7 @@
         <v>9</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H97" s="4">
         <v>0.25</v>
@@ -5705,17 +5700,17 @@
         <v>122</v>
       </c>
       <c r="M97" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
         <v>69</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -5728,7 +5723,7 @@
         <v>9</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H98" s="4">
         <v>0.75</v>
@@ -5748,18 +5743,18 @@
         <v>122</v>
       </c>
       <c r="M98" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B99" t="s">
         <v>69</v>
       </c>
-      <c r="C99" t="s">
-        <v>214</v>
+      <c r="C99" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>70</v>
@@ -5771,7 +5766,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H99" s="4">
         <v>0.4</v>
@@ -5791,17 +5786,17 @@
         <v>122</v>
       </c>
       <c r="M99" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B100" t="s">
         <v>69</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -5834,17 +5829,17 @@
         <v>120</v>
       </c>
       <c r="M100" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B101" t="s">
         <v>69</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -5857,7 +5852,7 @@
         <v>9</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H101" s="4">
         <v>0.25</v>
@@ -5877,17 +5872,17 @@
         <v>120</v>
       </c>
       <c r="M101" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B102" t="s">
         <v>69</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -5900,7 +5895,7 @@
         <v>9</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H102" s="4">
         <v>0.25</v>
@@ -5920,17 +5915,17 @@
         <v>120</v>
       </c>
       <c r="M102" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B103" t="s">
         <v>69</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -5943,10 +5938,10 @@
         <v>9</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I103" t="s">
         <v>120</v>
@@ -5963,17 +5958,17 @@
         <v>120</v>
       </c>
       <c r="M103" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B104" t="s">
         <v>69</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -6006,17 +6001,17 @@
         <v>123</v>
       </c>
       <c r="M104" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B105" t="s">
         <v>69</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -6049,17 +6044,17 @@
         <v>123</v>
       </c>
       <c r="M105" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B106" t="s">
         <v>69</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -6092,17 +6087,17 @@
         <v>123</v>
       </c>
       <c r="M106" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B107" t="s">
         <v>69</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -6135,17 +6130,17 @@
         <v>123</v>
       </c>
       <c r="M107" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B108" t="s">
         <v>69</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -6178,17 +6173,17 @@
         <v>123</v>
       </c>
       <c r="M108" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B109" t="s">
         <v>69</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -6221,17 +6216,17 @@
         <v>123</v>
       </c>
       <c r="M109" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B110" t="s">
         <v>69</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -6264,17 +6259,17 @@
         <v>123</v>
       </c>
       <c r="M110" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -6307,17 +6302,17 @@
         <v>123</v>
       </c>
       <c r="M111" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -6350,17 +6345,17 @@
         <v>120</v>
       </c>
       <c r="M112" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B113" t="s">
         <v>69</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -6373,7 +6368,7 @@
         <v>9</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H113" s="4">
         <v>0.25</v>
@@ -6393,17 +6388,17 @@
         <v>120</v>
       </c>
       <c r="M113" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B114" t="s">
         <v>69</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -6436,17 +6431,17 @@
         <v>120</v>
       </c>
       <c r="M114" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B115" t="s">
         <v>69</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -6479,17 +6474,17 @@
         <v>120</v>
       </c>
       <c r="M115" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B116" t="s">
         <v>69</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -6502,7 +6497,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H116" s="4">
         <v>0.25</v>
@@ -6522,17 +6517,17 @@
         <v>120</v>
       </c>
       <c r="M116" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B117" t="s">
         <v>69</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -6545,7 +6540,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H117" s="4">
         <v>0.25</v>
@@ -6565,17 +6560,17 @@
         <v>120</v>
       </c>
       <c r="M117" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B118" t="s">
         <v>69</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -6601,24 +6596,24 @@
         <v>47</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" ref="K118:K123" si="7">A118&amp;" "&amp;I118</f>
+        <f t="shared" ref="K118:K125" si="7">A118&amp;" "&amp;I118</f>
         <v>Р1-8В-0,125-47 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L118" t="s">
         <v>120</v>
       </c>
       <c r="M118" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B119" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -6631,7 +6626,7 @@
         <v>9</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H119" s="4">
         <v>0.25</v>
@@ -6651,17 +6646,17 @@
         <v>120</v>
       </c>
       <c r="M119" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B120" t="s">
         <v>69</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -6694,17 +6689,17 @@
         <v>120</v>
       </c>
       <c r="M120" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B121" t="s">
         <v>69</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -6737,17 +6732,17 @@
         <v>120</v>
       </c>
       <c r="M121" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B122" t="s">
         <v>69</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -6760,7 +6755,7 @@
         <v>9</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H122" s="4">
         <v>0.25</v>
@@ -6780,17 +6775,17 @@
         <v>120</v>
       </c>
       <c r="M122" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B123" t="s">
         <v>69</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -6803,7 +6798,7 @@
         <v>9</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H123" s="4">
         <v>0.25</v>
@@ -6823,7 +6818,85 @@
         <v>120</v>
       </c>
       <c r="M123" t="s">
-        <v>302</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>298</v>
+      </c>
+      <c r="B124" t="s">
+        <v>69</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E124" t="s">
+        <v>132</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>120</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="7"/>
+        <v>Р1-8В-0603-0-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L124" t="s">
+        <v>120</v>
+      </c>
+      <c r="M124" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>299</v>
+      </c>
+      <c r="B125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E125" t="s">
+        <v>132</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="4">
+        <v>200</v>
+      </c>
+      <c r="I125" t="s">
+        <v>139</v>
+      </c>
+      <c r="J125">
+        <v>200</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="7"/>
+        <v>С2-33Н-1-200 Ом±1%-А-В-В ОЖ0.467.093ТУ</v>
+      </c>
+      <c r="L125" t="s">
+        <v>139</v>
+      </c>
+      <c r="M125" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78813851-0311-4B63-9E99-D1143BB2856A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C629B9A-0D90-4077-AF37-4BAE1A3BC75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="301">
   <si>
     <t>Part Number</t>
   </si>
@@ -1020,6 +1020,9 @@
   </si>
   <si>
     <t>С2-33Н-1-200 Ом±1%-А-В-В</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-50 Ом±1% -Т-А-М</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1122,7 +1125,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1403,17 +1405,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
@@ -1433,7 +1435,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1476,7 +1478,7 @@
       <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1520,7 +1522,7 @@
       <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1564,7 +1566,7 @@
       <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1608,7 +1610,7 @@
       <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>124</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1653,7 +1655,7 @@
       <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1698,7 +1700,7 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>124</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1743,7 +1745,7 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1787,7 +1789,7 @@
       <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1831,7 +1833,7 @@
       <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>127</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1876,7 +1878,7 @@
       <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" t="s">
         <v>124</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1921,7 +1923,7 @@
       <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>128</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1966,7 +1968,7 @@
       <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2011,7 +2013,7 @@
       <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>127</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2056,7 +2058,7 @@
       <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" t="s">
         <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2101,7 +2103,7 @@
       <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2146,7 +2148,7 @@
       <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2190,7 +2192,7 @@
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2234,7 +2236,7 @@
       <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>124</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2279,7 +2281,7 @@
       <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -2324,7 +2326,7 @@
       <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" t="s">
         <v>124</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2369,7 +2371,7 @@
       <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>128</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -2415,7 +2417,7 @@
       <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" t="s">
         <v>124</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2461,7 +2463,7 @@
       <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>124</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -2507,7 +2509,7 @@
       <c r="B25" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>124</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2553,7 +2555,7 @@
       <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -2599,7 +2601,7 @@
       <c r="B27" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2645,7 +2647,7 @@
       <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" t="s">
         <v>127</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2691,7 +2693,7 @@
       <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" t="s">
         <v>124</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -2737,7 +2739,7 @@
       <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" t="s">
         <v>127</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2783,7 +2785,7 @@
       <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" t="s">
         <v>127</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2829,7 +2831,7 @@
       <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" t="s">
         <v>124</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2875,7 +2877,7 @@
       <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" t="s">
         <v>124</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2921,7 +2923,7 @@
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2967,7 +2969,7 @@
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -3013,7 +3015,7 @@
       <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" t="s">
         <v>124</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -3059,7 +3061,7 @@
       <c r="B37" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" t="s">
         <v>127</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -3104,7 +3106,7 @@
       <c r="B38" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" t="s">
         <v>128</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -3149,7 +3151,7 @@
       <c r="B39" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" t="s">
         <v>124</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -3195,7 +3197,7 @@
       <c r="B40" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" t="s">
         <v>124</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -3241,7 +3243,7 @@
       <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" t="s">
         <v>124</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -3287,7 +3289,7 @@
       <c r="B42" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" t="s">
         <v>124</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -3333,7 +3335,7 @@
       <c r="B43" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" t="s">
         <v>127</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -3379,7 +3381,7 @@
       <c r="B44" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" t="s">
         <v>127</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -3425,7 +3427,7 @@
       <c r="B45" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" t="s">
         <v>124</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -3470,7 +3472,7 @@
       <c r="B46" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" t="s">
         <v>127</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -3515,7 +3517,7 @@
       <c r="B47" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" t="s">
         <v>124</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -3561,7 +3563,7 @@
       <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" t="s">
         <v>127</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -3607,7 +3609,7 @@
       <c r="B49" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" t="s">
         <v>124</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -3653,7 +3655,7 @@
       <c r="B50" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -3699,7 +3701,7 @@
       <c r="B51" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" t="s">
         <v>124</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -3745,7 +3747,7 @@
       <c r="B52" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" t="s">
         <v>124</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -3791,7 +3793,7 @@
       <c r="B53" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" t="s">
         <v>124</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -3837,7 +3839,7 @@
       <c r="B54" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" t="s">
         <v>124</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -3882,7 +3884,7 @@
       <c r="B55" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" t="s">
         <v>129</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -3926,7 +3928,7 @@
       <c r="B56" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" t="s">
         <v>125</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -3971,7 +3973,7 @@
       <c r="B57" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" t="s">
         <v>125</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -4016,7 +4018,7 @@
       <c r="B58" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" t="s">
         <v>125</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -4062,7 +4064,7 @@
       <c r="B59" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -4108,7 +4110,7 @@
       <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" t="s">
         <v>125</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -4152,7 +4154,7 @@
       <c r="B61" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" t="s">
         <v>125</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -4231,7 +4233,7 @@
       <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" t="s">
         <v>140</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -4271,7 +4273,7 @@
       <c r="B64" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" t="s">
         <v>128</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -4311,7 +4313,7 @@
       <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" t="s">
         <v>140</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -4351,7 +4353,7 @@
       <c r="B66" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" t="s">
         <v>127</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -4391,7 +4393,7 @@
       <c r="B67" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" t="s">
         <v>127</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -4433,7 +4435,7 @@
       <c r="B68" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" t="s">
         <v>127</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4475,7 +4477,7 @@
       <c r="B69" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" t="s">
         <v>127</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -4517,7 +4519,7 @@
       <c r="B70" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" t="s">
         <v>127</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -4559,7 +4561,7 @@
       <c r="B71" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -4601,7 +4603,7 @@
       <c r="B72" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" t="s">
         <v>127</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -4643,7 +4645,7 @@
       <c r="B73" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" t="s">
         <v>155</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -4682,7 +4684,7 @@
       <c r="B74" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" t="s">
         <v>155</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -4721,7 +4723,7 @@
       <c r="B75" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" t="s">
         <v>124</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -4764,7 +4766,7 @@
       <c r="B76" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" t="s">
         <v>124</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4807,7 +4809,7 @@
       <c r="B77" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" t="s">
         <v>124</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -4850,7 +4852,7 @@
       <c r="B78" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" t="s">
         <v>124</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -4893,7 +4895,7 @@
       <c r="B79" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" t="s">
         <v>124</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -4936,7 +4938,7 @@
       <c r="B80" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" t="s">
         <v>124</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -4979,7 +4981,7 @@
       <c r="B81" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" t="s">
         <v>124</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -5022,7 +5024,7 @@
       <c r="B82" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" t="s">
         <v>124</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -5065,7 +5067,7 @@
       <c r="B83" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" t="s">
         <v>124</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -5108,7 +5110,7 @@
       <c r="B84" t="s">
         <v>69</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" t="s">
         <v>124</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -5151,7 +5153,7 @@
       <c r="B85" t="s">
         <v>69</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" t="s">
         <v>124</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -5194,7 +5196,7 @@
       <c r="B86" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" t="s">
         <v>124</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -5237,7 +5239,7 @@
       <c r="B87" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" t="s">
         <v>124</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -5280,7 +5282,7 @@
       <c r="B88" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" t="s">
         <v>124</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -5323,7 +5325,7 @@
       <c r="B89" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" t="s">
         <v>124</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -5366,7 +5368,7 @@
       <c r="B90" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" t="s">
         <v>124</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -5409,7 +5411,7 @@
       <c r="B91" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" t="s">
         <v>124</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -5452,7 +5454,7 @@
       <c r="B92" t="s">
         <v>69</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" t="s">
         <v>124</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -5495,7 +5497,7 @@
       <c r="B93" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" t="s">
         <v>124</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -5538,7 +5540,7 @@
       <c r="B94" t="s">
         <v>69</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" t="s">
         <v>124</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -5581,7 +5583,7 @@
       <c r="B95" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" t="s">
         <v>205</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -5624,7 +5626,7 @@
       <c r="B96" t="s">
         <v>69</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" t="s">
         <v>125</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -5667,7 +5669,7 @@
       <c r="B97" t="s">
         <v>69</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" t="s">
         <v>128</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -5710,7 +5712,7 @@
       <c r="B98" t="s">
         <v>69</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" t="s">
         <v>125</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -5753,7 +5755,7 @@
       <c r="B99" t="s">
         <v>69</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" t="s">
         <v>206</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -5796,7 +5798,7 @@
       <c r="B100" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" t="s">
         <v>128</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -5839,7 +5841,7 @@
       <c r="B101" t="s">
         <v>69</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" t="s">
         <v>128</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -5882,7 +5884,7 @@
       <c r="B102" t="s">
         <v>69</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" t="s">
         <v>128</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -5925,7 +5927,7 @@
       <c r="B103" t="s">
         <v>69</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" t="s">
         <v>128</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -5968,7 +5970,7 @@
       <c r="B104" t="s">
         <v>69</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" t="s">
         <v>127</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -6011,7 +6013,7 @@
       <c r="B105" t="s">
         <v>69</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" t="s">
         <v>127</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -6054,7 +6056,7 @@
       <c r="B106" t="s">
         <v>69</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" t="s">
         <v>127</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -6097,7 +6099,7 @@
       <c r="B107" t="s">
         <v>69</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" t="s">
         <v>127</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -6140,7 +6142,7 @@
       <c r="B108" t="s">
         <v>69</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" t="s">
         <v>127</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -6183,7 +6185,7 @@
       <c r="B109" t="s">
         <v>69</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" t="s">
         <v>127</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -6226,7 +6228,7 @@
       <c r="B110" t="s">
         <v>69</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" t="s">
         <v>127</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -6269,7 +6271,7 @@
       <c r="B111" t="s">
         <v>69</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" t="s">
         <v>127</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -6312,7 +6314,7 @@
       <c r="B112" t="s">
         <v>69</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" t="s">
         <v>128</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -6355,7 +6357,7 @@
       <c r="B113" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" t="s">
         <v>128</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -6398,7 +6400,7 @@
       <c r="B114" t="s">
         <v>69</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" t="s">
         <v>128</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -6441,7 +6443,7 @@
       <c r="B115" t="s">
         <v>69</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" t="s">
         <v>128</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -6484,7 +6486,7 @@
       <c r="B116" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" t="s">
         <v>128</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -6527,7 +6529,7 @@
       <c r="B117" t="s">
         <v>69</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" t="s">
         <v>128</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -6570,7 +6572,7 @@
       <c r="B118" t="s">
         <v>69</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" t="s">
         <v>124</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -6596,7 +6598,7 @@
         <v>47</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" ref="K118:K125" si="7">A118&amp;" "&amp;I118</f>
+        <f t="shared" ref="K118:K126" si="7">A118&amp;" "&amp;I118</f>
         <v>Р1-8В-0,125-47 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L118" t="s">
@@ -6613,7 +6615,7 @@
       <c r="B119" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" t="s">
         <v>124</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -6656,7 +6658,7 @@
       <c r="B120" t="s">
         <v>69</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" t="s">
         <v>124</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -6699,7 +6701,7 @@
       <c r="B121" t="s">
         <v>69</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" t="s">
         <v>124</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -6742,7 +6744,7 @@
       <c r="B122" t="s">
         <v>69</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" t="s">
         <v>124</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -6785,7 +6787,7 @@
       <c r="B123" t="s">
         <v>69</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" t="s">
         <v>124</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -6828,7 +6830,7 @@
       <c r="B124" t="s">
         <v>69</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" t="s">
         <v>127</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -6867,7 +6869,7 @@
       <c r="B125" t="s">
         <v>69</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" t="s">
         <v>155</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -6896,6 +6898,45 @@
         <v>139</v>
       </c>
       <c r="M125" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>300</v>
+      </c>
+      <c r="B126" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E126" t="s">
+        <v>132</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="4">
+        <v>50</v>
+      </c>
+      <c r="I126" t="s">
+        <v>120</v>
+      </c>
+      <c r="J126">
+        <v>50</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="7"/>
+        <v>Р1-8В-0,1-50 Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L126" t="s">
+        <v>120</v>
+      </c>
+      <c r="M126" t="s">
         <v>294</v>
       </c>
     </row>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C629B9A-0D90-4077-AF37-4BAE1A3BC75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE1E19-94B3-41DA-9ECC-F3907D869D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="304">
   <si>
     <t>Part Number</t>
   </si>
@@ -737,9 +737,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>R2515</t>
-  </si>
-  <si>
     <t>R2010</t>
   </si>
   <si>
@@ -1023,6 +1020,18 @@
   </si>
   <si>
     <t>Р1-8В-0,1-50 Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-3,6 кОм±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>3,6к</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-750 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>R0806</t>
   </si>
 </sst>
 </file>
@@ -1405,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N126" sqref="N126"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,10 +1472,10 @@
         <v>131</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1510,7 +1519,7 @@
         <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1554,7 +1563,7 @@
         <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1598,7 +1607,7 @@
         <v>120</v>
       </c>
       <c r="M4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1632,7 +1641,7 @@
         <v>120</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
@@ -1643,7 +1652,7 @@
         <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1677,7 +1686,7 @@
         <v>120</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
@@ -1688,7 +1697,7 @@
         <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1722,7 +1731,7 @@
         <v>120</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
@@ -1733,7 +1742,7 @@
         <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1767,7 +1776,7 @@
         <v>120</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
@@ -1778,7 +1787,7 @@
         <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1811,7 +1820,7 @@
         <v>120</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
@@ -1821,7 +1830,7 @@
         <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1855,7 +1864,7 @@
         <v>120</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
@@ -1866,7 +1875,7 @@
         <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1900,7 +1909,7 @@
         <v>120</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
@@ -1911,7 +1920,7 @@
         <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1945,7 +1954,7 @@
         <v>120</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
@@ -1956,7 +1965,7 @@
         <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1990,7 +1999,7 @@
         <v>120</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
@@ -2001,7 +2010,7 @@
         <v>120</v>
       </c>
       <c r="M13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2035,7 +2044,7 @@
         <v>120</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
@@ -2046,7 +2055,7 @@
         <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2080,7 +2089,7 @@
         <v>120</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
@@ -2091,7 +2100,7 @@
         <v>120</v>
       </c>
       <c r="M15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2125,7 +2134,7 @@
         <v>120</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
@@ -2136,7 +2145,7 @@
         <v>120</v>
       </c>
       <c r="M16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2170,7 +2179,7 @@
         <v>120</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
@@ -2181,7 +2190,7 @@
         <v>120</v>
       </c>
       <c r="M17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2214,7 +2223,7 @@
         <v>120</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
@@ -2224,7 +2233,7 @@
         <v>120</v>
       </c>
       <c r="M18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2258,7 +2267,7 @@
         <v>120</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -2269,7 +2278,7 @@
         <v>120</v>
       </c>
       <c r="M19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2303,7 +2312,7 @@
         <v>120</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -2314,7 +2323,7 @@
         <v>120</v>
       </c>
       <c r="M20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2348,7 +2357,7 @@
         <v>120</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -2359,7 +2368,7 @@
         <v>120</v>
       </c>
       <c r="M21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2394,7 +2403,7 @@
         <v>120</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -2405,7 +2414,7 @@
         <v>120</v>
       </c>
       <c r="M22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2440,7 +2449,7 @@
         <v>120</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -2451,7 +2460,7 @@
         <v>120</v>
       </c>
       <c r="M23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2497,7 +2506,7 @@
         <v>120</v>
       </c>
       <c r="M24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2532,7 +2541,7 @@
         <v>120</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -2543,7 +2552,7 @@
         <v>120</v>
       </c>
       <c r="M25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2578,7 +2587,7 @@
         <v>120</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
@@ -2589,7 +2598,7 @@
         <v>120</v>
       </c>
       <c r="M26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2624,7 +2633,7 @@
         <v>120</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
@@ -2635,7 +2644,7 @@
         <v>120</v>
       </c>
       <c r="M27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2670,7 +2679,7 @@
         <v>120</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
@@ -2681,7 +2690,7 @@
         <v>120</v>
       </c>
       <c r="M28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2716,7 +2725,7 @@
         <v>120</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
@@ -2727,7 +2736,7 @@
         <v>120</v>
       </c>
       <c r="M29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2762,7 +2771,7 @@
         <v>120</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
@@ -2773,7 +2782,7 @@
         <v>120</v>
       </c>
       <c r="M30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2808,7 +2817,7 @@
         <v>120</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
@@ -2819,7 +2828,7 @@
         <v>120</v>
       </c>
       <c r="M31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2854,7 +2863,7 @@
         <v>120</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
@@ -2865,7 +2874,7 @@
         <v>120</v>
       </c>
       <c r="M32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2900,7 +2909,7 @@
         <v>120</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
@@ -2911,7 +2920,7 @@
         <v>120</v>
       </c>
       <c r="M33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2946,7 +2955,7 @@
         <v>120</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" ref="K34:K65" si="2">A34&amp;" "&amp;I34</f>
@@ -2957,7 +2966,7 @@
         <v>120</v>
       </c>
       <c r="M34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2992,7 +3001,7 @@
         <v>120</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="2"/>
@@ -3003,7 +3012,7 @@
         <v>120</v>
       </c>
       <c r="M35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3038,7 +3047,7 @@
         <v>120</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="2"/>
@@ -3049,7 +3058,7 @@
         <v>120</v>
       </c>
       <c r="M36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3084,7 +3093,7 @@
         <v>120</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="2"/>
@@ -3095,7 +3104,7 @@
         <v>120</v>
       </c>
       <c r="M37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3129,7 +3138,7 @@
         <v>120</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
@@ -3139,7 +3148,7 @@
         <v>120</v>
       </c>
       <c r="M38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -3174,7 +3183,7 @@
         <v>120</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
@@ -3185,7 +3194,7 @@
         <v>120</v>
       </c>
       <c r="M39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -3220,7 +3229,7 @@
         <v>120</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
@@ -3231,7 +3240,7 @@
         <v>120</v>
       </c>
       <c r="M40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3266,7 +3275,7 @@
         <v>120</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
@@ -3277,7 +3286,7 @@
         <v>120</v>
       </c>
       <c r="M41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -3312,7 +3321,7 @@
         <v>120</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="2"/>
@@ -3323,7 +3332,7 @@
         <v>120</v>
       </c>
       <c r="M42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3358,7 +3367,7 @@
         <v>120</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="2"/>
@@ -3369,7 +3378,7 @@
         <v>120</v>
       </c>
       <c r="M43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3404,7 +3413,7 @@
         <v>120</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="2"/>
@@ -3415,7 +3424,7 @@
         <v>120</v>
       </c>
       <c r="M44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3450,7 +3459,7 @@
         <v>120</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
@@ -3461,7 +3470,7 @@
         <v>120</v>
       </c>
       <c r="M45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3495,7 +3504,7 @@
         <v>120</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
@@ -3505,7 +3514,7 @@
         <v>120</v>
       </c>
       <c r="M46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3540,7 +3549,7 @@
         <v>120</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
@@ -3551,7 +3560,7 @@
         <v>120</v>
       </c>
       <c r="M47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3586,7 +3595,7 @@
         <v>120</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
@@ -3597,7 +3606,7 @@
         <v>120</v>
       </c>
       <c r="M48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3632,7 +3641,7 @@
         <v>120</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
@@ -3643,7 +3652,7 @@
         <v>120</v>
       </c>
       <c r="M49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3678,7 +3687,7 @@
         <v>120</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
@@ -3689,7 +3698,7 @@
         <v>120</v>
       </c>
       <c r="M50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3724,7 +3733,7 @@
         <v>120</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
@@ -3735,7 +3744,7 @@
         <v>120</v>
       </c>
       <c r="M51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3770,7 +3779,7 @@
         <v>120</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="2"/>
@@ -3781,7 +3790,7 @@
         <v>120</v>
       </c>
       <c r="M52" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3816,7 +3825,7 @@
         <v>120</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="2"/>
@@ -3827,7 +3836,7 @@
         <v>120</v>
       </c>
       <c r="M53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3862,7 +3871,7 @@
         <v>120</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
@@ -3873,7 +3882,7 @@
         <v>120</v>
       </c>
       <c r="M54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3906,7 +3915,7 @@
         <v>121</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
@@ -3916,7 +3925,7 @@
         <v>121</v>
       </c>
       <c r="M55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3950,7 +3959,7 @@
         <v>122</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
@@ -3961,7 +3970,7 @@
         <v>122</v>
       </c>
       <c r="M56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3995,7 +4004,7 @@
         <v>122</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="2"/>
@@ -4006,7 +4015,7 @@
         <v>122</v>
       </c>
       <c r="M57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -4041,7 +4050,7 @@
         <v>123</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="2"/>
@@ -4052,7 +4061,7 @@
         <v>123</v>
       </c>
       <c r="M58" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4087,7 +4096,7 @@
         <v>123</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="2"/>
@@ -4098,7 +4107,7 @@
         <v>123</v>
       </c>
       <c r="M59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4133,7 +4142,7 @@
         <v>123</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
@@ -4144,7 +4153,7 @@
         <v>123</v>
       </c>
       <c r="M60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -4186,7 +4195,7 @@
         <v>122</v>
       </c>
       <c r="M61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4213,7 +4222,7 @@
         <v>139</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="2"/>
@@ -4223,7 +4232,7 @@
         <v>139</v>
       </c>
       <c r="M62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -4253,7 +4262,7 @@
         <v>120</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="2"/>
@@ -4263,7 +4272,7 @@
         <v>120</v>
       </c>
       <c r="M63" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -4293,7 +4302,7 @@
         <v>120</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="2"/>
@@ -4303,7 +4312,7 @@
         <v>120</v>
       </c>
       <c r="M64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -4333,7 +4342,7 @@
         <v>120</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="2"/>
@@ -4343,7 +4352,7 @@
         <v>120</v>
       </c>
       <c r="M65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -4383,7 +4392,7 @@
         <v>120</v>
       </c>
       <c r="M66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -4415,7 +4424,7 @@
         <v>120</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="3"/>
@@ -4425,7 +4434,7 @@
         <v>120</v>
       </c>
       <c r="M67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -4457,7 +4466,7 @@
         <v>120</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="3"/>
@@ -4467,7 +4476,7 @@
         <v>120</v>
       </c>
       <c r="M68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -4499,7 +4508,7 @@
         <v>120</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="3"/>
@@ -4509,7 +4518,7 @@
         <v>120</v>
       </c>
       <c r="M69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -4551,7 +4560,7 @@
         <v>120</v>
       </c>
       <c r="M70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -4583,7 +4592,7 @@
         <v>120</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="3"/>
@@ -4593,7 +4602,7 @@
         <v>120</v>
       </c>
       <c r="M71" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -4625,7 +4634,7 @@
         <v>120</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="3"/>
@@ -4635,12 +4644,12 @@
         <v>120</v>
       </c>
       <c r="M72" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B73" t="s">
         <v>69</v>
@@ -4664,7 +4673,7 @@
         <v>139</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="3"/>
@@ -4674,12 +4683,12 @@
         <v>139</v>
       </c>
       <c r="M73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B74" t="s">
         <v>69</v>
@@ -4703,7 +4712,7 @@
         <v>139</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="3"/>
@@ -4713,7 +4722,7 @@
         <v>139</v>
       </c>
       <c r="M74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -4756,7 +4765,7 @@
         <v>120</v>
       </c>
       <c r="M75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -4799,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="M76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4842,7 +4851,7 @@
         <v>120</v>
       </c>
       <c r="M77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4885,7 +4894,7 @@
         <v>120</v>
       </c>
       <c r="M78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4928,7 +4937,7 @@
         <v>120</v>
       </c>
       <c r="M79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4971,7 +4980,7 @@
         <v>120</v>
       </c>
       <c r="M80" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -5014,7 +5023,7 @@
         <v>120</v>
       </c>
       <c r="M81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -5057,7 +5066,7 @@
         <v>120</v>
       </c>
       <c r="M82" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -5100,7 +5109,7 @@
         <v>120</v>
       </c>
       <c r="M83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -5143,7 +5152,7 @@
         <v>120</v>
       </c>
       <c r="M84" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -5186,7 +5195,7 @@
         <v>120</v>
       </c>
       <c r="M85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -5229,7 +5238,7 @@
         <v>120</v>
       </c>
       <c r="M86" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -5272,7 +5281,7 @@
         <v>120</v>
       </c>
       <c r="M87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -5315,7 +5324,7 @@
         <v>120</v>
       </c>
       <c r="M88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -5358,7 +5367,7 @@
         <v>120</v>
       </c>
       <c r="M89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -5401,7 +5410,7 @@
         <v>120</v>
       </c>
       <c r="M90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -5444,7 +5453,7 @@
         <v>120</v>
       </c>
       <c r="M91" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -5487,7 +5496,7 @@
         <v>120</v>
       </c>
       <c r="M92" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -5530,7 +5539,7 @@
         <v>120</v>
       </c>
       <c r="M93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -5573,7 +5582,7 @@
         <v>120</v>
       </c>
       <c r="M94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -5584,7 +5593,7 @@
         <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>70</v>
@@ -5616,7 +5625,7 @@
         <v>122</v>
       </c>
       <c r="M95" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -5659,7 +5668,7 @@
         <v>122</v>
       </c>
       <c r="M96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -5702,7 +5711,7 @@
         <v>122</v>
       </c>
       <c r="M97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -5745,7 +5754,7 @@
         <v>122</v>
       </c>
       <c r="M98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -5756,7 +5765,7 @@
         <v>69</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>70</v>
@@ -5788,12 +5797,12 @@
         <v>122</v>
       </c>
       <c r="M99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B100" t="s">
         <v>69</v>
@@ -5831,12 +5840,12 @@
         <v>120</v>
       </c>
       <c r="M100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B101" t="s">
         <v>69</v>
@@ -5854,7 +5863,7 @@
         <v>9</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H101" s="4">
         <v>0.25</v>
@@ -5874,12 +5883,12 @@
         <v>120</v>
       </c>
       <c r="M101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B102" t="s">
         <v>69</v>
@@ -5897,7 +5906,7 @@
         <v>9</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H102" s="4">
         <v>0.25</v>
@@ -5917,12 +5926,12 @@
         <v>120</v>
       </c>
       <c r="M102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B103" t="s">
         <v>69</v>
@@ -5940,10 +5949,10 @@
         <v>9</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I103" t="s">
         <v>120</v>
@@ -5960,12 +5969,12 @@
         <v>120</v>
       </c>
       <c r="M103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B104" t="s">
         <v>69</v>
@@ -6003,12 +6012,12 @@
         <v>123</v>
       </c>
       <c r="M104" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B105" t="s">
         <v>69</v>
@@ -6046,12 +6055,12 @@
         <v>123</v>
       </c>
       <c r="M105" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B106" t="s">
         <v>69</v>
@@ -6089,12 +6098,12 @@
         <v>123</v>
       </c>
       <c r="M106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B107" t="s">
         <v>69</v>
@@ -6132,12 +6141,12 @@
         <v>123</v>
       </c>
       <c r="M107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B108" t="s">
         <v>69</v>
@@ -6175,12 +6184,12 @@
         <v>123</v>
       </c>
       <c r="M108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B109" t="s">
         <v>69</v>
@@ -6218,12 +6227,12 @@
         <v>123</v>
       </c>
       <c r="M109" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B110" t="s">
         <v>69</v>
@@ -6261,12 +6270,12 @@
         <v>123</v>
       </c>
       <c r="M110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
@@ -6304,12 +6313,12 @@
         <v>123</v>
       </c>
       <c r="M111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
@@ -6347,12 +6356,12 @@
         <v>120</v>
       </c>
       <c r="M112" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B113" t="s">
         <v>69</v>
@@ -6370,7 +6379,7 @@
         <v>9</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H113" s="4">
         <v>0.25</v>
@@ -6390,12 +6399,12 @@
         <v>120</v>
       </c>
       <c r="M113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B114" t="s">
         <v>69</v>
@@ -6433,12 +6442,12 @@
         <v>120</v>
       </c>
       <c r="M114" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B115" t="s">
         <v>69</v>
@@ -6476,12 +6485,12 @@
         <v>120</v>
       </c>
       <c r="M115" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B116" t="s">
         <v>69</v>
@@ -6499,7 +6508,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H116" s="4">
         <v>0.25</v>
@@ -6519,12 +6528,12 @@
         <v>120</v>
       </c>
       <c r="M116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B117" t="s">
         <v>69</v>
@@ -6542,7 +6551,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H117" s="4">
         <v>0.25</v>
@@ -6562,12 +6571,12 @@
         <v>120</v>
       </c>
       <c r="M117" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B118" t="s">
         <v>69</v>
@@ -6598,19 +6607,19 @@
         <v>47</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" ref="K118:K126" si="7">A118&amp;" "&amp;I118</f>
+        <f t="shared" ref="K118:K127" si="7">A118&amp;" "&amp;I118</f>
         <v>Р1-8В-0,125-47 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L118" t="s">
         <v>120</v>
       </c>
       <c r="M118" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B119" t="s">
         <v>69</v>
@@ -6628,7 +6637,7 @@
         <v>9</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H119" s="4">
         <v>0.25</v>
@@ -6648,12 +6657,12 @@
         <v>120</v>
       </c>
       <c r="M119" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B120" t="s">
         <v>69</v>
@@ -6691,12 +6700,12 @@
         <v>120</v>
       </c>
       <c r="M120" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B121" t="s">
         <v>69</v>
@@ -6734,12 +6743,12 @@
         <v>120</v>
       </c>
       <c r="M121" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B122" t="s">
         <v>69</v>
@@ -6757,7 +6766,7 @@
         <v>9</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H122" s="4">
         <v>0.25</v>
@@ -6777,12 +6786,12 @@
         <v>120</v>
       </c>
       <c r="M122" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B123" t="s">
         <v>69</v>
@@ -6800,7 +6809,7 @@
         <v>9</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H123" s="4">
         <v>0.25</v>
@@ -6820,12 +6829,12 @@
         <v>120</v>
       </c>
       <c r="M123" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B124" t="s">
         <v>69</v>
@@ -6859,12 +6868,12 @@
         <v>120</v>
       </c>
       <c r="M124" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B125" t="s">
         <v>69</v>
@@ -6898,12 +6907,12 @@
         <v>139</v>
       </c>
       <c r="M125" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B126" t="s">
         <v>69</v>
@@ -6937,7 +6946,85 @@
         <v>120</v>
       </c>
       <c r="M126" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>300</v>
+      </c>
+      <c r="B127" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" t="s">
+        <v>124</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E127" t="s">
+        <v>132</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" t="s">
+        <v>301</v>
+      </c>
+      <c r="I127" t="s">
+        <v>120</v>
+      </c>
+      <c r="J127" t="s">
+        <v>301</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="7"/>
+        <v>Р1-8В-0,125-3,6 кОм±1%-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L127" t="s">
+        <v>120</v>
+      </c>
+      <c r="M127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>302</v>
+      </c>
+      <c r="B128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" t="s">
+        <v>303</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E128" t="s">
+        <v>132</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="4">
+        <v>750</v>
+      </c>
+      <c r="I128" t="s">
+        <v>120</v>
+      </c>
+      <c r="J128">
+        <v>750</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" ref="K128" si="8">A128&amp;" "&amp;I128</f>
+        <v>Р1-8В-0,125-750 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L128" t="s">
+        <v>120</v>
+      </c>
+      <c r="M128" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FE1E19-94B3-41DA-9ECC-F3907D869D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088587C7-C8B6-47B9-A5D4-1CB09FFAF443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="311">
   <si>
     <t>Part Number</t>
   </si>
@@ -1032,6 +1032,27 @@
   </si>
   <si>
     <t>R0806</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-2кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-5кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р1-8В-0,1-130 Ом±1% -Т-А-М </t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-300кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-300Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-1кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-10кОм±1% -Т-А-М</t>
   </si>
 </sst>
 </file>
@@ -1414,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7017,13 +7038,293 @@
         <v>750</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" ref="K128" si="8">A128&amp;" "&amp;I128</f>
+        <f t="shared" ref="K128:K133" si="8">A128&amp;" "&amp;I128</f>
         <v>Р1-8В-0,125-750 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L128" t="s">
         <v>120</v>
       </c>
       <c r="M128" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>304</v>
+      </c>
+      <c r="B129" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" t="s">
+        <v>127</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E129" t="s">
+        <v>132</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" t="s">
+        <v>187</v>
+      </c>
+      <c r="I129" t="s">
+        <v>120</v>
+      </c>
+      <c r="J129" t="str">
+        <f>G129</f>
+        <v>2к</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="8"/>
+        <v>Р1-8В-0,1-2кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L129" t="s">
+        <v>120</v>
+      </c>
+      <c r="M129" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>305</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E130" t="s">
+        <v>132</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" t="s">
+        <v>194</v>
+      </c>
+      <c r="I130" t="s">
+        <v>120</v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" ref="J130:J133" si="9">G130</f>
+        <v>5к</v>
+      </c>
+      <c r="K130" t="str">
+        <f t="shared" si="8"/>
+        <v>Р1-8В-0,1-5кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L130" t="s">
+        <v>120</v>
+      </c>
+      <c r="M130" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>306</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" t="s">
+        <v>127</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E131" t="s">
+        <v>132</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131">
+        <v>130</v>
+      </c>
+      <c r="I131" t="s">
+        <v>120</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" si="8"/>
+        <v>Р1-8В-0,1-130 Ом±1% -Т-А-М  ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L131" t="s">
+        <v>120</v>
+      </c>
+      <c r="M131" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>307</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132" t="s">
+        <v>127</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E132" t="s">
+        <v>132</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" t="s">
+        <v>193</v>
+      </c>
+      <c r="I132" t="s">
+        <v>120</v>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" si="9"/>
+        <v>300к</v>
+      </c>
+      <c r="K132" t="str">
+        <f t="shared" si="8"/>
+        <v>Р1-8В-0,1-300кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L132" t="s">
+        <v>120</v>
+      </c>
+      <c r="M132" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>308</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E133" t="s">
+        <v>132</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133">
+        <v>300</v>
+      </c>
+      <c r="I133" t="s">
+        <v>120</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="K133" t="str">
+        <f t="shared" si="8"/>
+        <v>Р1-8В-0,1-300Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L133" t="s">
+        <v>120</v>
+      </c>
+      <c r="M133" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>309</v>
+      </c>
+      <c r="B134" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134" t="s">
+        <v>127</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E134" t="s">
+        <v>132</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" t="s">
+        <v>228</v>
+      </c>
+      <c r="I134" t="s">
+        <v>120</v>
+      </c>
+      <c r="J134" t="str">
+        <f t="shared" ref="J134" si="10">G134</f>
+        <v>1к</v>
+      </c>
+      <c r="K134" t="str">
+        <f t="shared" ref="K134" si="11">A134&amp;" "&amp;I134</f>
+        <v>Р1-8В-0,1-1кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L134" t="s">
+        <v>120</v>
+      </c>
+      <c r="M134" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>310</v>
+      </c>
+      <c r="B135" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" t="s">
+        <v>127</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E135" t="s">
+        <v>132</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" t="s">
+        <v>237</v>
+      </c>
+      <c r="I135" t="s">
+        <v>120</v>
+      </c>
+      <c r="J135" t="str">
+        <f>G135</f>
+        <v>10к</v>
+      </c>
+      <c r="K135" t="str">
+        <f t="shared" ref="K135" si="12">A135&amp;" "&amp;I135</f>
+        <v>Р1-8В-0,1-10кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L135" t="s">
+        <v>120</v>
+      </c>
+      <c r="M135" t="s">
         <v>293</v>
       </c>
     </row>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088587C7-C8B6-47B9-A5D4-1CB09FFAF443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6322CE1C-8A51-4901-8A61-640C027D4736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="324">
   <si>
     <t>Part Number</t>
   </si>
@@ -1053,6 +1053,45 @@
   </si>
   <si>
     <t>Р1-8В-0,1-10кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>RC0603F10K</t>
+  </si>
+  <si>
+    <t>RC0603F0R</t>
+  </si>
+  <si>
+    <t>RC0805FR-075KL</t>
+  </si>
+  <si>
+    <t>R0603F464RTG</t>
+  </si>
+  <si>
+    <t>RI0603L1001FT</t>
+  </si>
+  <si>
+    <t>RL2512FK-070R01L</t>
+  </si>
+  <si>
+    <t>RC0603FR-07121RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-0751RL</t>
+  </si>
+  <si>
+    <t>R0603F549RTG</t>
+  </si>
+  <si>
+    <t>RC0603FR-07300KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-072KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07130RL</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1435,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7318,7 +7357,7 @@
         <v>10к</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" ref="K135" si="12">A135&amp;" "&amp;I135</f>
+        <f t="shared" ref="K135:K147" si="12">A135&amp;" "&amp;I135</f>
         <v>Р1-8В-0,1-10кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L135" t="s">
@@ -7326,6 +7365,414 @@
       </c>
       <c r="M135" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B136" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" t="s">
+        <v>127</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E136" t="s">
+        <v>132</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" t="s">
+        <v>237</v>
+      </c>
+      <c r="J136" t="str">
+        <f>G136</f>
+        <v>10к</v>
+      </c>
+      <c r="K136" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">RC0603F10K </v>
+      </c>
+      <c r="L136" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B137" t="s">
+        <v>69</v>
+      </c>
+      <c r="C137" t="s">
+        <v>127</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E137" t="s">
+        <v>132</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" t="s">
+        <v>204</v>
+      </c>
+      <c r="J137" t="str">
+        <f>G137</f>
+        <v>0</v>
+      </c>
+      <c r="K137" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">RC0603F0R </v>
+      </c>
+      <c r="L137" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B138" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" t="s">
+        <v>127</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E138" t="s">
+        <v>132</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" t="s">
+        <v>194</v>
+      </c>
+      <c r="J138" t="str">
+        <f>G138</f>
+        <v>5к</v>
+      </c>
+      <c r="K138" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">RC0805FR-075KL </v>
+      </c>
+      <c r="L138" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" t="s">
+        <v>127</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E139" t="s">
+        <v>132</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139">
+        <v>464</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ref="J139:J147" si="13">G139</f>
+        <v>464</v>
+      </c>
+      <c r="K139" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">R0603F464RTG </v>
+      </c>
+      <c r="L139" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B140" t="s">
+        <v>69</v>
+      </c>
+      <c r="C140" t="s">
+        <v>127</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E140" t="s">
+        <v>132</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" t="s">
+        <v>228</v>
+      </c>
+      <c r="J140" t="str">
+        <f t="shared" si="13"/>
+        <v>1к</v>
+      </c>
+      <c r="K140" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">RI0603L1001FT </v>
+      </c>
+      <c r="L140" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B141" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" t="s">
+        <v>125</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E141" t="s">
+        <v>132</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141">
+        <v>0.01</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="13"/>
+        <v>0.01</v>
+      </c>
+      <c r="K141" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">RL2512FK-070R01L </v>
+      </c>
+      <c r="L141" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B142" t="s">
+        <v>69</v>
+      </c>
+      <c r="C142" t="s">
+        <v>127</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E142" t="s">
+        <v>132</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142">
+        <v>121</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="13"/>
+        <v>121</v>
+      </c>
+      <c r="K142" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">RC0603FR-07121RL </v>
+      </c>
+      <c r="L142" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B143" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" t="s">
+        <v>127</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E143" t="s">
+        <v>132</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143">
+        <v>51</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="13"/>
+        <v>51</v>
+      </c>
+      <c r="K143" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">RC0603FR-0751RL </v>
+      </c>
+      <c r="L143" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B144" t="s">
+        <v>69</v>
+      </c>
+      <c r="C144" t="s">
+        <v>127</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E144" t="s">
+        <v>132</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144">
+        <v>549</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="13"/>
+        <v>549</v>
+      </c>
+      <c r="K144" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">R0603F549RTG </v>
+      </c>
+      <c r="L144" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C145" t="s">
+        <v>127</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E145" t="s">
+        <v>132</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" t="s">
+        <v>193</v>
+      </c>
+      <c r="J145" t="str">
+        <f t="shared" si="13"/>
+        <v>300к</v>
+      </c>
+      <c r="K145" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">RC0603FR-07300KL </v>
+      </c>
+      <c r="L145" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B146" t="s">
+        <v>69</v>
+      </c>
+      <c r="C146" t="s">
+        <v>127</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E146" t="s">
+        <v>132</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" t="s">
+        <v>187</v>
+      </c>
+      <c r="J146" t="str">
+        <f t="shared" si="13"/>
+        <v>2к</v>
+      </c>
+      <c r="K146" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">RC0603FR-072KL </v>
+      </c>
+      <c r="L146" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B147" t="s">
+        <v>69</v>
+      </c>
+      <c r="C147" t="s">
+        <v>127</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E147" t="s">
+        <v>132</v>
+      </c>
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147">
+        <v>130</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+      <c r="K147" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">RC0603FR-07130RL </v>
+      </c>
+      <c r="L147" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6322CE1C-8A51-4901-8A61-640C027D4736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D41FEE-C7F9-4A36-BC18-1654E960CC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="329">
   <si>
     <t>Part Number</t>
   </si>
@@ -493,8 +493,581 @@
     <t>С2-33-2,4 кОм ±1%  Т-В-В</t>
   </si>
   <si>
+    <t>Р1--8В-2-120 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1--8В-0,25-100 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1--8В-2-240 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>0,01Ом</t>
+  </si>
+  <si>
+    <t>ОЖ0.467.093ТУ</t>
+  </si>
+  <si>
+    <t>R4020</t>
+  </si>
+  <si>
+    <t>2,4кОм</t>
+  </si>
+  <si>
+    <t>120Ом</t>
+  </si>
+  <si>
+    <t>240Ом</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-0-А-М</t>
+  </si>
+  <si>
+    <t>P1-8B-0,1-46,4кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>P1-8B-0,1-5,11кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>P1-8B-0,1-121Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>P1-8B-0,1-549Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>P1-8B-0,1-221Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>P1-8B-0,1-464Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>221Ом</t>
+  </si>
+  <si>
+    <t>464Ом</t>
+  </si>
+  <si>
+    <t>121Ом</t>
+  </si>
+  <si>
+    <t>549Ом</t>
+  </si>
+  <si>
+    <t>С2-33Н-1</t>
+  </si>
+  <si>
+    <t>2,43кОм</t>
+  </si>
+  <si>
+    <t>909Ом</t>
+  </si>
+  <si>
+    <t>10 Ом</t>
+  </si>
+  <si>
+    <t>20 Ом</t>
+  </si>
+  <si>
+    <t>33,2 Ом</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-125кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-390кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-2,75кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-4кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-330кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-330Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-560Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-15кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-5,1кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-33кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-2кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-390Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-6,2кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-300Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-80кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-5,6кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-51кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-300кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-5кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>125к</t>
+  </si>
+  <si>
+    <t>390к</t>
+  </si>
+  <si>
+    <t>2,75к</t>
+  </si>
+  <si>
+    <t>4к</t>
+  </si>
+  <si>
+    <t>15к</t>
+  </si>
+  <si>
+    <t>5,1к</t>
+  </si>
+  <si>
+    <t>33к</t>
+  </si>
+  <si>
+    <t>2к</t>
+  </si>
+  <si>
+    <t>6,2к</t>
+  </si>
+  <si>
+    <t>80к</t>
+  </si>
+  <si>
+    <t>5,6к</t>
+  </si>
+  <si>
+    <t>51к</t>
+  </si>
+  <si>
+    <t>330к</t>
+  </si>
+  <si>
+    <t>300к</t>
+  </si>
+  <si>
+    <t>5к</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-3,3кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>3,3к</t>
+  </si>
+  <si>
+    <t>P2-105-0,75-0,33Ом±1%-А</t>
+  </si>
+  <si>
+    <t>P2-105-2,0-0,33Ом±1%-А</t>
+  </si>
+  <si>
+    <t>P2-105-0,25-0-А</t>
+  </si>
+  <si>
+    <t>P2-105-0,75-0-А</t>
+  </si>
+  <si>
+    <t>P2-105-0,4-0,01Ом±1%-А</t>
+  </si>
+  <si>
+    <t>0,33</t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>R2010</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>33,2</t>
+  </si>
+  <si>
+    <t>51,1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0,022</t>
+  </si>
+  <si>
+    <t>0,068</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>2,43</t>
+  </si>
+  <si>
+    <t>2-120</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>1к</t>
+  </si>
+  <si>
+    <t>1,5к</t>
+  </si>
+  <si>
+    <t>2,74к</t>
+  </si>
+  <si>
+    <t>3,32к</t>
+  </si>
+  <si>
+    <t>4,02к</t>
+  </si>
+  <si>
+    <t>4,7к</t>
+  </si>
+  <si>
+    <t>4,75к</t>
+  </si>
+  <si>
+    <t>5,11к</t>
+  </si>
+  <si>
+    <t>5,62к</t>
+  </si>
+  <si>
+    <t>10к</t>
+  </si>
+  <si>
+    <t>20к</t>
+  </si>
+  <si>
+    <t>24,9к</t>
+  </si>
+  <si>
+    <t>30,1к</t>
+  </si>
+  <si>
+    <t>33,2к</t>
+  </si>
+  <si>
+    <t>40,2к</t>
+  </si>
+  <si>
+    <t>46,4к</t>
+  </si>
+  <si>
+    <t>51,1к</t>
+  </si>
+  <si>
+    <t>56,2к</t>
+  </si>
+  <si>
+    <t>100к</t>
+  </si>
+  <si>
+    <t>243к</t>
+  </si>
+  <si>
+    <t>301к</t>
+  </si>
+  <si>
+    <t>562к</t>
+  </si>
+  <si>
+    <t>80,6к</t>
+  </si>
+  <si>
+    <t>124к</t>
+  </si>
+  <si>
+    <t>150к</t>
+  </si>
+  <si>
+    <t>182к</t>
+  </si>
+  <si>
+    <t>392к</t>
+  </si>
+  <si>
+    <t>1,21к</t>
+  </si>
+  <si>
+    <t>3,65к</t>
+  </si>
+  <si>
+    <t>46к</t>
+  </si>
+  <si>
+    <t>2,4к</t>
+  </si>
+  <si>
+    <t>1М</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,25-10 Ом±1% -Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,25-100 Ом±1% -Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,25-510 Ом±1% -Л-А-М</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,25-470 Ом±1% -Л-А-М</t>
+  </si>
+  <si>
+    <t>0,25</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>Р1-12-0,062-110 Ом±5%</t>
+  </si>
+  <si>
+    <t>Р1-12-0,062-56 Ом±5%</t>
+  </si>
+  <si>
+    <t>Р1-12-0,062-27 Ом±5%</t>
+  </si>
+  <si>
+    <t>Р1-12-0,062-13 Ом±5%</t>
+  </si>
+  <si>
+    <t>Р1-12-0,062-6,8 Ом±5%</t>
+  </si>
+  <si>
+    <t>Р1-12-0,062-180 Ом±5%</t>
+  </si>
+  <si>
+    <t>Р1-12-0,062-200 Ом±5%</t>
+  </si>
+  <si>
+    <t>Р1-12-0,062-220 Ом±5%</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,25-47 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,25-1 кОм±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,25-40 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,25-150 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,25-1,8 кОм±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,25-13 кОм±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>1,8к</t>
+  </si>
+  <si>
+    <t>13к</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-47 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-40 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-150 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-1,8 кОм±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-13 кОм±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-510 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>StandartDoc</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>АО "НПО "Эркон"</t>
+  </si>
+  <si>
+    <t>АО "Кермет"</t>
+  </si>
+  <si>
+    <t>С2-33Н-1-909Ом±1%-А-В-В</t>
+  </si>
+  <si>
+    <t>С2-33Н-1-2,43кОм±1%-А-В-В</t>
+  </si>
+  <si>
+    <t>Р1-8В-0603-0-А-М</t>
+  </si>
+  <si>
+    <t>С2-33Н-1-200 Ом±1%-А-В-В</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-50 Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-3,6 кОм±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>3,6к</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-750 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>R0806</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-2кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-5кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р1-8В-0,1-130 Ом±1% -Т-А-М </t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-300кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-300Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-1кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-10кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>RC0603F0R</t>
+  </si>
+  <si>
+    <t>RC0805FR-075KL</t>
+  </si>
+  <si>
+    <t>RL2512FK-070R01L</t>
+  </si>
+  <si>
+    <t>RC0603FR-07121RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-0751RL</t>
+  </si>
+  <si>
+    <t>R0603F549RTG</t>
+  </si>
+  <si>
+    <t>RC0603FR-07300KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-072KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07130RL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-24 кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-620 Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-750 Ом±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-3,3 кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>24к</t>
+  </si>
+  <si>
     <r>
-      <t>Р1-105-2-0,01 Ом</t>
+      <t>Р2-105-2-0,01 Ом</t>
     </r>
     <r>
       <rPr>
@@ -527,571 +1100,13 @@
     </r>
   </si>
   <si>
-    <t>Р1--8В-2-120 Ом±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1--8В-0,25-100 Ом±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1--8В-2-240 Ом±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>0,01Ом</t>
-  </si>
-  <si>
-    <t>ОЖ0.467.093ТУ</t>
-  </si>
-  <si>
-    <t>R4020</t>
-  </si>
-  <si>
-    <t>2,4кОм</t>
-  </si>
-  <si>
-    <t>120Ом</t>
-  </si>
-  <si>
-    <t>240Ом</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,1-0-А-М</t>
-  </si>
-  <si>
-    <t>P1-8B-0,1-46,4кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>P1-8B-0,1-5,11кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>P1-8B-0,1-121Ом±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>P1-8B-0,1-549Ом±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>P1-8B-0,1-221Ом±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>P1-8B-0,1-464Ом±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>221Ом</t>
-  </si>
-  <si>
-    <t>464Ом</t>
-  </si>
-  <si>
-    <t>121Ом</t>
-  </si>
-  <si>
-    <t>549Ом</t>
-  </si>
-  <si>
-    <t>С2-33Н-1</t>
-  </si>
-  <si>
-    <t>2,43кОм</t>
-  </si>
-  <si>
-    <t>909Ом</t>
-  </si>
-  <si>
-    <t>10 Ом</t>
-  </si>
-  <si>
-    <t>20 Ом</t>
-  </si>
-  <si>
-    <t>33,2 Ом</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-125кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-390кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-2,75кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-4кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-330кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-330Ом±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-560Ом±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-15кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-5,1кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-33кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-2кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-390Ом±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-6,2кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-300Ом±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-80кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-5,6кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-51кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-300кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-5кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>125к</t>
-  </si>
-  <si>
-    <t>390к</t>
-  </si>
-  <si>
-    <t>2,75к</t>
-  </si>
-  <si>
-    <t>4к</t>
-  </si>
-  <si>
-    <t>15к</t>
-  </si>
-  <si>
-    <t>5,1к</t>
-  </si>
-  <si>
-    <t>33к</t>
-  </si>
-  <si>
-    <t>2к</t>
-  </si>
-  <si>
-    <t>6,2к</t>
-  </si>
-  <si>
-    <t>80к</t>
-  </si>
-  <si>
-    <t>5,6к</t>
-  </si>
-  <si>
-    <t>51к</t>
-  </si>
-  <si>
-    <t>330к</t>
-  </si>
-  <si>
-    <t>300к</t>
-  </si>
-  <si>
-    <t>5к</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-3,3кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>3,3к</t>
-  </si>
-  <si>
-    <t>P2-105-0,75-0,33Ом±1%-А</t>
-  </si>
-  <si>
-    <t>P2-105-2,0-0,33Ом±1%-А</t>
-  </si>
-  <si>
-    <t>P2-105-0,25-0-А</t>
-  </si>
-  <si>
-    <t>P2-105-0,75-0-А</t>
-  </si>
-  <si>
-    <t>P2-105-0,4-0,01Ом±1%-А</t>
-  </si>
-  <si>
-    <t>0,33</t>
-  </si>
-  <si>
-    <t>0,01</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>R2010</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>18,2</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>33,2</t>
-  </si>
-  <si>
-    <t>51,1</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>0,022</t>
-  </si>
-  <si>
-    <t>0,068</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>2,43</t>
-  </si>
-  <si>
-    <t>2-120</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>1к</t>
-  </si>
-  <si>
-    <t>1,5к</t>
-  </si>
-  <si>
-    <t>2,74к</t>
-  </si>
-  <si>
-    <t>3,32к</t>
-  </si>
-  <si>
-    <t>4,02к</t>
-  </si>
-  <si>
-    <t>4,7к</t>
-  </si>
-  <si>
-    <t>4,75к</t>
-  </si>
-  <si>
-    <t>5,11к</t>
-  </si>
-  <si>
-    <t>5,62к</t>
-  </si>
-  <si>
-    <t>10к</t>
-  </si>
-  <si>
-    <t>20к</t>
-  </si>
-  <si>
-    <t>24,9к</t>
-  </si>
-  <si>
-    <t>30,1к</t>
-  </si>
-  <si>
-    <t>33,2к</t>
-  </si>
-  <si>
-    <t>40,2к</t>
-  </si>
-  <si>
-    <t>46,4к</t>
-  </si>
-  <si>
-    <t>51,1к</t>
-  </si>
-  <si>
-    <t>56,2к</t>
-  </si>
-  <si>
-    <t>100к</t>
-  </si>
-  <si>
-    <t>243к</t>
-  </si>
-  <si>
-    <t>301к</t>
-  </si>
-  <si>
-    <t>562к</t>
-  </si>
-  <si>
-    <t>80,6к</t>
-  </si>
-  <si>
-    <t>124к</t>
-  </si>
-  <si>
-    <t>150к</t>
-  </si>
-  <si>
-    <t>182к</t>
-  </si>
-  <si>
-    <t>392к</t>
-  </si>
-  <si>
-    <t>1,21к</t>
-  </si>
-  <si>
-    <t>3,65к</t>
-  </si>
-  <si>
-    <t>46к</t>
-  </si>
-  <si>
-    <t>2,4к</t>
-  </si>
-  <si>
-    <t>1М</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,25-10 Ом±1% -Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,25-100 Ом±1% -Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,25-510 Ом±1% -Л-А-М</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,25-470 Ом±1% -Л-А-М</t>
-  </si>
-  <si>
-    <t>0,25</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>Р1-12-0,062-110 Ом±5%</t>
-  </si>
-  <si>
-    <t>Р1-12-0,062-56 Ом±5%</t>
-  </si>
-  <si>
-    <t>Р1-12-0,062-27 Ом±5%</t>
-  </si>
-  <si>
-    <t>Р1-12-0,062-13 Ом±5%</t>
-  </si>
-  <si>
-    <t>Р1-12-0,062-6,8 Ом±5%</t>
-  </si>
-  <si>
-    <t>Р1-12-0,062-180 Ом±5%</t>
-  </si>
-  <si>
-    <t>Р1-12-0,062-200 Ом±5%</t>
-  </si>
-  <si>
-    <t>Р1-12-0,062-220 Ом±5%</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,25-47 Ом±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,25-1 кОм±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,25-40 Ом±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,25-150 Ом±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,25-1,8 кОм±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,25-13 кОм±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>1,8к</t>
-  </si>
-  <si>
-    <t>13к</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-47 Ом±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-40 Ом±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-150 Ом±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-1,8 кОм±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-13 кОм±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-510 Ом±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>StandartDoc</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>АО "НПО "Эркон"</t>
-  </si>
-  <si>
-    <t>АО "Кермет"</t>
-  </si>
-  <si>
-    <t>С2-33Н-1-909Ом±1%-А-В-В</t>
-  </si>
-  <si>
-    <t>С2-33Н-1-2,43кОм±1%-А-В-В</t>
-  </si>
-  <si>
-    <t>Р1-8В-0603-0-А-М</t>
-  </si>
-  <si>
-    <t>С2-33Н-1-200 Ом±1%-А-В-В</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,1-50 Ом±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-3,6 кОм±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>3,6к</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,125-750 Ом±1%-Л-А-М</t>
-  </si>
-  <si>
-    <t>R0806</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,1-2кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,1-5кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Р1-8В-0,1-130 Ом±1% -Т-А-М </t>
-  </si>
-  <si>
-    <t>Р1-8В-0,1-300кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,1-300Ом±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,1-1кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>Р1-8В-0,1-10кОм±1% -Т-А-М</t>
-  </si>
-  <si>
-    <t>RC0603F10K</t>
-  </si>
-  <si>
-    <t>RC0603F0R</t>
-  </si>
-  <si>
-    <t>RC0805FR-075KL</t>
-  </si>
-  <si>
-    <t>R0603F464RTG</t>
-  </si>
-  <si>
-    <t>RI0603L1001FT</t>
-  </si>
-  <si>
-    <t>RL2512FK-070R01L</t>
-  </si>
-  <si>
-    <t>RC0603FR-07121RL</t>
-  </si>
-  <si>
-    <t>RC0603FR-0751RL</t>
-  </si>
-  <si>
-    <t>R0603F549RTG</t>
-  </si>
-  <si>
-    <t>RC0603FR-07300KL</t>
-  </si>
-  <si>
-    <t>RC0603FR-072KL</t>
-  </si>
-  <si>
-    <t>RC0603FR-07130RL</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07464RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-071K1L</t>
   </si>
 </sst>
 </file>
@@ -1474,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M139" sqref="M139"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,10 +1547,10 @@
         <v>131</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1579,7 +1594,7 @@
         <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1623,7 +1638,7 @@
         <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1667,7 +1682,7 @@
         <v>120</v>
       </c>
       <c r="M4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1692,7 +1707,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="4">
         <v>0.125</v>
@@ -1701,7 +1716,7 @@
         <v>120</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
@@ -1712,7 +1727,7 @@
         <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1746,7 +1761,7 @@
         <v>120</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
@@ -1757,7 +1772,7 @@
         <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1782,7 +1797,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H7" s="4">
         <v>0.125</v>
@@ -1791,7 +1806,7 @@
         <v>120</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
@@ -1802,7 +1817,7 @@
         <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1827,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="4">
         <v>0.125</v>
@@ -1836,7 +1851,7 @@
         <v>120</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
@@ -1847,7 +1862,7 @@
         <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1880,7 +1895,7 @@
         <v>120</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
@@ -1890,7 +1905,7 @@
         <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1924,7 +1939,7 @@
         <v>120</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
@@ -1935,7 +1950,7 @@
         <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1969,7 +1984,7 @@
         <v>120</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
@@ -1980,7 +1995,7 @@
         <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2014,7 +2029,7 @@
         <v>120</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
@@ -2025,7 +2040,7 @@
         <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2059,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
@@ -2070,7 +2085,7 @@
         <v>120</v>
       </c>
       <c r="M13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2104,7 +2119,7 @@
         <v>120</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
@@ -2115,7 +2130,7 @@
         <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2149,7 +2164,7 @@
         <v>120</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
@@ -2160,7 +2175,7 @@
         <v>120</v>
       </c>
       <c r="M15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2194,7 +2209,7 @@
         <v>120</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
@@ -2205,7 +2220,7 @@
         <v>120</v>
       </c>
       <c r="M16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2239,7 +2254,7 @@
         <v>120</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
@@ -2250,7 +2265,7 @@
         <v>120</v>
       </c>
       <c r="M17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2283,7 +2298,7 @@
         <v>120</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
@@ -2293,7 +2308,7 @@
         <v>120</v>
       </c>
       <c r="M18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2327,7 +2342,7 @@
         <v>120</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -2338,7 +2353,7 @@
         <v>120</v>
       </c>
       <c r="M19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2372,7 +2387,7 @@
         <v>120</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -2383,7 +2398,7 @@
         <v>120</v>
       </c>
       <c r="M20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2417,7 +2432,7 @@
         <v>120</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -2428,7 +2443,7 @@
         <v>120</v>
       </c>
       <c r="M21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2463,7 +2478,7 @@
         <v>120</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -2474,7 +2489,7 @@
         <v>120</v>
       </c>
       <c r="M22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2509,7 +2524,7 @@
         <v>120</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -2520,7 +2535,7 @@
         <v>120</v>
       </c>
       <c r="M23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2555,7 +2570,7 @@
         <v>120</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -2566,7 +2581,7 @@
         <v>120</v>
       </c>
       <c r="M24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2601,7 +2616,7 @@
         <v>120</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -2612,7 +2627,7 @@
         <v>120</v>
       </c>
       <c r="M25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2647,7 +2662,7 @@
         <v>120</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
@@ -2658,7 +2673,7 @@
         <v>120</v>
       </c>
       <c r="M26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2693,7 +2708,7 @@
         <v>120</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
@@ -2704,7 +2719,7 @@
         <v>120</v>
       </c>
       <c r="M27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2739,7 +2754,7 @@
         <v>120</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
@@ -2750,7 +2765,7 @@
         <v>120</v>
       </c>
       <c r="M28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2785,7 +2800,7 @@
         <v>120</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
@@ -2796,7 +2811,7 @@
         <v>120</v>
       </c>
       <c r="M29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2831,7 +2846,7 @@
         <v>120</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
@@ -2842,7 +2857,7 @@
         <v>120</v>
       </c>
       <c r="M30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2877,7 +2892,7 @@
         <v>120</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
@@ -2888,7 +2903,7 @@
         <v>120</v>
       </c>
       <c r="M31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2923,7 +2938,7 @@
         <v>120</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
@@ -2934,7 +2949,7 @@
         <v>120</v>
       </c>
       <c r="M32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2969,7 +2984,7 @@
         <v>120</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
@@ -2980,7 +2995,7 @@
         <v>120</v>
       </c>
       <c r="M33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3015,7 +3030,7 @@
         <v>120</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" ref="K34:K65" si="2">A34&amp;" "&amp;I34</f>
@@ -3026,7 +3041,7 @@
         <v>120</v>
       </c>
       <c r="M34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -3061,7 +3076,7 @@
         <v>120</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="2"/>
@@ -3072,7 +3087,7 @@
         <v>120</v>
       </c>
       <c r="M35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3107,7 +3122,7 @@
         <v>120</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="2"/>
@@ -3118,7 +3133,7 @@
         <v>120</v>
       </c>
       <c r="M36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3153,7 +3168,7 @@
         <v>120</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="2"/>
@@ -3164,7 +3179,7 @@
         <v>120</v>
       </c>
       <c r="M37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3198,7 +3213,7 @@
         <v>120</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
@@ -3208,7 +3223,7 @@
         <v>120</v>
       </c>
       <c r="M38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -3243,7 +3258,7 @@
         <v>120</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
@@ -3254,7 +3269,7 @@
         <v>120</v>
       </c>
       <c r="M39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -3289,7 +3304,7 @@
         <v>120</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
@@ -3300,7 +3315,7 @@
         <v>120</v>
       </c>
       <c r="M40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3335,7 +3350,7 @@
         <v>120</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
@@ -3346,7 +3361,7 @@
         <v>120</v>
       </c>
       <c r="M41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -3381,7 +3396,7 @@
         <v>120</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="2"/>
@@ -3392,7 +3407,7 @@
         <v>120</v>
       </c>
       <c r="M42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3427,7 +3442,7 @@
         <v>120</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="2"/>
@@ -3438,7 +3453,7 @@
         <v>120</v>
       </c>
       <c r="M43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3473,7 +3488,7 @@
         <v>120</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="2"/>
@@ -3484,7 +3499,7 @@
         <v>120</v>
       </c>
       <c r="M44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3519,7 +3534,7 @@
         <v>120</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
@@ -3530,7 +3545,7 @@
         <v>120</v>
       </c>
       <c r="M45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3564,7 +3579,7 @@
         <v>120</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
@@ -3574,7 +3589,7 @@
         <v>120</v>
       </c>
       <c r="M46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3609,7 +3624,7 @@
         <v>120</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
@@ -3620,7 +3635,7 @@
         <v>120</v>
       </c>
       <c r="M47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3655,7 +3670,7 @@
         <v>120</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
@@ -3666,7 +3681,7 @@
         <v>120</v>
       </c>
       <c r="M48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3701,7 +3716,7 @@
         <v>120</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
@@ -3712,7 +3727,7 @@
         <v>120</v>
       </c>
       <c r="M49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3747,7 +3762,7 @@
         <v>120</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
@@ -3758,7 +3773,7 @@
         <v>120</v>
       </c>
       <c r="M50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3793,7 +3808,7 @@
         <v>120</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
@@ -3804,7 +3819,7 @@
         <v>120</v>
       </c>
       <c r="M51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3839,7 +3854,7 @@
         <v>120</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="2"/>
@@ -3850,7 +3865,7 @@
         <v>120</v>
       </c>
       <c r="M52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3885,7 +3900,7 @@
         <v>120</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="2"/>
@@ -3896,7 +3911,7 @@
         <v>120</v>
       </c>
       <c r="M53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3931,7 +3946,7 @@
         <v>120</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
@@ -3942,7 +3957,7 @@
         <v>120</v>
       </c>
       <c r="M54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3975,7 +3990,7 @@
         <v>121</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
@@ -3985,7 +4000,7 @@
         <v>121</v>
       </c>
       <c r="M55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -4019,7 +4034,7 @@
         <v>122</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
@@ -4030,7 +4045,7 @@
         <v>122</v>
       </c>
       <c r="M56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -4064,7 +4079,7 @@
         <v>122</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="2"/>
@@ -4075,7 +4090,7 @@
         <v>122</v>
       </c>
       <c r="M57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -4110,7 +4125,7 @@
         <v>123</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="2"/>
@@ -4121,7 +4136,7 @@
         <v>123</v>
       </c>
       <c r="M58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4156,7 +4171,7 @@
         <v>123</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="2"/>
@@ -4167,7 +4182,7 @@
         <v>123</v>
       </c>
       <c r="M59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4202,7 +4217,7 @@
         <v>123</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
@@ -4213,12 +4228,12 @@
         <v>123</v>
       </c>
       <c r="M60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -4236,7 +4251,7 @@
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H61" s="4">
         <v>2</v>
@@ -4245,17 +4260,17 @@
         <v>122</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
-        <v>Р1-105-2-0,01 Ом±5%  А РКМУ.434150.001ТУ</v>
+        <v>Р2-105-2-0,01 Ом±5%  А РКМУ.434150.001ТУ</v>
       </c>
       <c r="L61" t="s">
         <v>122</v>
       </c>
       <c r="M61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4275,35 +4290,35 @@
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="2"/>
         <v>С2-33-2,4 кОм ±1%  Т-В-В ОЖ0.467.093ТУ</v>
       </c>
       <c r="L62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>70</v>
@@ -4315,14 +4330,14 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" t="s">
         <v>120</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="2"/>
@@ -4332,12 +4347,12 @@
         <v>120</v>
       </c>
       <c r="M63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
@@ -4362,7 +4377,7 @@
         <v>120</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="2"/>
@@ -4372,18 +4387,18 @@
         <v>120</v>
       </c>
       <c r="M64" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>70</v>
@@ -4395,14 +4410,14 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" t="s">
         <v>120</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="2"/>
@@ -4412,12 +4427,12 @@
         <v>120</v>
       </c>
       <c r="M65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
@@ -4442,7 +4457,7 @@
         <v>120</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" ref="K66:K97" si="3">A66&amp;" "&amp;I66</f>
@@ -4452,12 +4467,12 @@
         <v>120</v>
       </c>
       <c r="M66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
@@ -4475,7 +4490,7 @@
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H67" s="4">
         <v>0.1</v>
@@ -4484,7 +4499,7 @@
         <v>120</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="3"/>
@@ -4494,12 +4509,12 @@
         <v>120</v>
       </c>
       <c r="M67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -4526,7 +4541,7 @@
         <v>120</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="3"/>
@@ -4536,12 +4551,12 @@
         <v>120</v>
       </c>
       <c r="M68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
@@ -4559,7 +4574,7 @@
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H69" s="4">
         <v>0.1</v>
@@ -4568,7 +4583,7 @@
         <v>120</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="3"/>
@@ -4578,12 +4593,12 @@
         <v>120</v>
       </c>
       <c r="M69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
@@ -4610,7 +4625,7 @@
         <v>120</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="3"/>
@@ -4620,12 +4635,12 @@
         <v>120</v>
       </c>
       <c r="M70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
@@ -4643,7 +4658,7 @@
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H71" s="4">
         <v>0.1</v>
@@ -4652,7 +4667,7 @@
         <v>120</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="3"/>
@@ -4662,12 +4677,12 @@
         <v>120</v>
       </c>
       <c r="M71" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s">
         <v>69</v>
@@ -4685,7 +4700,7 @@
         <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H72" s="4">
         <v>0.1</v>
@@ -4694,7 +4709,7 @@
         <v>120</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="3"/>
@@ -4704,57 +4719,57 @@
         <v>120</v>
       </c>
       <c r="M72" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B73" t="s">
         <v>69</v>
       </c>
       <c r="C73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
         <v>155</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F73" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" t="s">
-        <v>156</v>
-      </c>
       <c r="I73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="3"/>
         <v>С2-33Н-1-2,43кОм±1%-А-В-В ОЖ0.467.093ТУ</v>
       </c>
       <c r="L73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B74" t="s">
         <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>70</v>
@@ -4766,28 +4781,28 @@
         <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="3"/>
         <v>С2-33Н-1-909Ом±1%-А-В-В ОЖ0.467.093ТУ</v>
       </c>
       <c r="L74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B75" t="s">
         <v>69</v>
@@ -4805,7 +4820,7 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H75" s="4">
         <v>0.125</v>
@@ -4825,12 +4840,12 @@
         <v>120</v>
       </c>
       <c r="M75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
         <v>69</v>
@@ -4848,7 +4863,7 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H76" s="4">
         <v>0.125</v>
@@ -4868,12 +4883,12 @@
         <v>120</v>
       </c>
       <c r="M76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B77" t="s">
         <v>69</v>
@@ -4891,7 +4906,7 @@
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H77" s="4">
         <v>0.125</v>
@@ -4911,12 +4926,12 @@
         <v>120</v>
       </c>
       <c r="M77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
         <v>69</v>
@@ -4934,7 +4949,7 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H78" s="4">
         <v>0.125</v>
@@ -4954,12 +4969,12 @@
         <v>120</v>
       </c>
       <c r="M78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
         <v>69</v>
@@ -4997,12 +5012,12 @@
         <v>120</v>
       </c>
       <c r="M79" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B80" t="s">
         <v>69</v>
@@ -5020,7 +5035,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H80" s="4">
         <v>0.125</v>
@@ -5040,12 +5055,12 @@
         <v>120</v>
       </c>
       <c r="M80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
         <v>69</v>
@@ -5083,12 +5098,12 @@
         <v>120</v>
       </c>
       <c r="M81" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
         <v>69</v>
@@ -5106,7 +5121,7 @@
         <v>9</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H82" s="4">
         <v>0.125</v>
@@ -5126,12 +5141,12 @@
         <v>120</v>
       </c>
       <c r="M82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B83" t="s">
         <v>69</v>
@@ -5149,7 +5164,7 @@
         <v>9</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H83" s="4">
         <v>0.125</v>
@@ -5169,12 +5184,12 @@
         <v>120</v>
       </c>
       <c r="M83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
         <v>69</v>
@@ -5192,7 +5207,7 @@
         <v>9</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H84" s="4">
         <v>0.125</v>
@@ -5212,12 +5227,12 @@
         <v>120</v>
       </c>
       <c r="M84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
         <v>69</v>
@@ -5235,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H85" s="4">
         <v>0.125</v>
@@ -5255,12 +5270,12 @@
         <v>120</v>
       </c>
       <c r="M85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
         <v>69</v>
@@ -5298,12 +5313,12 @@
         <v>120</v>
       </c>
       <c r="M86" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
         <v>69</v>
@@ -5321,7 +5336,7 @@
         <v>9</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H87" s="4">
         <v>0.125</v>
@@ -5341,12 +5356,12 @@
         <v>120</v>
       </c>
       <c r="M87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
         <v>69</v>
@@ -5384,12 +5399,12 @@
         <v>120</v>
       </c>
       <c r="M88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
         <v>69</v>
@@ -5407,7 +5422,7 @@
         <v>9</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H89" s="4">
         <v>0.125</v>
@@ -5427,12 +5442,12 @@
         <v>120</v>
       </c>
       <c r="M89" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
         <v>69</v>
@@ -5450,7 +5465,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H90" s="4">
         <v>0.125</v>
@@ -5470,12 +5485,12 @@
         <v>120</v>
       </c>
       <c r="M90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
         <v>69</v>
@@ -5493,7 +5508,7 @@
         <v>9</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H91" s="4">
         <v>0.125</v>
@@ -5513,12 +5528,12 @@
         <v>120</v>
       </c>
       <c r="M91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B92" t="s">
         <v>69</v>
@@ -5536,7 +5551,7 @@
         <v>9</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H92" s="4">
         <v>0.125</v>
@@ -5556,12 +5571,12 @@
         <v>120</v>
       </c>
       <c r="M92" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B93" t="s">
         <v>69</v>
@@ -5579,7 +5594,7 @@
         <v>9</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H93" s="4">
         <v>0.125</v>
@@ -5599,12 +5614,12 @@
         <v>120</v>
       </c>
       <c r="M93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B94" t="s">
         <v>69</v>
@@ -5622,7 +5637,7 @@
         <v>9</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H94" s="4">
         <v>0.125</v>
@@ -5642,12 +5657,12 @@
         <v>120</v>
       </c>
       <c r="M94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s">
         <v>69</v>
@@ -5685,12 +5700,12 @@
         <v>122</v>
       </c>
       <c r="M95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
         <v>69</v>
@@ -5708,7 +5723,7 @@
         <v>9</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H96" s="4">
         <v>2</v>
@@ -5728,12 +5743,12 @@
         <v>122</v>
       </c>
       <c r="M96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
         <v>69</v>
@@ -5751,7 +5766,7 @@
         <v>9</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H97" s="4">
         <v>0.25</v>
@@ -5771,12 +5786,12 @@
         <v>122</v>
       </c>
       <c r="M97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B98" t="s">
         <v>69</v>
@@ -5794,7 +5809,7 @@
         <v>9</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H98" s="4">
         <v>0.75</v>
@@ -5814,18 +5829,18 @@
         <v>122</v>
       </c>
       <c r="M98" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
         <v>69</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>70</v>
@@ -5837,7 +5852,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H99" s="4">
         <v>0.4</v>
@@ -5857,12 +5872,12 @@
         <v>122</v>
       </c>
       <c r="M99" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B100" t="s">
         <v>69</v>
@@ -5900,12 +5915,12 @@
         <v>120</v>
       </c>
       <c r="M100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B101" t="s">
         <v>69</v>
@@ -5923,7 +5938,7 @@
         <v>9</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H101" s="4">
         <v>0.25</v>
@@ -5943,12 +5958,12 @@
         <v>120</v>
       </c>
       <c r="M101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B102" t="s">
         <v>69</v>
@@ -5966,7 +5981,7 @@
         <v>9</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H102" s="4">
         <v>0.25</v>
@@ -5986,12 +6001,12 @@
         <v>120</v>
       </c>
       <c r="M102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B103" t="s">
         <v>69</v>
@@ -6009,10 +6024,10 @@
         <v>9</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I103" t="s">
         <v>120</v>
@@ -6029,12 +6044,12 @@
         <v>120</v>
       </c>
       <c r="M103" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B104" t="s">
         <v>69</v>
@@ -6072,12 +6087,12 @@
         <v>123</v>
       </c>
       <c r="M104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B105" t="s">
         <v>69</v>
@@ -6115,12 +6130,12 @@
         <v>123</v>
       </c>
       <c r="M105" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B106" t="s">
         <v>69</v>
@@ -6158,12 +6173,12 @@
         <v>123</v>
       </c>
       <c r="M106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B107" t="s">
         <v>69</v>
@@ -6201,12 +6216,12 @@
         <v>123</v>
       </c>
       <c r="M107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B108" t="s">
         <v>69</v>
@@ -6244,12 +6259,12 @@
         <v>123</v>
       </c>
       <c r="M108" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B109" t="s">
         <v>69</v>
@@ -6287,12 +6302,12 @@
         <v>123</v>
       </c>
       <c r="M109" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B110" t="s">
         <v>69</v>
@@ -6330,12 +6345,12 @@
         <v>123</v>
       </c>
       <c r="M110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
@@ -6373,12 +6388,12 @@
         <v>123</v>
       </c>
       <c r="M111" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
@@ -6416,12 +6431,12 @@
         <v>120</v>
       </c>
       <c r="M112" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B113" t="s">
         <v>69</v>
@@ -6439,7 +6454,7 @@
         <v>9</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H113" s="4">
         <v>0.25</v>
@@ -6459,12 +6474,12 @@
         <v>120</v>
       </c>
       <c r="M113" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B114" t="s">
         <v>69</v>
@@ -6502,12 +6517,12 @@
         <v>120</v>
       </c>
       <c r="M114" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B115" t="s">
         <v>69</v>
@@ -6545,12 +6560,12 @@
         <v>120</v>
       </c>
       <c r="M115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B116" t="s">
         <v>69</v>
@@ -6568,7 +6583,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H116" s="4">
         <v>0.25</v>
@@ -6588,12 +6603,12 @@
         <v>120</v>
       </c>
       <c r="M116" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B117" t="s">
         <v>69</v>
@@ -6611,7 +6626,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H117" s="4">
         <v>0.25</v>
@@ -6631,12 +6646,12 @@
         <v>120</v>
       </c>
       <c r="M117" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B118" t="s">
         <v>69</v>
@@ -6674,12 +6689,12 @@
         <v>120</v>
       </c>
       <c r="M118" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B119" t="s">
         <v>69</v>
@@ -6697,7 +6712,7 @@
         <v>9</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H119" s="4">
         <v>0.25</v>
@@ -6717,12 +6732,12 @@
         <v>120</v>
       </c>
       <c r="M119" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B120" t="s">
         <v>69</v>
@@ -6760,12 +6775,12 @@
         <v>120</v>
       </c>
       <c r="M120" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B121" t="s">
         <v>69</v>
@@ -6803,12 +6818,12 @@
         <v>120</v>
       </c>
       <c r="M121" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B122" t="s">
         <v>69</v>
@@ -6826,7 +6841,7 @@
         <v>9</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H122" s="4">
         <v>0.25</v>
@@ -6846,12 +6861,12 @@
         <v>120</v>
       </c>
       <c r="M122" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B123" t="s">
         <v>69</v>
@@ -6869,7 +6884,7 @@
         <v>9</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H123" s="4">
         <v>0.25</v>
@@ -6889,12 +6904,12 @@
         <v>120</v>
       </c>
       <c r="M123" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B124" t="s">
         <v>69</v>
@@ -6928,18 +6943,18 @@
         <v>120</v>
       </c>
       <c r="M124" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B125" t="s">
         <v>69</v>
       </c>
       <c r="C125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>70</v>
@@ -6954,7 +6969,7 @@
         <v>200</v>
       </c>
       <c r="I125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J125">
         <v>200</v>
@@ -6964,15 +6979,15 @@
         <v>С2-33Н-1-200 Ом±1%-А-В-В ОЖ0.467.093ТУ</v>
       </c>
       <c r="L125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M125" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B126" t="s">
         <v>69</v>
@@ -7006,12 +7021,12 @@
         <v>120</v>
       </c>
       <c r="M126" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B127" t="s">
         <v>69</v>
@@ -7029,13 +7044,13 @@
         <v>9</v>
       </c>
       <c r="G127" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I127" t="s">
         <v>120</v>
       </c>
       <c r="J127" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K127" t="str">
         <f t="shared" si="7"/>
@@ -7045,18 +7060,18 @@
         <v>120</v>
       </c>
       <c r="M127" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>301</v>
+      </c>
+      <c r="B128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" t="s">
         <v>302</v>
-      </c>
-      <c r="B128" t="s">
-        <v>69</v>
-      </c>
-      <c r="C128" t="s">
-        <v>303</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>70</v>
@@ -7084,12 +7099,12 @@
         <v>120</v>
       </c>
       <c r="M128" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B129" t="s">
         <v>69</v>
@@ -7107,7 +7122,7 @@
         <v>9</v>
       </c>
       <c r="G129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I129" t="s">
         <v>120</v>
@@ -7124,12 +7139,12 @@
         <v>120</v>
       </c>
       <c r="M129" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B130" t="s">
         <v>69</v>
@@ -7147,7 +7162,7 @@
         <v>9</v>
       </c>
       <c r="G130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I130" t="s">
         <v>120</v>
@@ -7164,12 +7179,12 @@
         <v>120</v>
       </c>
       <c r="M130" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B131" t="s">
         <v>69</v>
@@ -7204,12 +7219,12 @@
         <v>120</v>
       </c>
       <c r="M131" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B132" t="s">
         <v>69</v>
@@ -7227,7 +7242,7 @@
         <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I132" t="s">
         <v>120</v>
@@ -7244,12 +7259,12 @@
         <v>120</v>
       </c>
       <c r="M132" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B133" t="s">
         <v>69</v>
@@ -7284,12 +7299,12 @@
         <v>120</v>
       </c>
       <c r="M133" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B134" t="s">
         <v>69</v>
@@ -7307,7 +7322,7 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I134" t="s">
         <v>120</v>
@@ -7324,12 +7339,12 @@
         <v>120</v>
       </c>
       <c r="M134" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B135" t="s">
         <v>69</v>
@@ -7347,7 +7362,7 @@
         <v>9</v>
       </c>
       <c r="G135" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I135" t="s">
         <v>120</v>
@@ -7357,19 +7372,19 @@
         <v>10к</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" ref="K135:K147" si="12">A135&amp;" "&amp;I135</f>
+        <f t="shared" ref="K135:K151" si="12">A135&amp;" "&amp;I135</f>
         <v>Р1-8В-0,1-10кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L135" t="s">
         <v>120</v>
       </c>
       <c r="M135" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B136" t="s">
         <v>69</v>
@@ -7387,7 +7402,7 @@
         <v>9</v>
       </c>
       <c r="G136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J136" t="str">
         <f>G136</f>
@@ -7395,15 +7410,15 @@
       </c>
       <c r="K136" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">RC0603F10K </v>
+        <v xml:space="preserve">RC0603FR-0710KL </v>
       </c>
       <c r="L136" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B137" t="s">
         <v>69</v>
@@ -7421,7 +7436,7 @@
         <v>9</v>
       </c>
       <c r="G137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J137" t="str">
         <f>G137</f>
@@ -7432,18 +7447,18 @@
         <v xml:space="preserve">RC0603F0R </v>
       </c>
       <c r="L137" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B138" t="s">
         <v>69</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>70</v>
@@ -7455,7 +7470,7 @@
         <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J138" t="str">
         <f>G138</f>
@@ -7466,12 +7481,12 @@
         <v xml:space="preserve">RC0805FR-075KL </v>
       </c>
       <c r="L138" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B139" t="s">
         <v>69</v>
@@ -7492,20 +7507,20 @@
         <v>464</v>
       </c>
       <c r="J139">
-        <f t="shared" ref="J139:J147" si="13">G139</f>
+        <f t="shared" ref="J139:J151" si="13">G139</f>
         <v>464</v>
       </c>
       <c r="K139" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">R0603F464RTG </v>
+        <v xml:space="preserve">RC0603FR-07464RL </v>
       </c>
       <c r="L139" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B140" t="s">
         <v>69</v>
@@ -7523,7 +7538,7 @@
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J140" t="str">
         <f t="shared" si="13"/>
@@ -7531,15 +7546,15 @@
       </c>
       <c r="K140" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">RI0603L1001FT </v>
+        <v xml:space="preserve">RC0603JR-071K1L </v>
       </c>
       <c r="L140" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B141" t="s">
         <v>69</v>
@@ -7568,12 +7583,12 @@
         <v xml:space="preserve">RL2512FK-070R01L </v>
       </c>
       <c r="L141" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B142" t="s">
         <v>69</v>
@@ -7602,12 +7617,12 @@
         <v xml:space="preserve">RC0603FR-07121RL </v>
       </c>
       <c r="L142" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B143" t="s">
         <v>69</v>
@@ -7636,12 +7651,12 @@
         <v xml:space="preserve">RC0603FR-0751RL </v>
       </c>
       <c r="L143" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B144" t="s">
         <v>69</v>
@@ -7670,12 +7685,12 @@
         <v xml:space="preserve">R0603F549RTG </v>
       </c>
       <c r="L144" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B145" t="s">
         <v>69</v>
@@ -7693,7 +7708,7 @@
         <v>9</v>
       </c>
       <c r="G145" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J145" t="str">
         <f t="shared" si="13"/>
@@ -7704,12 +7719,12 @@
         <v xml:space="preserve">RC0603FR-07300KL </v>
       </c>
       <c r="L145" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B146" t="s">
         <v>69</v>
@@ -7727,7 +7742,7 @@
         <v>9</v>
       </c>
       <c r="G146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J146" t="str">
         <f t="shared" si="13"/>
@@ -7738,12 +7753,12 @@
         <v xml:space="preserve">RC0603FR-072KL </v>
       </c>
       <c r="L146" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B147" t="s">
         <v>69</v>
@@ -7760,7 +7775,7 @@
       <c r="F147" t="s">
         <v>9</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="4">
         <v>130</v>
       </c>
       <c r="J147">
@@ -7772,7 +7787,167 @@
         <v xml:space="preserve">RC0603FR-07130RL </v>
       </c>
       <c r="L147" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>320</v>
+      </c>
+      <c r="B148" t="s">
+        <v>69</v>
+      </c>
+      <c r="C148" t="s">
+        <v>127</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E148" t="s">
+        <v>132</v>
+      </c>
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="I148" t="s">
+        <v>120</v>
+      </c>
+      <c r="J148" t="str">
+        <f t="shared" si="13"/>
+        <v>24к</v>
+      </c>
+      <c r="K148" t="str">
+        <f t="shared" si="12"/>
+        <v>Р1-8В-0,1-24 кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L148" t="s">
+        <v>120</v>
+      </c>
+      <c r="M148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>321</v>
+      </c>
+      <c r="B149" t="s">
+        <v>69</v>
+      </c>
+      <c r="C149" t="s">
+        <v>127</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E149" t="s">
+        <v>132</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="4">
+        <v>620</v>
+      </c>
+      <c r="I149" t="s">
+        <v>120</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="13"/>
+        <v>620</v>
+      </c>
+      <c r="K149" t="str">
+        <f t="shared" si="12"/>
+        <v>Р1-8В-0,1-620 Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L149" t="s">
+        <v>120</v>
+      </c>
+      <c r="M149" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>322</v>
+      </c>
+      <c r="B150" t="s">
+        <v>69</v>
+      </c>
+      <c r="C150" t="s">
+        <v>127</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E150" t="s">
+        <v>132</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="4">
+        <v>750</v>
+      </c>
+      <c r="I150" t="s">
+        <v>120</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="13"/>
+        <v>750</v>
+      </c>
+      <c r="K150" t="str">
+        <f t="shared" si="12"/>
+        <v>Р1-8В-0,1-750 Ом±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L150" t="s">
+        <v>120</v>
+      </c>
+      <c r="M150" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>323</v>
+      </c>
+      <c r="B151" t="s">
+        <v>69</v>
+      </c>
+      <c r="C151" t="s">
+        <v>127</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E151" t="s">
+        <v>132</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I151" t="s">
+        <v>120</v>
+      </c>
+      <c r="J151" t="str">
+        <f t="shared" si="13"/>
+        <v>3,3к</v>
+      </c>
+      <c r="K151" t="str">
+        <f t="shared" si="12"/>
+        <v>Р1-8В-0,1-3,3 кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L151" t="s">
+        <v>120</v>
+      </c>
+      <c r="M151" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D41FEE-C7F9-4A36-BC18-1654E960CC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A909665-BFD3-4723-956A-147CF8842B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="331">
   <si>
     <t>Part Number</t>
   </si>
@@ -1107,6 +1107,12 @@
   </si>
   <si>
     <t>RC0603JR-071K1L</t>
+  </si>
+  <si>
+    <t>RC0603FR-07240RL</t>
+  </si>
+  <si>
+    <t>Yageo</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O146" sqref="O146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7372,7 +7378,7 @@
         <v>10к</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" ref="K135:K151" si="12">A135&amp;" "&amp;I135</f>
+        <f t="shared" ref="K135:K152" si="12">A135&amp;" "&amp;I135</f>
         <v>Р1-8В-0,1-10кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L135" t="s">
@@ -7415,6 +7421,9 @@
       <c r="L136" t="s">
         <v>319</v>
       </c>
+      <c r="M136" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
@@ -7449,6 +7458,9 @@
       <c r="L137" t="s">
         <v>319</v>
       </c>
+      <c r="M137" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
@@ -7483,6 +7495,9 @@
       <c r="L138" t="s">
         <v>319</v>
       </c>
+      <c r="M138" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
@@ -7517,6 +7532,9 @@
       <c r="L139" t="s">
         <v>319</v>
       </c>
+      <c r="M139" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
@@ -7551,6 +7569,9 @@
       <c r="L140" t="s">
         <v>319</v>
       </c>
+      <c r="M140" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
@@ -7585,6 +7606,9 @@
       <c r="L141" t="s">
         <v>319</v>
       </c>
+      <c r="M141" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
@@ -7619,6 +7643,9 @@
       <c r="L142" t="s">
         <v>319</v>
       </c>
+      <c r="M142" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
@@ -7653,6 +7680,9 @@
       <c r="L143" t="s">
         <v>319</v>
       </c>
+      <c r="M143" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -7687,6 +7717,9 @@
       <c r="L144" t="s">
         <v>319</v>
       </c>
+      <c r="M144" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
@@ -7721,6 +7754,9 @@
       <c r="L145" t="s">
         <v>319</v>
       </c>
+      <c r="M145" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
@@ -7755,6 +7791,9 @@
       <c r="L146" t="s">
         <v>319</v>
       </c>
+      <c r="M146" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -7789,6 +7828,9 @@
       <c r="L147" t="s">
         <v>319</v>
       </c>
+      <c r="M147" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -7948,6 +7990,42 @@
       </c>
       <c r="M151" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>329</v>
+      </c>
+      <c r="B152" t="s">
+        <v>69</v>
+      </c>
+      <c r="C152" t="s">
+        <v>127</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E152" t="s">
+        <v>132</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="4">
+        <v>240</v>
+      </c>
+      <c r="J152">
+        <v>240</v>
+      </c>
+      <c r="K152" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">RC0603FR-07240RL </v>
+      </c>
+      <c r="L152" t="s">
+        <v>319</v>
+      </c>
+      <c r="M152" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A909665-BFD3-4723-956A-147CF8842B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1723A45-DCB4-41C7-BA98-F97CC1615B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="339">
   <si>
     <t>Part Number</t>
   </si>
@@ -1113,6 +1113,30 @@
   </si>
   <si>
     <t>Yageo</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-18 Ом ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-300 Ом ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>RC0603FR-0718RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07300RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100KL</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,25-3,74 кОм±1% -Т-А-М</t>
+  </si>
+  <si>
+    <t>3,74кОм</t>
+  </si>
+  <si>
+    <t>3,74к</t>
   </si>
 </sst>
 </file>
@@ -1495,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O146" sqref="O146"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7378,7 +7402,7 @@
         <v>10к</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" ref="K135:K152" si="12">A135&amp;" "&amp;I135</f>
+        <f t="shared" ref="K135:K153" si="12">A135&amp;" "&amp;I135</f>
         <v>Р1-8В-0,1-10кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L135" t="s">
@@ -8026,6 +8050,231 @@
       </c>
       <c r="M152" t="s">
         <v>330</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>331</v>
+      </c>
+      <c r="B153" t="s">
+        <v>69</v>
+      </c>
+      <c r="C153" t="s">
+        <v>127</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E153" t="s">
+        <v>132</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="4">
+        <v>18</v>
+      </c>
+      <c r="I153" t="s">
+        <v>120</v>
+      </c>
+      <c r="J153">
+        <v>18</v>
+      </c>
+      <c r="K153" t="str">
+        <f t="shared" si="12"/>
+        <v>Р1-8В-0,1-18 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L153" t="s">
+        <v>120</v>
+      </c>
+      <c r="M153" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>332</v>
+      </c>
+      <c r="B154" t="s">
+        <v>69</v>
+      </c>
+      <c r="C154" t="s">
+        <v>127</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E154" t="s">
+        <v>132</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="4">
+        <v>300</v>
+      </c>
+      <c r="I154" t="s">
+        <v>120</v>
+      </c>
+      <c r="J154">
+        <v>300</v>
+      </c>
+      <c r="K154" t="str">
+        <f t="shared" ref="K154:K158" si="14">A154&amp;" "&amp;I154</f>
+        <v>Р1-8В-0,1-300 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L154" t="s">
+        <v>120</v>
+      </c>
+      <c r="M154" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>333</v>
+      </c>
+      <c r="B155" t="s">
+        <v>69</v>
+      </c>
+      <c r="C155" t="s">
+        <v>127</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E155" t="s">
+        <v>132</v>
+      </c>
+      <c r="F155" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="4">
+        <v>18</v>
+      </c>
+      <c r="J155">
+        <v>18</v>
+      </c>
+      <c r="K155" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-0718RL </v>
+      </c>
+      <c r="L155" t="s">
+        <v>319</v>
+      </c>
+      <c r="M155" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>334</v>
+      </c>
+      <c r="B156" t="s">
+        <v>69</v>
+      </c>
+      <c r="C156" t="s">
+        <v>127</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E156" t="s">
+        <v>132</v>
+      </c>
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="4">
+        <v>300</v>
+      </c>
+      <c r="J156">
+        <v>300</v>
+      </c>
+      <c r="K156" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-07300RL </v>
+      </c>
+      <c r="L156" t="s">
+        <v>319</v>
+      </c>
+      <c r="M156" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>335</v>
+      </c>
+      <c r="B157" t="s">
+        <v>69</v>
+      </c>
+      <c r="C157" t="s">
+        <v>127</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E157" t="s">
+        <v>132</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" t="s">
+        <v>105</v>
+      </c>
+      <c r="J157" t="s">
+        <v>245</v>
+      </c>
+      <c r="K157" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-07100KL </v>
+      </c>
+      <c r="L157" t="s">
+        <v>319</v>
+      </c>
+      <c r="M157" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>336</v>
+      </c>
+      <c r="B158" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" t="s">
+        <v>128</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E158" t="s">
+        <v>132</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" t="s">
+        <v>337</v>
+      </c>
+      <c r="I158" t="s">
+        <v>120</v>
+      </c>
+      <c r="J158" t="s">
+        <v>338</v>
+      </c>
+      <c r="K158" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,25-3,74 кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L158" t="s">
+        <v>120</v>
+      </c>
+      <c r="M158" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1723A45-DCB4-41C7-BA98-F97CC1615B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4059764-006D-4007-8836-E08C60D2EFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="340">
   <si>
     <t>Part Number</t>
   </si>
@@ -1137,6 +1137,9 @@
   </si>
   <si>
     <t>3,74к</t>
+  </si>
+  <si>
+    <t>КудаВходит</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,9 +1543,10 @@
     <col min="11" max="11" width="48.85546875" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1582,8 +1586,11 @@
       <c r="M1" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>MID(Лист2!A1,1,SEARCH("ОЖ0",Лист2!A1)-1)</f>
         <v xml:space="preserve">Р1-8В-0805-0-А-М
@@ -1627,7 +1634,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>MID(Лист2!A2,1,SEARCH("ОЖ0",Лист2!A2)-1)</f>
         <v xml:space="preserve">Р1-8В-2512-0-А-М 
@@ -1671,7 +1678,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>MID(Лист2!A3,1,SEARCH("ОЖ0",Лист2!A3)-1)</f>
         <v xml:space="preserve">Р1-8В-1210-0-А-М 
@@ -1715,7 +1722,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>MID(Лист2!A4,1,SEARCH("ОЖ0",Лист2!A4)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-10Ом±1% -Т-А-М 
@@ -1760,7 +1767,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>MID(Лист2!A5,1,SEARCH("ОЖ0",Лист2!A5)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-18,2 Ом±1% -Т-А-М 
@@ -1805,7 +1812,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>MID(Лист2!A6,1,SEARCH("ОЖ0",Лист2!A6)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-20Ом±1% -Т-А-М 
@@ -1850,7 +1857,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>MID(Лист2!A7,1,SEARCH("ОЖ0",Лист2!A7)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-33,2Ом±1% -Т-А-М 
@@ -1895,7 +1902,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>MID(Лист2!A8,1,SEARCH("ОЖ0",Лист2!A8)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-51,1 Ом±1% -Т-А-М </v>
@@ -1938,7 +1945,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>MID(Лист2!A9,1,SEARCH("ОЖ0",Лист2!A9)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-100 Ом±1% -Т-А-М 
@@ -1983,7 +1990,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>MID(Лист2!A10,1,SEARCH("ОЖ0",Лист2!A10)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-100Ом±1% -Т-А-М 
@@ -2028,7 +2035,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>MID(Лист2!A11,1,SEARCH("ОЖ0",Лист2!A11)-1)</f>
         <v xml:space="preserve">Р1-8В-0,25-100±1%-Л-А-М
@@ -2073,7 +2080,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>MID(Лист2!A12,1,SEARCH("ОЖ0",Лист2!A12)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-130 Ом±1% -Т-А-М 
@@ -2118,7 +2125,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>MID(Лист2!A13,1,SEARCH("ОЖ0",Лист2!A13)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-200 Ом±1% -Т-А-М 
@@ -2163,7 +2170,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>MID(Лист2!A14,1,SEARCH("ОЖ0",Лист2!A14)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-200Ом±1% -Т-А-М 
@@ -2208,7 +2215,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>MID(Лист2!A15,1,SEARCH("ОЖ0",Лист2!A15)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-301 Ом±1% -Т-А-М 

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4059764-006D-4007-8836-E08C60D2EFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BB918B-5576-4865-B14E-A8673591C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="339">
   <si>
     <t>Part Number</t>
   </si>
@@ -625,9 +625,6 @@
     <t>Р1-8В-0,125-300кОм±1% -Т-А-М</t>
   </si>
   <si>
-    <t>Р1-8В-0,125-5кОм±1% -Т-А-М</t>
-  </si>
-  <si>
     <t>125к</t>
   </si>
   <si>
@@ -668,9 +665,6 @@
   </si>
   <si>
     <t>300к</t>
-  </si>
-  <si>
-    <t>5к</t>
   </si>
   <si>
     <t>Р1-8В-0,125-3,3кОм±1% -Т-А-М</t>
@@ -1133,13 +1127,16 @@
     <t>Р1-8В-0,25-3,74 кОм±1% -Т-А-М</t>
   </si>
   <si>
-    <t>3,74кОм</t>
-  </si>
-  <si>
     <t>3,74к</t>
   </si>
   <si>
     <t>КудаВходит</t>
+  </si>
+  <si>
+    <t>RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,125-5,11кОм±1% -Т-А-М</t>
   </si>
 </sst>
 </file>
@@ -1522,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M159" sqref="M159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,13 +1578,13 @@
         <v>131</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1631,7 +1628,7 @@
         <v>120</v>
       </c>
       <c r="M2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1675,7 +1672,7 @@
         <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1719,7 +1716,7 @@
         <v>120</v>
       </c>
       <c r="M4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1753,7 +1750,7 @@
         <v>120</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
@@ -1764,7 +1761,7 @@
         <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1798,7 +1795,7 @@
         <v>120</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
@@ -1809,7 +1806,7 @@
         <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1843,7 +1840,7 @@
         <v>120</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
@@ -1854,7 +1851,7 @@
         <v>120</v>
       </c>
       <c r="M7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1888,7 +1885,7 @@
         <v>120</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
@@ -1899,7 +1896,7 @@
         <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1932,7 +1929,7 @@
         <v>120</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
@@ -1942,7 +1939,7 @@
         <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1976,7 +1973,7 @@
         <v>120</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
@@ -1987,7 +1984,7 @@
         <v>120</v>
       </c>
       <c r="M10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2021,7 +2018,7 @@
         <v>120</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
@@ -2032,7 +2029,7 @@
         <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2066,7 +2063,7 @@
         <v>120</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
@@ -2077,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="M12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2111,7 +2108,7 @@
         <v>120</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
@@ -2122,7 +2119,7 @@
         <v>120</v>
       </c>
       <c r="M13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2156,7 +2153,7 @@
         <v>120</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
@@ -2167,7 +2164,7 @@
         <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2201,7 +2198,7 @@
         <v>120</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
@@ -2212,7 +2209,7 @@
         <v>120</v>
       </c>
       <c r="M15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2246,7 +2243,7 @@
         <v>120</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
@@ -2257,7 +2254,7 @@
         <v>120</v>
       </c>
       <c r="M16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2291,7 +2288,7 @@
         <v>120</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
@@ -2302,7 +2299,7 @@
         <v>120</v>
       </c>
       <c r="M17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2335,7 +2332,7 @@
         <v>120</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
@@ -2345,7 +2342,7 @@
         <v>120</v>
       </c>
       <c r="M18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2379,7 +2376,7 @@
         <v>120</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -2390,7 +2387,7 @@
         <v>120</v>
       </c>
       <c r="M19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2424,7 +2421,7 @@
         <v>120</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -2435,7 +2432,7 @@
         <v>120</v>
       </c>
       <c r="M20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2469,7 +2466,7 @@
         <v>120</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -2480,7 +2477,7 @@
         <v>120</v>
       </c>
       <c r="M21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2515,7 +2512,7 @@
         <v>120</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -2526,7 +2523,7 @@
         <v>120</v>
       </c>
       <c r="M22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2561,7 +2558,7 @@
         <v>120</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -2572,7 +2569,7 @@
         <v>120</v>
       </c>
       <c r="M23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2607,7 +2604,7 @@
         <v>120</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -2618,7 +2615,7 @@
         <v>120</v>
       </c>
       <c r="M24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2653,7 +2650,7 @@
         <v>120</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -2664,7 +2661,7 @@
         <v>120</v>
       </c>
       <c r="M25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2699,7 +2696,7 @@
         <v>120</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
@@ -2710,7 +2707,7 @@
         <v>120</v>
       </c>
       <c r="M26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2745,7 +2742,7 @@
         <v>120</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
@@ -2756,7 +2753,7 @@
         <v>120</v>
       </c>
       <c r="M27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2791,7 +2788,7 @@
         <v>120</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
@@ -2802,7 +2799,7 @@
         <v>120</v>
       </c>
       <c r="M28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2837,7 +2834,7 @@
         <v>120</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
@@ -2848,7 +2845,7 @@
         <v>120</v>
       </c>
       <c r="M29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2883,7 +2880,7 @@
         <v>120</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
@@ -2894,7 +2891,7 @@
         <v>120</v>
       </c>
       <c r="M30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2929,7 +2926,7 @@
         <v>120</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
@@ -2940,7 +2937,7 @@
         <v>120</v>
       </c>
       <c r="M31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2975,7 +2972,7 @@
         <v>120</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
@@ -2986,7 +2983,7 @@
         <v>120</v>
       </c>
       <c r="M32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3021,7 +3018,7 @@
         <v>120</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
@@ -3032,7 +3029,7 @@
         <v>120</v>
       </c>
       <c r="M33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3067,7 +3064,7 @@
         <v>120</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" ref="K34:K65" si="2">A34&amp;" "&amp;I34</f>
@@ -3078,7 +3075,7 @@
         <v>120</v>
       </c>
       <c r="M34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -3113,7 +3110,7 @@
         <v>120</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="2"/>
@@ -3124,7 +3121,7 @@
         <v>120</v>
       </c>
       <c r="M35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3159,7 +3156,7 @@
         <v>120</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="2"/>
@@ -3170,7 +3167,7 @@
         <v>120</v>
       </c>
       <c r="M36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3205,7 +3202,7 @@
         <v>120</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="2"/>
@@ -3216,7 +3213,7 @@
         <v>120</v>
       </c>
       <c r="M37" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3250,7 +3247,7 @@
         <v>120</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
@@ -3260,7 +3257,7 @@
         <v>120</v>
       </c>
       <c r="M38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -3295,7 +3292,7 @@
         <v>120</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
@@ -3306,7 +3303,7 @@
         <v>120</v>
       </c>
       <c r="M39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -3341,7 +3338,7 @@
         <v>120</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
@@ -3352,7 +3349,7 @@
         <v>120</v>
       </c>
       <c r="M40" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3387,7 +3384,7 @@
         <v>120</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
@@ -3398,7 +3395,7 @@
         <v>120</v>
       </c>
       <c r="M41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -3433,7 +3430,7 @@
         <v>120</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="2"/>
@@ -3444,7 +3441,7 @@
         <v>120</v>
       </c>
       <c r="M42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3479,7 +3476,7 @@
         <v>120</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="2"/>
@@ -3490,7 +3487,7 @@
         <v>120</v>
       </c>
       <c r="M43" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3525,7 +3522,7 @@
         <v>120</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="2"/>
@@ -3536,7 +3533,7 @@
         <v>120</v>
       </c>
       <c r="M44" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3571,7 +3568,7 @@
         <v>120</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
@@ -3582,7 +3579,7 @@
         <v>120</v>
       </c>
       <c r="M45" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3616,7 +3613,7 @@
         <v>120</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
@@ -3626,7 +3623,7 @@
         <v>120</v>
       </c>
       <c r="M46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3661,7 +3658,7 @@
         <v>120</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
@@ -3672,7 +3669,7 @@
         <v>120</v>
       </c>
       <c r="M47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3707,7 +3704,7 @@
         <v>120</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
@@ -3718,7 +3715,7 @@
         <v>120</v>
       </c>
       <c r="M48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3753,7 +3750,7 @@
         <v>120</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
@@ -3764,7 +3761,7 @@
         <v>120</v>
       </c>
       <c r="M49" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3799,7 +3796,7 @@
         <v>120</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
@@ -3810,7 +3807,7 @@
         <v>120</v>
       </c>
       <c r="M50" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3845,7 +3842,7 @@
         <v>120</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
@@ -3856,7 +3853,7 @@
         <v>120</v>
       </c>
       <c r="M51" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3891,7 +3888,7 @@
         <v>120</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="2"/>
@@ -3902,7 +3899,7 @@
         <v>120</v>
       </c>
       <c r="M52" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3937,7 +3934,7 @@
         <v>120</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="2"/>
@@ -3948,7 +3945,7 @@
         <v>120</v>
       </c>
       <c r="M53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3983,7 +3980,7 @@
         <v>120</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
@@ -3994,7 +3991,7 @@
         <v>120</v>
       </c>
       <c r="M54" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -4027,7 +4024,7 @@
         <v>121</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
@@ -4037,7 +4034,7 @@
         <v>121</v>
       </c>
       <c r="M55" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -4071,7 +4068,7 @@
         <v>122</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
@@ -4082,7 +4079,7 @@
         <v>122</v>
       </c>
       <c r="M56" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -4116,7 +4113,7 @@
         <v>122</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="2"/>
@@ -4127,7 +4124,7 @@
         <v>122</v>
       </c>
       <c r="M57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -4162,7 +4159,7 @@
         <v>123</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="2"/>
@@ -4173,7 +4170,7 @@
         <v>123</v>
       </c>
       <c r="M58" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -4208,7 +4205,7 @@
         <v>123</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="2"/>
@@ -4219,7 +4216,7 @@
         <v>123</v>
       </c>
       <c r="M59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -4254,7 +4251,7 @@
         <v>123</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
@@ -4265,12 +4262,12 @@
         <v>123</v>
       </c>
       <c r="M60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -4297,7 +4294,7 @@
         <v>122</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
@@ -4307,7 +4304,7 @@
         <v>122</v>
       </c>
       <c r="M61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -4334,7 +4331,7 @@
         <v>138</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="2"/>
@@ -4344,7 +4341,7 @@
         <v>138</v>
       </c>
       <c r="M62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -4374,7 +4371,7 @@
         <v>120</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="2"/>
@@ -4384,7 +4381,7 @@
         <v>120</v>
       </c>
       <c r="M63" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -4414,7 +4411,7 @@
         <v>120</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="2"/>
@@ -4424,7 +4421,7 @@
         <v>120</v>
       </c>
       <c r="M64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -4454,7 +4451,7 @@
         <v>120</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="2"/>
@@ -4464,7 +4461,7 @@
         <v>120</v>
       </c>
       <c r="M65" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -4494,7 +4491,7 @@
         <v>120</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" ref="K66:K97" si="3">A66&amp;" "&amp;I66</f>
@@ -4504,7 +4501,7 @@
         <v>120</v>
       </c>
       <c r="M66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -4536,7 +4533,7 @@
         <v>120</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="3"/>
@@ -4546,7 +4543,7 @@
         <v>120</v>
       </c>
       <c r="M67" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -4578,7 +4575,7 @@
         <v>120</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="3"/>
@@ -4588,7 +4585,7 @@
         <v>120</v>
       </c>
       <c r="M68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -4620,7 +4617,7 @@
         <v>120</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="3"/>
@@ -4630,7 +4627,7 @@
         <v>120</v>
       </c>
       <c r="M69" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -4662,7 +4659,7 @@
         <v>120</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="3"/>
@@ -4672,7 +4669,7 @@
         <v>120</v>
       </c>
       <c r="M70" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -4704,7 +4701,7 @@
         <v>120</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="3"/>
@@ -4714,7 +4711,7 @@
         <v>120</v>
       </c>
       <c r="M71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -4746,7 +4743,7 @@
         <v>120</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="3"/>
@@ -4756,12 +4753,12 @@
         <v>120</v>
       </c>
       <c r="M72" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B73" t="s">
         <v>69</v>
@@ -4785,7 +4782,7 @@
         <v>138</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="3"/>
@@ -4795,12 +4792,12 @@
         <v>138</v>
       </c>
       <c r="M73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B74" t="s">
         <v>69</v>
@@ -4824,7 +4821,7 @@
         <v>138</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="3"/>
@@ -4834,7 +4831,7 @@
         <v>138</v>
       </c>
       <c r="M74" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -4857,7 +4854,7 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H75" s="4">
         <v>0.125</v>
@@ -4877,7 +4874,7 @@
         <v>120</v>
       </c>
       <c r="M75" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -4900,7 +4897,7 @@
         <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H76" s="4">
         <v>0.125</v>
@@ -4920,7 +4917,7 @@
         <v>120</v>
       </c>
       <c r="M76" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4943,7 +4940,7 @@
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H77" s="4">
         <v>0.125</v>
@@ -4963,7 +4960,7 @@
         <v>120</v>
       </c>
       <c r="M77" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4986,7 +4983,7 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H78" s="4">
         <v>0.125</v>
@@ -5006,7 +5003,7 @@
         <v>120</v>
       </c>
       <c r="M78" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -5049,12 +5046,12 @@
         <v>120</v>
       </c>
       <c r="M79" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B80" t="s">
         <v>69</v>
@@ -5072,7 +5069,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H80" s="4">
         <v>0.125</v>
@@ -5092,7 +5089,7 @@
         <v>120</v>
       </c>
       <c r="M80" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -5135,7 +5132,7 @@
         <v>120</v>
       </c>
       <c r="M81" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -5158,7 +5155,7 @@
         <v>9</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H82" s="4">
         <v>0.125</v>
@@ -5178,7 +5175,7 @@
         <v>120</v>
       </c>
       <c r="M82" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -5201,7 +5198,7 @@
         <v>9</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H83" s="4">
         <v>0.125</v>
@@ -5221,7 +5218,7 @@
         <v>120</v>
       </c>
       <c r="M83" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -5244,7 +5241,7 @@
         <v>9</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H84" s="4">
         <v>0.125</v>
@@ -5264,7 +5261,7 @@
         <v>120</v>
       </c>
       <c r="M84" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -5287,7 +5284,7 @@
         <v>9</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H85" s="4">
         <v>0.125</v>
@@ -5307,7 +5304,7 @@
         <v>120</v>
       </c>
       <c r="M85" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -5350,7 +5347,7 @@
         <v>120</v>
       </c>
       <c r="M86" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -5373,7 +5370,7 @@
         <v>9</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H87" s="4">
         <v>0.125</v>
@@ -5393,7 +5390,7 @@
         <v>120</v>
       </c>
       <c r="M87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -5436,7 +5433,7 @@
         <v>120</v>
       </c>
       <c r="M88" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -5459,7 +5456,7 @@
         <v>9</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H89" s="4">
         <v>0.125</v>
@@ -5479,7 +5476,7 @@
         <v>120</v>
       </c>
       <c r="M89" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -5502,7 +5499,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H90" s="4">
         <v>0.125</v>
@@ -5522,7 +5519,7 @@
         <v>120</v>
       </c>
       <c r="M90" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -5545,7 +5542,7 @@
         <v>9</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H91" s="4">
         <v>0.125</v>
@@ -5565,7 +5562,7 @@
         <v>120</v>
       </c>
       <c r="M91" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -5588,7 +5585,7 @@
         <v>9</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H92" s="4">
         <v>0.125</v>
@@ -5608,7 +5605,7 @@
         <v>120</v>
       </c>
       <c r="M92" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -5631,7 +5628,7 @@
         <v>9</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H93" s="4">
         <v>0.125</v>
@@ -5651,12 +5648,12 @@
         <v>120</v>
       </c>
       <c r="M93" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>178</v>
+        <v>338</v>
       </c>
       <c r="B94" t="s">
         <v>69</v>
@@ -5674,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="H94" s="4">
         <v>0.125</v>
@@ -5684,22 +5681,22 @@
       </c>
       <c r="J94" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>5к</v>
+        <v>5,11к</v>
       </c>
       <c r="K94" t="str">
         <f t="shared" si="3"/>
-        <v>Р1-8В-0,125-5кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
+        <v>Р1-8В-0,125-5,11кОм±1% -Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L94" t="s">
         <v>120</v>
       </c>
       <c r="M94" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
         <v>69</v>
@@ -5737,12 +5734,12 @@
         <v>122</v>
       </c>
       <c r="M95" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B96" t="s">
         <v>69</v>
@@ -5760,7 +5757,7 @@
         <v>9</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H96" s="4">
         <v>2</v>
@@ -5780,12 +5777,12 @@
         <v>122</v>
       </c>
       <c r="M96" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B97" t="s">
         <v>69</v>
@@ -5803,7 +5800,7 @@
         <v>9</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H97" s="4">
         <v>0.25</v>
@@ -5823,12 +5820,12 @@
         <v>122</v>
       </c>
       <c r="M97" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
         <v>69</v>
@@ -5846,7 +5843,7 @@
         <v>9</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H98" s="4">
         <v>0.75</v>
@@ -5866,30 +5863,30 @@
         <v>122</v>
       </c>
       <c r="M98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E99" t="s">
+        <v>132</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B99" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" t="s">
-        <v>204</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E99" t="s">
-        <v>132</v>
-      </c>
-      <c r="F99" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="H99" s="4">
         <v>0.4</v>
@@ -5909,12 +5906,12 @@
         <v>122</v>
       </c>
       <c r="M99" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B100" t="s">
         <v>69</v>
@@ -5952,12 +5949,12 @@
         <v>120</v>
       </c>
       <c r="M100" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B101" t="s">
         <v>69</v>
@@ -5975,7 +5972,7 @@
         <v>9</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H101" s="4">
         <v>0.25</v>
@@ -5995,12 +5992,12 @@
         <v>120</v>
       </c>
       <c r="M101" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B102" t="s">
         <v>69</v>
@@ -6018,7 +6015,7 @@
         <v>9</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H102" s="4">
         <v>0.25</v>
@@ -6038,12 +6035,12 @@
         <v>120</v>
       </c>
       <c r="M102" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B103" t="s">
         <v>69</v>
@@ -6061,10 +6058,10 @@
         <v>9</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I103" t="s">
         <v>120</v>
@@ -6081,12 +6078,12 @@
         <v>120</v>
       </c>
       <c r="M103" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B104" t="s">
         <v>69</v>
@@ -6124,12 +6121,12 @@
         <v>123</v>
       </c>
       <c r="M104" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B105" t="s">
         <v>69</v>
@@ -6167,12 +6164,12 @@
         <v>123</v>
       </c>
       <c r="M105" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B106" t="s">
         <v>69</v>
@@ -6210,12 +6207,12 @@
         <v>123</v>
       </c>
       <c r="M106" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B107" t="s">
         <v>69</v>
@@ -6253,12 +6250,12 @@
         <v>123</v>
       </c>
       <c r="M107" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B108" t="s">
         <v>69</v>
@@ -6296,12 +6293,12 @@
         <v>123</v>
       </c>
       <c r="M108" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B109" t="s">
         <v>69</v>
@@ -6339,12 +6336,12 @@
         <v>123</v>
       </c>
       <c r="M109" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B110" t="s">
         <v>69</v>
@@ -6382,12 +6379,12 @@
         <v>123</v>
       </c>
       <c r="M110" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B111" t="s">
         <v>69</v>
@@ -6425,12 +6422,12 @@
         <v>123</v>
       </c>
       <c r="M111" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
@@ -6468,12 +6465,12 @@
         <v>120</v>
       </c>
       <c r="M112" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B113" t="s">
         <v>69</v>
@@ -6491,7 +6488,7 @@
         <v>9</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H113" s="4">
         <v>0.25</v>
@@ -6511,12 +6508,12 @@
         <v>120</v>
       </c>
       <c r="M113" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B114" t="s">
         <v>69</v>
@@ -6554,12 +6551,12 @@
         <v>120</v>
       </c>
       <c r="M114" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B115" t="s">
         <v>69</v>
@@ -6597,12 +6594,12 @@
         <v>120</v>
       </c>
       <c r="M115" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B116" t="s">
         <v>69</v>
@@ -6620,7 +6617,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H116" s="4">
         <v>0.25</v>
@@ -6640,12 +6637,12 @@
         <v>120</v>
       </c>
       <c r="M116" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B117" t="s">
         <v>69</v>
@@ -6663,7 +6660,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H117" s="4">
         <v>0.25</v>
@@ -6683,12 +6680,12 @@
         <v>120</v>
       </c>
       <c r="M117" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B118" t="s">
         <v>69</v>
@@ -6726,12 +6723,12 @@
         <v>120</v>
       </c>
       <c r="M118" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B119" t="s">
         <v>69</v>
@@ -6749,7 +6746,7 @@
         <v>9</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H119" s="4">
         <v>0.25</v>
@@ -6769,12 +6766,12 @@
         <v>120</v>
       </c>
       <c r="M119" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B120" t="s">
         <v>69</v>
@@ -6812,12 +6809,12 @@
         <v>120</v>
       </c>
       <c r="M120" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B121" t="s">
         <v>69</v>
@@ -6855,12 +6852,12 @@
         <v>120</v>
       </c>
       <c r="M121" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B122" t="s">
         <v>69</v>
@@ -6878,7 +6875,7 @@
         <v>9</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H122" s="4">
         <v>0.25</v>
@@ -6898,12 +6895,12 @@
         <v>120</v>
       </c>
       <c r="M122" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
         <v>69</v>
@@ -6921,7 +6918,7 @@
         <v>9</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H123" s="4">
         <v>0.25</v>
@@ -6941,12 +6938,12 @@
         <v>120</v>
       </c>
       <c r="M123" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B124" t="s">
         <v>69</v>
@@ -6980,12 +6977,12 @@
         <v>120</v>
       </c>
       <c r="M124" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B125" t="s">
         <v>69</v>
@@ -7019,12 +7016,12 @@
         <v>138</v>
       </c>
       <c r="M125" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B126" t="s">
         <v>69</v>
@@ -7058,12 +7055,12 @@
         <v>120</v>
       </c>
       <c r="M126" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B127" t="s">
         <v>69</v>
@@ -7081,13 +7078,13 @@
         <v>9</v>
       </c>
       <c r="G127" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I127" t="s">
         <v>120</v>
       </c>
       <c r="J127" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K127" t="str">
         <f t="shared" si="7"/>
@@ -7097,18 +7094,18 @@
         <v>120</v>
       </c>
       <c r="M127" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B128" t="s">
         <v>69</v>
       </c>
       <c r="C128" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>70</v>
@@ -7136,12 +7133,12 @@
         <v>120</v>
       </c>
       <c r="M128" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B129" t="s">
         <v>69</v>
@@ -7159,7 +7156,7 @@
         <v>9</v>
       </c>
       <c r="G129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I129" t="s">
         <v>120</v>
@@ -7176,12 +7173,12 @@
         <v>120</v>
       </c>
       <c r="M129" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B130" t="s">
         <v>69</v>
@@ -7199,14 +7196,14 @@
         <v>9</v>
       </c>
       <c r="G130" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="I130" t="s">
         <v>120</v>
       </c>
       <c r="J130" t="str">
         <f t="shared" ref="J130:J133" si="9">G130</f>
-        <v>5к</v>
+        <v>5,11к</v>
       </c>
       <c r="K130" t="str">
         <f t="shared" si="8"/>
@@ -7216,12 +7213,12 @@
         <v>120</v>
       </c>
       <c r="M130" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B131" t="s">
         <v>69</v>
@@ -7256,12 +7253,12 @@
         <v>120</v>
       </c>
       <c r="M131" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B132" t="s">
         <v>69</v>
@@ -7279,7 +7276,7 @@
         <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I132" t="s">
         <v>120</v>
@@ -7296,12 +7293,12 @@
         <v>120</v>
       </c>
       <c r="M132" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B133" t="s">
         <v>69</v>
@@ -7336,12 +7333,12 @@
         <v>120</v>
       </c>
       <c r="M133" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B134" t="s">
         <v>69</v>
@@ -7359,7 +7356,7 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I134" t="s">
         <v>120</v>
@@ -7376,12 +7373,12 @@
         <v>120</v>
       </c>
       <c r="M134" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B135" t="s">
         <v>69</v>
@@ -7399,7 +7396,7 @@
         <v>9</v>
       </c>
       <c r="G135" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I135" t="s">
         <v>120</v>
@@ -7416,12 +7413,12 @@
         <v>120</v>
       </c>
       <c r="M135" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B136" t="s">
         <v>69</v>
@@ -7439,7 +7436,7 @@
         <v>9</v>
       </c>
       <c r="G136" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J136" t="str">
         <f>G136</f>
@@ -7450,15 +7447,15 @@
         <v xml:space="preserve">RC0603FR-0710KL </v>
       </c>
       <c r="L136" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M136" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B137" t="s">
         <v>69</v>
@@ -7476,7 +7473,7 @@
         <v>9</v>
       </c>
       <c r="G137" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J137" t="str">
         <f>G137</f>
@@ -7487,15 +7484,15 @@
         <v xml:space="preserve">RC0603F0R </v>
       </c>
       <c r="L137" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M137" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B138" t="s">
         <v>69</v>
@@ -7513,26 +7510,26 @@
         <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="J138" t="str">
         <f>G138</f>
-        <v>5к</v>
+        <v>5,11к</v>
       </c>
       <c r="K138" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">RC0805FR-075KL </v>
       </c>
       <c r="L138" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M138" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B139" t="s">
         <v>69</v>
@@ -7561,15 +7558,15 @@
         <v xml:space="preserve">RC0603FR-07464RL </v>
       </c>
       <c r="L139" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M139" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B140" t="s">
         <v>69</v>
@@ -7587,7 +7584,7 @@
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J140" t="str">
         <f t="shared" si="13"/>
@@ -7598,15 +7595,15 @@
         <v xml:space="preserve">RC0603JR-071K1L </v>
       </c>
       <c r="L140" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M140" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B141" t="s">
         <v>69</v>
@@ -7635,15 +7632,15 @@
         <v xml:space="preserve">RL2512FK-070R01L </v>
       </c>
       <c r="L141" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M141" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B142" t="s">
         <v>69</v>
@@ -7672,15 +7669,15 @@
         <v xml:space="preserve">RC0603FR-07121RL </v>
       </c>
       <c r="L142" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M142" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B143" t="s">
         <v>69</v>
@@ -7709,15 +7706,15 @@
         <v xml:space="preserve">RC0603FR-0751RL </v>
       </c>
       <c r="L143" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M143" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B144" t="s">
         <v>69</v>
@@ -7746,15 +7743,15 @@
         <v xml:space="preserve">R0603F549RTG </v>
       </c>
       <c r="L144" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M144" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B145" t="s">
         <v>69</v>
@@ -7772,7 +7769,7 @@
         <v>9</v>
       </c>
       <c r="G145" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J145" t="str">
         <f t="shared" si="13"/>
@@ -7783,15 +7780,15 @@
         <v xml:space="preserve">RC0603FR-07300KL </v>
       </c>
       <c r="L145" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M145" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B146" t="s">
         <v>69</v>
@@ -7809,7 +7806,7 @@
         <v>9</v>
       </c>
       <c r="G146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J146" t="str">
         <f t="shared" si="13"/>
@@ -7820,15 +7817,15 @@
         <v xml:space="preserve">RC0603FR-072KL </v>
       </c>
       <c r="L146" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B147" t="s">
         <v>69</v>
@@ -7857,15 +7854,15 @@
         <v xml:space="preserve">RC0603FR-07130RL </v>
       </c>
       <c r="L147" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M147" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B148" t="s">
         <v>69</v>
@@ -7883,7 +7880,7 @@
         <v>9</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I148" t="s">
         <v>120</v>
@@ -7900,12 +7897,12 @@
         <v>120</v>
       </c>
       <c r="M148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B149" t="s">
         <v>69</v>
@@ -7940,12 +7937,12 @@
         <v>120</v>
       </c>
       <c r="M149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B150" t="s">
         <v>69</v>
@@ -7980,12 +7977,12 @@
         <v>120</v>
       </c>
       <c r="M150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B151" t="s">
         <v>69</v>
@@ -8003,7 +8000,7 @@
         <v>9</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I151" t="s">
         <v>120</v>
@@ -8020,12 +8017,12 @@
         <v>120</v>
       </c>
       <c r="M151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B152" t="s">
         <v>69</v>
@@ -8053,15 +8050,15 @@
         <v xml:space="preserve">RC0603FR-07240RL </v>
       </c>
       <c r="L152" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M152" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B153" t="s">
         <v>69</v>
@@ -8095,12 +8092,12 @@
         <v>120</v>
       </c>
       <c r="M153" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B154" t="s">
         <v>69</v>
@@ -8127,19 +8124,19 @@
         <v>300</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" ref="K154:K158" si="14">A154&amp;" "&amp;I154</f>
+        <f t="shared" ref="K154:K159" si="14">A154&amp;" "&amp;I154</f>
         <v>Р1-8В-0,1-300 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L154" t="s">
         <v>120</v>
       </c>
       <c r="M154" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B155" t="s">
         <v>69</v>
@@ -8167,15 +8164,15 @@
         <v xml:space="preserve">RC0603FR-0718RL </v>
       </c>
       <c r="L155" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M155" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B156" t="s">
         <v>69</v>
@@ -8203,15 +8200,15 @@
         <v xml:space="preserve">RC0603FR-07300RL </v>
       </c>
       <c r="L156" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M156" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B157" t="s">
         <v>69</v>
@@ -8229,25 +8226,25 @@
         <v>9</v>
       </c>
       <c r="G157" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="J157" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K157" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">RC0603FR-07100KL </v>
       </c>
       <c r="L157" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M157" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B158" t="s">
         <v>69</v>
@@ -8265,13 +8262,13 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I158" t="s">
         <v>120</v>
       </c>
       <c r="J158" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K158" t="str">
         <f t="shared" si="14"/>
@@ -8281,7 +8278,43 @@
         <v>120</v>
       </c>
       <c r="M158" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>337</v>
+      </c>
+      <c r="B159" t="s">
+        <v>69</v>
+      </c>
+      <c r="C159" t="s">
+        <v>127</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E159" t="s">
+        <v>132</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" t="s">
+        <v>183</v>
+      </c>
+      <c r="J159" t="s">
+        <v>232</v>
+      </c>
+      <c r="K159" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-075K1L </v>
+      </c>
+      <c r="L159" t="s">
+        <v>317</v>
+      </c>
+      <c r="M159" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -5,37 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\git\GitHub\LibrariesGOST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BB918B-5576-4865-B14E-A8673591C745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E14C7-E71D-46CE-A737-84D1F66BD7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="1290" windowWidth="12000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="359">
   <si>
     <t>Part Number</t>
   </si>
@@ -1138,12 +1129,72 @@
   <si>
     <t>Р1-8В-0,125-5,11кОм±1% -Т-А-М</t>
   </si>
+  <si>
+    <t>Р1-8В-0,1-4,99 кОм ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-1,1 кОм ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>RC0603FR-071K1L</t>
+  </si>
+  <si>
+    <t>Р2-105-0,75-0,033 Ом±5% -А</t>
+  </si>
+  <si>
+    <t>RL2512FK-070R033L</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-499 Ом ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-301 кОм ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>RC0603FR-07301KL</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-200 кОм ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>RC0603FR-07200KL</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-499 кОм ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>RC0603FR-07499KL</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-402 кОм ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>RC0603FR-07402KL</t>
+  </si>
+  <si>
+    <t>4,99к</t>
+  </si>
+  <si>
+    <t>1,1к</t>
+  </si>
+  <si>
+    <t>200к</t>
+  </si>
+  <si>
+    <t>499к</t>
+  </si>
+  <si>
+    <t>402к</t>
+  </si>
+  <si>
+    <t>RC0603FR-07499RL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,6 +1227,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1226,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1239,6 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1519,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N159"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M159" sqref="M159"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M163" sqref="M163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8124,7 +8183,7 @@
         <v>300</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" ref="K154:K159" si="14">A154&amp;" "&amp;I154</f>
+        <f t="shared" ref="K154:K174" si="14">A154&amp;" "&amp;I154</f>
         <v>Р1-8В-0,1-300 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L154" t="s">
@@ -8315,6 +8374,564 @@
       </c>
       <c r="M159" t="s">
         <v>328</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B160" t="s">
+        <v>69</v>
+      </c>
+      <c r="C160" t="s">
+        <v>127</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E160" t="s">
+        <v>132</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" t="s">
+        <v>353</v>
+      </c>
+      <c r="I160" t="s">
+        <v>120</v>
+      </c>
+      <c r="J160" t="s">
+        <v>353</v>
+      </c>
+      <c r="K160" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-4,99 кОм ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L160" t="s">
+        <v>120</v>
+      </c>
+      <c r="M160" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>340</v>
+      </c>
+      <c r="B161" t="s">
+        <v>69</v>
+      </c>
+      <c r="C161" t="s">
+        <v>127</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E161" t="s">
+        <v>132</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" t="s">
+        <v>354</v>
+      </c>
+      <c r="I161" t="s">
+        <v>120</v>
+      </c>
+      <c r="J161" t="s">
+        <v>354</v>
+      </c>
+      <c r="K161" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-1,1 кОм ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L161" t="s">
+        <v>120</v>
+      </c>
+      <c r="M161" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B162" t="s">
+        <v>69</v>
+      </c>
+      <c r="C162" t="s">
+        <v>127</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E162" t="s">
+        <v>132</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" t="s">
+        <v>354</v>
+      </c>
+      <c r="J162" t="s">
+        <v>354</v>
+      </c>
+      <c r="K162" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-071K1L </v>
+      </c>
+      <c r="L162" t="s">
+        <v>317</v>
+      </c>
+      <c r="M162" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>342</v>
+      </c>
+      <c r="B163" t="s">
+        <v>69</v>
+      </c>
+      <c r="C163" t="s">
+        <v>125</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E163" t="s">
+        <v>132</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J163">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K163" t="str">
+        <f t="shared" si="14"/>
+        <v>Р2-105-0,75-0,033 Ом±5% -А РКМУ.434150.001ТУ</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M163" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B164" t="s">
+        <v>69</v>
+      </c>
+      <c r="C164" t="s">
+        <v>125</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E164" t="s">
+        <v>132</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J164">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K164" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RL2512FK-070R033L </v>
+      </c>
+      <c r="L164" t="s">
+        <v>317</v>
+      </c>
+      <c r="M164" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>344</v>
+      </c>
+      <c r="B165" t="s">
+        <v>69</v>
+      </c>
+      <c r="C165" t="s">
+        <v>127</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E165" t="s">
+        <v>132</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165">
+        <v>499</v>
+      </c>
+      <c r="I165" t="s">
+        <v>120</v>
+      </c>
+      <c r="J165">
+        <v>499</v>
+      </c>
+      <c r="K165" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-499 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L165" t="s">
+        <v>120</v>
+      </c>
+      <c r="M165" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B166" t="s">
+        <v>69</v>
+      </c>
+      <c r="C166" t="s">
+        <v>127</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E166" t="s">
+        <v>132</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166">
+        <v>499</v>
+      </c>
+      <c r="J166">
+        <v>499</v>
+      </c>
+      <c r="K166" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-07499RL </v>
+      </c>
+      <c r="L166" t="s">
+        <v>317</v>
+      </c>
+      <c r="M166" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B167" t="s">
+        <v>69</v>
+      </c>
+      <c r="C167" t="s">
+        <v>127</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E167" t="s">
+        <v>132</v>
+      </c>
+      <c r="F167" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" t="s">
+        <v>245</v>
+      </c>
+      <c r="I167" t="s">
+        <v>120</v>
+      </c>
+      <c r="J167" t="s">
+        <v>245</v>
+      </c>
+      <c r="K167" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-301 кОм ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L167" t="s">
+        <v>120</v>
+      </c>
+      <c r="M167" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" t="s">
+        <v>69</v>
+      </c>
+      <c r="C168" t="s">
+        <v>127</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E168" t="s">
+        <v>132</v>
+      </c>
+      <c r="F168" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" t="s">
+        <v>245</v>
+      </c>
+      <c r="J168" t="s">
+        <v>245</v>
+      </c>
+      <c r="K168" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-07301KL </v>
+      </c>
+      <c r="L168" t="s">
+        <v>317</v>
+      </c>
+      <c r="M168" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B169" t="s">
+        <v>69</v>
+      </c>
+      <c r="C169" t="s">
+        <v>127</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E169" t="s">
+        <v>132</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" t="s">
+        <v>355</v>
+      </c>
+      <c r="I169" t="s">
+        <v>120</v>
+      </c>
+      <c r="J169" t="s">
+        <v>355</v>
+      </c>
+      <c r="K169" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-200 кОм ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L169" t="s">
+        <v>120</v>
+      </c>
+      <c r="M169" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>348</v>
+      </c>
+      <c r="B170" t="s">
+        <v>69</v>
+      </c>
+      <c r="C170" t="s">
+        <v>127</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E170" t="s">
+        <v>132</v>
+      </c>
+      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" t="s">
+        <v>355</v>
+      </c>
+      <c r="J170" t="s">
+        <v>355</v>
+      </c>
+      <c r="K170" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-07200KL </v>
+      </c>
+      <c r="L170" t="s">
+        <v>317</v>
+      </c>
+      <c r="M170" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B171" t="s">
+        <v>69</v>
+      </c>
+      <c r="C171" t="s">
+        <v>127</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E171" t="s">
+        <v>132</v>
+      </c>
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" t="s">
+        <v>356</v>
+      </c>
+      <c r="I171" t="s">
+        <v>120</v>
+      </c>
+      <c r="J171" t="s">
+        <v>356</v>
+      </c>
+      <c r="K171" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-499 кОм ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L171" t="s">
+        <v>120</v>
+      </c>
+      <c r="M171" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>350</v>
+      </c>
+      <c r="B172" t="s">
+        <v>69</v>
+      </c>
+      <c r="C172" t="s">
+        <v>127</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E172" t="s">
+        <v>132</v>
+      </c>
+      <c r="F172" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" t="s">
+        <v>356</v>
+      </c>
+      <c r="J172" t="s">
+        <v>356</v>
+      </c>
+      <c r="K172" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-07499KL </v>
+      </c>
+      <c r="L172" t="s">
+        <v>317</v>
+      </c>
+      <c r="M172" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B173" t="s">
+        <v>69</v>
+      </c>
+      <c r="C173" t="s">
+        <v>127</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E173" t="s">
+        <v>132</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" t="s">
+        <v>357</v>
+      </c>
+      <c r="I173" t="s">
+        <v>120</v>
+      </c>
+      <c r="J173" t="s">
+        <v>357</v>
+      </c>
+      <c r="K173" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-402 кОм ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L173" t="s">
+        <v>120</v>
+      </c>
+      <c r="M173" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B174" t="s">
+        <v>69</v>
+      </c>
+      <c r="C174" t="s">
+        <v>127</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E174" t="s">
+        <v>132</v>
+      </c>
+      <c r="F174" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" t="s">
+        <v>357</v>
+      </c>
+      <c r="J174" t="s">
+        <v>357</v>
+      </c>
+      <c r="K174" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-07402KL </v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -5,28 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\git\GitHub\LibrariesGOST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E14C7-E71D-46CE-A737-84D1F66BD7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9617E4C-1365-486C-BDCB-6F4336969C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4110" yWindow="1290" windowWidth="12000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="368">
   <si>
     <t>Part Number</t>
   </si>
@@ -1007,9 +1016,6 @@
   </si>
   <si>
     <t>RC0603F0R</t>
-  </si>
-  <si>
-    <t>RC0805FR-075KL</t>
   </si>
   <si>
     <t>RL2512FK-070R01L</t>
@@ -1188,6 +1194,36 @@
   </si>
   <si>
     <t>RC0603FR-07499RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-074K99L</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-24,9 Ом ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>RC0603FR-0724R9L</t>
+  </si>
+  <si>
+    <t>RC0603FR-0733R2L</t>
+  </si>
+  <si>
+    <t>RC0603FR-07133RL</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-33,2 Ом ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-133 Ом ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-51,1 Ом ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>RC0603FR-0751R1L</t>
+  </si>
+  <si>
+    <t>RC0805FR-075K11L</t>
   </si>
 </sst>
 </file>
@@ -1578,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M163" sqref="M163"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1679,7 @@
         <v>289</v>
       </c>
       <c r="N1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4326,7 +4362,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -5712,7 +5748,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B94" t="s">
         <v>69</v>
@@ -7477,7 +7513,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B136" t="s">
         <v>69</v>
@@ -7506,10 +7542,10 @@
         <v xml:space="preserve">RC0603FR-0710KL </v>
       </c>
       <c r="L136" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M136" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -7543,15 +7579,15 @@
         <v xml:space="preserve">RC0603F0R </v>
       </c>
       <c r="L137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M137" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="B138" t="s">
         <v>69</v>
@@ -7577,18 +7613,18 @@
       </c>
       <c r="K138" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">RC0805FR-075KL </v>
+        <v xml:space="preserve">RC0805FR-075K11L </v>
       </c>
       <c r="L138" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M138" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B139" t="s">
         <v>69</v>
@@ -7617,15 +7653,15 @@
         <v xml:space="preserve">RC0603FR-07464RL </v>
       </c>
       <c r="L139" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M139" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B140" t="s">
         <v>69</v>
@@ -7654,15 +7690,15 @@
         <v xml:space="preserve">RC0603JR-071K1L </v>
       </c>
       <c r="L140" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M140" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B141" t="s">
         <v>69</v>
@@ -7691,15 +7727,15 @@
         <v xml:space="preserve">RL2512FK-070R01L </v>
       </c>
       <c r="L141" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M141" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B142" t="s">
         <v>69</v>
@@ -7728,15 +7764,15 @@
         <v xml:space="preserve">RC0603FR-07121RL </v>
       </c>
       <c r="L142" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M142" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B143" t="s">
         <v>69</v>
@@ -7765,15 +7801,15 @@
         <v xml:space="preserve">RC0603FR-0751RL </v>
       </c>
       <c r="L143" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B144" t="s">
         <v>69</v>
@@ -7802,15 +7838,15 @@
         <v xml:space="preserve">R0603F549RTG </v>
       </c>
       <c r="L144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M144" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B145" t="s">
         <v>69</v>
@@ -7839,15 +7875,15 @@
         <v xml:space="preserve">RC0603FR-07300KL </v>
       </c>
       <c r="L145" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B146" t="s">
         <v>69</v>
@@ -7876,15 +7912,15 @@
         <v xml:space="preserve">RC0603FR-072KL </v>
       </c>
       <c r="L146" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B147" t="s">
         <v>69</v>
@@ -7913,15 +7949,15 @@
         <v xml:space="preserve">RC0603FR-07130RL </v>
       </c>
       <c r="L147" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M147" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B148" t="s">
         <v>69</v>
@@ -7939,7 +7975,7 @@
         <v>9</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I148" t="s">
         <v>120</v>
@@ -7961,7 +7997,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B149" t="s">
         <v>69</v>
@@ -8001,7 +8037,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B150" t="s">
         <v>69</v>
@@ -8041,7 +8077,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B151" t="s">
         <v>69</v>
@@ -8081,7 +8117,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B152" t="s">
         <v>69</v>
@@ -8109,15 +8145,15 @@
         <v xml:space="preserve">RC0603FR-07240RL </v>
       </c>
       <c r="L152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M152" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B153" t="s">
         <v>69</v>
@@ -8156,7 +8192,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B154" t="s">
         <v>69</v>
@@ -8183,7 +8219,7 @@
         <v>300</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" ref="K154:K174" si="14">A154&amp;" "&amp;I154</f>
+        <f t="shared" ref="K154:K183" si="14">A154&amp;" "&amp;I154</f>
         <v>Р1-8В-0,1-300 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L154" t="s">
@@ -8195,7 +8231,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B155" t="s">
         <v>69</v>
@@ -8223,15 +8259,15 @@
         <v xml:space="preserve">RC0603FR-0718RL </v>
       </c>
       <c r="L155" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M155" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B156" t="s">
         <v>69</v>
@@ -8259,15 +8295,15 @@
         <v xml:space="preserve">RC0603FR-07300RL </v>
       </c>
       <c r="L156" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M156" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B157" t="s">
         <v>69</v>
@@ -8295,15 +8331,15 @@
         <v xml:space="preserve">RC0603FR-07100KL </v>
       </c>
       <c r="L157" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M157" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B158" t="s">
         <v>69</v>
@@ -8321,13 +8357,13 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I158" t="s">
         <v>120</v>
       </c>
       <c r="J158" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K158" t="str">
         <f t="shared" si="14"/>
@@ -8342,7 +8378,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B159" t="s">
         <v>69</v>
@@ -8370,15 +8406,15 @@
         <v xml:space="preserve">RC0603FR-075K1L </v>
       </c>
       <c r="L159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M159" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B160" t="s">
         <v>69</v>
@@ -8396,13 +8432,13 @@
         <v>9</v>
       </c>
       <c r="G160" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I160" t="s">
         <v>120</v>
       </c>
       <c r="J160" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K160" t="str">
         <f t="shared" si="14"/>
@@ -8417,7 +8453,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B161" t="s">
         <v>69</v>
@@ -8435,13 +8471,13 @@
         <v>9</v>
       </c>
       <c r="G161" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I161" t="s">
         <v>120</v>
       </c>
       <c r="J161" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K161" t="str">
         <f t="shared" si="14"/>
@@ -8456,7 +8492,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B162" t="s">
         <v>69</v>
@@ -8474,25 +8510,25 @@
         <v>9</v>
       </c>
       <c r="G162" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J162" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K162" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">RC0603FR-071K1L </v>
       </c>
       <c r="L162" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M162" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B163" t="s">
         <v>69</v>
@@ -8531,7 +8567,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B164" t="s">
         <v>69</v>
@@ -8559,15 +8595,15 @@
         <v xml:space="preserve">RL2512FK-070R033L </v>
       </c>
       <c r="L164" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M164" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B165" t="s">
         <v>69</v>
@@ -8606,7 +8642,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B166" t="s">
         <v>69</v>
@@ -8634,15 +8670,15 @@
         <v xml:space="preserve">RC0603FR-07499RL </v>
       </c>
       <c r="L166" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M166" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B167" t="s">
         <v>69</v>
@@ -8681,7 +8717,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B168" t="s">
         <v>69</v>
@@ -8709,15 +8745,15 @@
         <v xml:space="preserve">RC0603FR-07301KL </v>
       </c>
       <c r="L168" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M168" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B169" t="s">
         <v>69</v>
@@ -8735,13 +8771,13 @@
         <v>9</v>
       </c>
       <c r="G169" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I169" t="s">
         <v>120</v>
       </c>
       <c r="J169" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K169" t="str">
         <f t="shared" si="14"/>
@@ -8756,7 +8792,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B170" t="s">
         <v>69</v>
@@ -8774,25 +8810,25 @@
         <v>9</v>
       </c>
       <c r="G170" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J170" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K170" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">RC0603FR-07200KL </v>
       </c>
       <c r="L170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M170" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B171" t="s">
         <v>69</v>
@@ -8810,13 +8846,13 @@
         <v>9</v>
       </c>
       <c r="G171" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I171" t="s">
         <v>120</v>
       </c>
       <c r="J171" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K171" t="str">
         <f t="shared" si="14"/>
@@ -8831,7 +8867,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B172" t="s">
         <v>69</v>
@@ -8849,25 +8885,25 @@
         <v>9</v>
       </c>
       <c r="G172" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J172" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K172" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">RC0603FR-07499KL </v>
       </c>
       <c r="L172" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M172" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B173" t="s">
         <v>69</v>
@@ -8885,13 +8921,13 @@
         <v>9</v>
       </c>
       <c r="G173" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I173" t="s">
         <v>120</v>
       </c>
       <c r="J173" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K173" t="str">
         <f t="shared" si="14"/>
@@ -8906,7 +8942,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B174" t="s">
         <v>69</v>
@@ -8924,14 +8960,356 @@
         <v>9</v>
       </c>
       <c r="G174" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J174" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K174" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">RC0603FR-07402KL </v>
+      </c>
+      <c r="L174" t="s">
+        <v>316</v>
+      </c>
+      <c r="M174" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175" t="s">
+        <v>69</v>
+      </c>
+      <c r="C175" t="s">
+        <v>127</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E175" t="s">
+        <v>132</v>
+      </c>
+      <c r="F175" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" t="s">
+        <v>352</v>
+      </c>
+      <c r="J175" t="s">
+        <v>352</v>
+      </c>
+      <c r="K175" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-074K99L </v>
+      </c>
+      <c r="L175" t="s">
+        <v>316</v>
+      </c>
+      <c r="M175" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>359</v>
+      </c>
+      <c r="B176" t="s">
+        <v>69</v>
+      </c>
+      <c r="C176" t="s">
+        <v>127</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E176" t="s">
+        <v>132</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176">
+        <v>24.9</v>
+      </c>
+      <c r="I176" t="s">
+        <v>120</v>
+      </c>
+      <c r="J176">
+        <v>24.9</v>
+      </c>
+      <c r="K176" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-24,9 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L176" t="s">
+        <v>120</v>
+      </c>
+      <c r="M176" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" t="s">
+        <v>69</v>
+      </c>
+      <c r="C177" t="s">
+        <v>127</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E177" t="s">
+        <v>132</v>
+      </c>
+      <c r="F177" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177">
+        <v>24.9</v>
+      </c>
+      <c r="J177">
+        <v>24.9</v>
+      </c>
+      <c r="K177" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-0724R9L </v>
+      </c>
+      <c r="L177" t="s">
+        <v>316</v>
+      </c>
+      <c r="M177" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>363</v>
+      </c>
+      <c r="B178" t="s">
+        <v>69</v>
+      </c>
+      <c r="C178" t="s">
+        <v>127</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E178" t="s">
+        <v>132</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I178" t="s">
+        <v>120</v>
+      </c>
+      <c r="J178">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K178" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-33,2 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L178" t="s">
+        <v>120</v>
+      </c>
+      <c r="M178" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B179" t="s">
+        <v>69</v>
+      </c>
+      <c r="C179" t="s">
+        <v>127</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E179" t="s">
+        <v>132</v>
+      </c>
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J179">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K179" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-0733R2L </v>
+      </c>
+      <c r="L179" t="s">
+        <v>316</v>
+      </c>
+      <c r="M179" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>364</v>
+      </c>
+      <c r="B180" t="s">
+        <v>69</v>
+      </c>
+      <c r="C180" t="s">
+        <v>127</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E180" t="s">
+        <v>132</v>
+      </c>
+      <c r="F180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180">
+        <v>133</v>
+      </c>
+      <c r="I180" t="s">
+        <v>120</v>
+      </c>
+      <c r="J180">
+        <v>133</v>
+      </c>
+      <c r="K180" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-133 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L180" t="s">
+        <v>120</v>
+      </c>
+      <c r="M180" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B181" t="s">
+        <v>69</v>
+      </c>
+      <c r="C181" t="s">
+        <v>127</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E181" t="s">
+        <v>132</v>
+      </c>
+      <c r="F181" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181">
+        <v>133</v>
+      </c>
+      <c r="J181">
+        <v>133</v>
+      </c>
+      <c r="K181" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-07133RL </v>
+      </c>
+      <c r="L181" t="s">
+        <v>316</v>
+      </c>
+      <c r="M181" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>365</v>
+      </c>
+      <c r="B182" t="s">
+        <v>69</v>
+      </c>
+      <c r="C182" t="s">
+        <v>127</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E182" t="s">
+        <v>132</v>
+      </c>
+      <c r="F182" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182">
+        <v>51.1</v>
+      </c>
+      <c r="I182" t="s">
+        <v>120</v>
+      </c>
+      <c r="J182">
+        <v>51.1</v>
+      </c>
+      <c r="K182" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-51,1 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L182" t="s">
+        <v>120</v>
+      </c>
+      <c r="M182" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B183" t="s">
+        <v>69</v>
+      </c>
+      <c r="C183" t="s">
+        <v>127</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E183" t="s">
+        <v>132</v>
+      </c>
+      <c r="F183" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183">
+        <v>51.1</v>
+      </c>
+      <c r="J183">
+        <v>51.1</v>
+      </c>
+      <c r="K183" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-0751R1L </v>
+      </c>
+      <c r="L183" t="s">
+        <v>316</v>
+      </c>
+      <c r="M183" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9617E4C-1365-486C-BDCB-6F4336969C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295212A7-7343-42B2-B7CA-325AD43041BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="371">
   <si>
     <t>Part Number</t>
   </si>
@@ -1015,9 +1015,6 @@
     <t>Р1-8В-0,1-10кОм±1% -Т-А-М</t>
   </si>
   <si>
-    <t>RC0603F0R</t>
-  </si>
-  <si>
     <t>RL2512FK-070R01L</t>
   </si>
   <si>
@@ -1025,9 +1022,6 @@
   </si>
   <si>
     <t>RC0603FR-0751RL</t>
-  </si>
-  <si>
-    <t>R0603F549RTG</t>
   </si>
   <si>
     <t>RC0603FR-07300KL</t>
@@ -1224,6 +1218,21 @@
   </si>
   <si>
     <t>RC0805FR-075K11L</t>
+  </si>
+  <si>
+    <t>RC0603FR-07620RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-0724KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-073K3L</t>
+  </si>
+  <si>
+    <t>RC0603FR-07549RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-0R</t>
   </si>
 </sst>
 </file>
@@ -1614,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,7 +1688,7 @@
         <v>289</v>
       </c>
       <c r="N1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4362,7 +4371,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -5748,7 +5757,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B94" t="s">
         <v>69</v>
@@ -7513,7 +7522,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B136" t="s">
         <v>69</v>
@@ -7542,15 +7551,15 @@
         <v xml:space="preserve">RC0603FR-0710KL </v>
       </c>
       <c r="L136" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M136" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
       <c r="B137" t="s">
         <v>69</v>
@@ -7576,18 +7585,18 @@
       </c>
       <c r="K137" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">RC0603F0R </v>
+        <v xml:space="preserve">RC0603FR-0R </v>
       </c>
       <c r="L137" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M137" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B138" t="s">
         <v>69</v>
@@ -7616,15 +7625,15 @@
         <v xml:space="preserve">RC0805FR-075K11L </v>
       </c>
       <c r="L138" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M138" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B139" t="s">
         <v>69</v>
@@ -7653,15 +7662,15 @@
         <v xml:space="preserve">RC0603FR-07464RL </v>
       </c>
       <c r="L139" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M139" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B140" t="s">
         <v>69</v>
@@ -7690,15 +7699,15 @@
         <v xml:space="preserve">RC0603JR-071K1L </v>
       </c>
       <c r="L140" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M140" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B141" t="s">
         <v>69</v>
@@ -7727,15 +7736,15 @@
         <v xml:space="preserve">RL2512FK-070R01L </v>
       </c>
       <c r="L141" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M141" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B142" t="s">
         <v>69</v>
@@ -7764,15 +7773,15 @@
         <v xml:space="preserve">RC0603FR-07121RL </v>
       </c>
       <c r="L142" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M142" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B143" t="s">
         <v>69</v>
@@ -7801,15 +7810,15 @@
         <v xml:space="preserve">RC0603FR-0751RL </v>
       </c>
       <c r="L143" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M143" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="B144" t="s">
         <v>69</v>
@@ -7835,18 +7844,18 @@
       </c>
       <c r="K144" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">R0603F549RTG </v>
+        <v xml:space="preserve">RC0603FR-07549RL </v>
       </c>
       <c r="L144" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M144" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B145" t="s">
         <v>69</v>
@@ -7875,15 +7884,15 @@
         <v xml:space="preserve">RC0603FR-07300KL </v>
       </c>
       <c r="L145" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M145" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B146" t="s">
         <v>69</v>
@@ -7912,15 +7921,15 @@
         <v xml:space="preserve">RC0603FR-072KL </v>
       </c>
       <c r="L146" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M146" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B147" t="s">
         <v>69</v>
@@ -7949,15 +7958,15 @@
         <v xml:space="preserve">RC0603FR-07130RL </v>
       </c>
       <c r="L147" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M147" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B148" t="s">
         <v>69</v>
@@ -7975,7 +7984,7 @@
         <v>9</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I148" t="s">
         <v>120</v>
@@ -7997,7 +8006,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B149" t="s">
         <v>69</v>
@@ -8037,7 +8046,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B150" t="s">
         <v>69</v>
@@ -8077,7 +8086,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B151" t="s">
         <v>69</v>
@@ -8117,7 +8126,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B152" t="s">
         <v>69</v>
@@ -8145,15 +8154,15 @@
         <v xml:space="preserve">RC0603FR-07240RL </v>
       </c>
       <c r="L152" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M152" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B153" t="s">
         <v>69</v>
@@ -8192,7 +8201,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B154" t="s">
         <v>69</v>
@@ -8219,7 +8228,7 @@
         <v>300</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" ref="K154:K183" si="14">A154&amp;" "&amp;I154</f>
+        <f t="shared" ref="K154:K186" si="14">A154&amp;" "&amp;I154</f>
         <v>Р1-8В-0,1-300 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L154" t="s">
@@ -8231,7 +8240,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B155" t="s">
         <v>69</v>
@@ -8259,15 +8268,15 @@
         <v xml:space="preserve">RC0603FR-0718RL </v>
       </c>
       <c r="L155" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M155" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B156" t="s">
         <v>69</v>
@@ -8295,15 +8304,15 @@
         <v xml:space="preserve">RC0603FR-07300RL </v>
       </c>
       <c r="L156" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M156" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B157" t="s">
         <v>69</v>
@@ -8331,15 +8340,15 @@
         <v xml:space="preserve">RC0603FR-07100KL </v>
       </c>
       <c r="L157" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M157" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B158" t="s">
         <v>69</v>
@@ -8357,13 +8366,13 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I158" t="s">
         <v>120</v>
       </c>
       <c r="J158" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K158" t="str">
         <f t="shared" si="14"/>
@@ -8378,7 +8387,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B159" t="s">
         <v>69</v>
@@ -8406,15 +8415,15 @@
         <v xml:space="preserve">RC0603FR-075K1L </v>
       </c>
       <c r="L159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M159" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B160" t="s">
         <v>69</v>
@@ -8432,13 +8441,13 @@
         <v>9</v>
       </c>
       <c r="G160" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I160" t="s">
         <v>120</v>
       </c>
       <c r="J160" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K160" t="str">
         <f t="shared" si="14"/>
@@ -8453,7 +8462,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B161" t="s">
         <v>69</v>
@@ -8471,13 +8480,13 @@
         <v>9</v>
       </c>
       <c r="G161" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I161" t="s">
         <v>120</v>
       </c>
       <c r="J161" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K161" t="str">
         <f t="shared" si="14"/>
@@ -8492,7 +8501,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B162" t="s">
         <v>69</v>
@@ -8510,25 +8519,25 @@
         <v>9</v>
       </c>
       <c r="G162" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J162" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K162" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">RC0603FR-071K1L </v>
       </c>
       <c r="L162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M162" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B163" t="s">
         <v>69</v>
@@ -8567,7 +8576,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B164" t="s">
         <v>69</v>
@@ -8595,15 +8604,15 @@
         <v xml:space="preserve">RL2512FK-070R033L </v>
       </c>
       <c r="L164" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B165" t="s">
         <v>69</v>
@@ -8642,7 +8651,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B166" t="s">
         <v>69</v>
@@ -8670,15 +8679,15 @@
         <v xml:space="preserve">RC0603FR-07499RL </v>
       </c>
       <c r="L166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B167" t="s">
         <v>69</v>
@@ -8717,7 +8726,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B168" t="s">
         <v>69</v>
@@ -8745,15 +8754,15 @@
         <v xml:space="preserve">RC0603FR-07301KL </v>
       </c>
       <c r="L168" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B169" t="s">
         <v>69</v>
@@ -8771,13 +8780,13 @@
         <v>9</v>
       </c>
       <c r="G169" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I169" t="s">
         <v>120</v>
       </c>
       <c r="J169" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K169" t="str">
         <f t="shared" si="14"/>
@@ -8792,7 +8801,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B170" t="s">
         <v>69</v>
@@ -8810,25 +8819,25 @@
         <v>9</v>
       </c>
       <c r="G170" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J170" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K170" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">RC0603FR-07200KL </v>
       </c>
       <c r="L170" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M170" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B171" t="s">
         <v>69</v>
@@ -8846,13 +8855,13 @@
         <v>9</v>
       </c>
       <c r="G171" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I171" t="s">
         <v>120</v>
       </c>
       <c r="J171" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K171" t="str">
         <f t="shared" si="14"/>
@@ -8867,7 +8876,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B172" t="s">
         <v>69</v>
@@ -8885,25 +8894,25 @@
         <v>9</v>
       </c>
       <c r="G172" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J172" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K172" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">RC0603FR-07499KL </v>
       </c>
       <c r="L172" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M172" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B173" t="s">
         <v>69</v>
@@ -8921,13 +8930,13 @@
         <v>9</v>
       </c>
       <c r="G173" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I173" t="s">
         <v>120</v>
       </c>
       <c r="J173" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K173" t="str">
         <f t="shared" si="14"/>
@@ -8942,7 +8951,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B174" t="s">
         <v>69</v>
@@ -8960,25 +8969,25 @@
         <v>9</v>
       </c>
       <c r="G174" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J174" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K174" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">RC0603FR-07402KL </v>
       </c>
       <c r="L174" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M174" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B175" t="s">
         <v>69</v>
@@ -8996,25 +9005,25 @@
         <v>9</v>
       </c>
       <c r="G175" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J175" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K175" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">RC0603FR-074K99L </v>
       </c>
       <c r="L175" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M175" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B176" t="s">
         <v>69</v>
@@ -9053,7 +9062,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B177" t="s">
         <v>69</v>
@@ -9081,15 +9090,15 @@
         <v xml:space="preserve">RC0603FR-0724R9L </v>
       </c>
       <c r="L177" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M177" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B178" t="s">
         <v>69</v>
@@ -9128,7 +9137,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B179" t="s">
         <v>69</v>
@@ -9156,15 +9165,15 @@
         <v xml:space="preserve">RC0603FR-0733R2L </v>
       </c>
       <c r="L179" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M179" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B180" t="s">
         <v>69</v>
@@ -9203,7 +9212,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B181" t="s">
         <v>69</v>
@@ -9231,15 +9240,15 @@
         <v xml:space="preserve">RC0603FR-07133RL </v>
       </c>
       <c r="L181" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M181" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B182" t="s">
         <v>69</v>
@@ -9278,7 +9287,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B183" t="s">
         <v>69</v>
@@ -9306,10 +9315,121 @@
         <v xml:space="preserve">RC0603FR-0751R1L </v>
       </c>
       <c r="L183" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M183" t="s">
-        <v>327</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" t="s">
+        <v>69</v>
+      </c>
+      <c r="C184" t="s">
+        <v>127</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E184" t="s">
+        <v>132</v>
+      </c>
+      <c r="F184" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" s="4">
+        <v>620</v>
+      </c>
+      <c r="J184">
+        <f t="shared" ref="J184:J186" si="15">G184</f>
+        <v>620</v>
+      </c>
+      <c r="K184" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-07620RL </v>
+      </c>
+      <c r="L184" t="s">
+        <v>314</v>
+      </c>
+      <c r="M184" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B185" t="s">
+        <v>69</v>
+      </c>
+      <c r="C185" t="s">
+        <v>127</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E185" t="s">
+        <v>132</v>
+      </c>
+      <c r="F185" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J185" t="str">
+        <f t="shared" si="15"/>
+        <v>24к</v>
+      </c>
+      <c r="K185" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-0724KL </v>
+      </c>
+      <c r="L185" t="s">
+        <v>314</v>
+      </c>
+      <c r="M185" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" t="s">
+        <v>69</v>
+      </c>
+      <c r="C186" t="s">
+        <v>127</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E186" t="s">
+        <v>132</v>
+      </c>
+      <c r="F186" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J186" t="str">
+        <f t="shared" si="15"/>
+        <v>3,3к</v>
+      </c>
+      <c r="K186" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-073K3L </v>
+      </c>
+      <c r="L186" t="s">
+        <v>314</v>
+      </c>
+      <c r="M186" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295212A7-7343-42B2-B7CA-325AD43041BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE53ED48-077A-4B71-8334-6F8D20942445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="372">
   <si>
     <t>Part Number</t>
   </si>
@@ -1233,6 +1233,9 @@
   </si>
   <si>
     <t>RC0603FR-0R</t>
+  </si>
+  <si>
+    <t>Коммент</t>
   </si>
 </sst>
 </file>
@@ -1623,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:O186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1650,7 @@
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1690,8 +1693,11 @@
       <c r="N1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>MID(Лист2!A1,1,SEARCH("ОЖ0",Лист2!A1)-1)</f>
         <v xml:space="preserve">Р1-8В-0805-0-А-М
@@ -1735,7 +1741,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>MID(Лист2!A2,1,SEARCH("ОЖ0",Лист2!A2)-1)</f>
         <v xml:space="preserve">Р1-8В-2512-0-А-М 
@@ -1779,7 +1785,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>MID(Лист2!A3,1,SEARCH("ОЖ0",Лист2!A3)-1)</f>
         <v xml:space="preserve">Р1-8В-1210-0-А-М 
@@ -1823,7 +1829,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>MID(Лист2!A4,1,SEARCH("ОЖ0",Лист2!A4)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-10Ом±1% -Т-А-М 
@@ -1868,7 +1874,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>MID(Лист2!A5,1,SEARCH("ОЖ0",Лист2!A5)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-18,2 Ом±1% -Т-А-М 
@@ -1913,7 +1919,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>MID(Лист2!A6,1,SEARCH("ОЖ0",Лист2!A6)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-20Ом±1% -Т-А-М 
@@ -1958,7 +1964,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>MID(Лист2!A7,1,SEARCH("ОЖ0",Лист2!A7)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-33,2Ом±1% -Т-А-М 
@@ -2003,7 +2009,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>MID(Лист2!A8,1,SEARCH("ОЖ0",Лист2!A8)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-51,1 Ом±1% -Т-А-М </v>
@@ -2046,7 +2052,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>MID(Лист2!A9,1,SEARCH("ОЖ0",Лист2!A9)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-100 Ом±1% -Т-А-М 
@@ -2091,7 +2097,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>MID(Лист2!A10,1,SEARCH("ОЖ0",Лист2!A10)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-100Ом±1% -Т-А-М 
@@ -2136,7 +2142,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>MID(Лист2!A11,1,SEARCH("ОЖ0",Лист2!A11)-1)</f>
         <v xml:space="preserve">Р1-8В-0,25-100±1%-Л-А-М
@@ -2181,7 +2187,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>MID(Лист2!A12,1,SEARCH("ОЖ0",Лист2!A12)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-130 Ом±1% -Т-А-М 
@@ -2226,7 +2232,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>MID(Лист2!A13,1,SEARCH("ОЖ0",Лист2!A13)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-200 Ом±1% -Т-А-М 
@@ -2271,7 +2277,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>MID(Лист2!A14,1,SEARCH("ОЖ0",Лист2!A14)-1)</f>
         <v xml:space="preserve">Р1-8В-0,125-200Ом±1% -Т-А-М 
@@ -2316,7 +2322,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>MID(Лист2!A15,1,SEARCH("ОЖ0",Лист2!A15)-1)</f>
         <v xml:space="preserve">Р1-8В-0,1-301 Ом±1% -Т-А-М 

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE53ED48-077A-4B71-8334-6F8D20942445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AC5083-6133-4A44-96B2-7E62BE6257F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="373">
   <si>
     <t>Part Number</t>
   </si>
@@ -1236,6 +1236,9 @@
   </si>
   <si>
     <t>Коммент</t>
+  </si>
+  <si>
+    <t>Р1-8В-0,1-240 Ом ±1%-Т-А-М</t>
   </si>
 </sst>
 </file>
@@ -1626,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O186"/>
+  <dimension ref="A1:O187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N186" sqref="N186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8234,7 +8237,7 @@
         <v>300</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" ref="K154:K186" si="14">A154&amp;" "&amp;I154</f>
+        <f t="shared" ref="K154:K187" si="14">A154&amp;" "&amp;I154</f>
         <v>Р1-8В-0,1-300 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L154" t="s">
@@ -9435,6 +9438,45 @@
         <v>314</v>
       </c>
       <c r="M186" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" t="s">
+        <v>69</v>
+      </c>
+      <c r="C187" t="s">
+        <v>127</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E187" t="s">
+        <v>132</v>
+      </c>
+      <c r="F187" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="4">
+        <v>240</v>
+      </c>
+      <c r="I187" t="s">
+        <v>120</v>
+      </c>
+      <c r="J187">
+        <v>240</v>
+      </c>
+      <c r="K187" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-0,1-240 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L187" t="s">
+        <v>120</v>
+      </c>
+      <c r="M187" t="s">
         <v>290</v>
       </c>
     </row>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AC5083-6133-4A44-96B2-7E62BE6257F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA31FC-1DE8-461D-97AD-C027B1DE5F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="375">
   <si>
     <t>Part Number</t>
   </si>
@@ -1239,6 +1239,12 @@
   </si>
   <si>
     <t>Р1-8В-0,1-240 Ом ±1%-Т-А-М</t>
+  </si>
+  <si>
+    <t>RС2512FR-07750RL</t>
+  </si>
+  <si>
+    <t>RС2512FR-072K4L</t>
   </si>
 </sst>
 </file>
@@ -1629,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O187"/>
+  <dimension ref="A1:O189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N186" sqref="N186"/>
+      <selection activeCell="N185" sqref="N185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8237,7 +8243,7 @@
         <v>300</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" ref="K154:K187" si="14">A154&amp;" "&amp;I154</f>
+        <f t="shared" ref="K154:K189" si="14">A154&amp;" "&amp;I154</f>
         <v>Р1-8В-0,1-300 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L154" t="s">
@@ -9478,6 +9484,78 @@
       </c>
       <c r="M187" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188" t="s">
+        <v>69</v>
+      </c>
+      <c r="C188" t="s">
+        <v>125</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E188" t="s">
+        <v>132</v>
+      </c>
+      <c r="F188" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" s="4">
+        <v>750</v>
+      </c>
+      <c r="J188">
+        <v>750</v>
+      </c>
+      <c r="K188" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RС2512FR-07750RL </v>
+      </c>
+      <c r="L188" t="s">
+        <v>314</v>
+      </c>
+      <c r="M188" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" t="s">
+        <v>69</v>
+      </c>
+      <c r="C189" t="s">
+        <v>125</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E189" t="s">
+        <v>132</v>
+      </c>
+      <c r="F189" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" t="s">
+        <v>255</v>
+      </c>
+      <c r="J189" t="s">
+        <v>255</v>
+      </c>
+      <c r="K189" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RС2512FR-072K4L </v>
+      </c>
+      <c r="L189" t="s">
+        <v>314</v>
+      </c>
+      <c r="M189" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA31FC-1DE8-461D-97AD-C027B1DE5F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26EE278-A1EF-4DD3-811A-277CFF9305F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1755" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N185" sqref="N185"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26EE278-A1EF-4DD3-811A-277CFF9305F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3600803A-31AB-4E19-A5D4-A229C4D4E388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="376">
   <si>
     <t>Part Number</t>
   </si>
@@ -1245,6 +1245,9 @@
   </si>
   <si>
     <t>RС2512FR-072K4L</t>
+  </si>
+  <si>
+    <t>RC0603FR-075R62L</t>
   </si>
 </sst>
 </file>
@@ -1635,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O189"/>
+  <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M195" sqref="M195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8243,7 +8246,7 @@
         <v>300</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" ref="K154:K189" si="14">A154&amp;" "&amp;I154</f>
+        <f t="shared" ref="K154:K190" si="14">A154&amp;" "&amp;I154</f>
         <v>Р1-8В-0,1-300 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L154" t="s">
@@ -9555,6 +9558,42 @@
         <v>314</v>
       </c>
       <c r="M189" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" t="s">
+        <v>69</v>
+      </c>
+      <c r="C190" t="s">
+        <v>127</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E190" t="s">
+        <v>132</v>
+      </c>
+      <c r="F190" t="s">
+        <v>9</v>
+      </c>
+      <c r="G190">
+        <v>5.62</v>
+      </c>
+      <c r="J190">
+        <v>5.62</v>
+      </c>
+      <c r="K190" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC0603FR-075R62L </v>
+      </c>
+      <c r="L190" t="s">
+        <v>314</v>
+      </c>
+      <c r="M190" t="s">
         <v>325</v>
       </c>
     </row>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3600803A-31AB-4E19-A5D4-A229C4D4E388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAAC247-2749-45A2-91EE-2498230474C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="386">
   <si>
     <t>Part Number</t>
   </si>
@@ -1248,6 +1248,36 @@
   </si>
   <si>
     <t>RC0603FR-075R62L</t>
+  </si>
+  <si>
+    <t>RC2512FR-070RL</t>
+  </si>
+  <si>
+    <t>Р1-8В-1-390 Ом±1%-Л-А-М</t>
+  </si>
+  <si>
+    <t>RC2512FR-07390RL</t>
+  </si>
+  <si>
+    <t>Р1-8В-1-2512-2,4кОм-Т-А-М</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>RC1206FR-07100RL</t>
+  </si>
+  <si>
+    <t>1,2к</t>
+  </si>
+  <si>
+    <t>Р1-8В-1-2512-1,2кОм-Л-А-М</t>
+  </si>
+  <si>
+    <t>RС2512FR-071K2L</t>
+  </si>
+  <si>
+    <t>Р1-8В-1-750 Ом±1%-Л-А-М</t>
   </si>
 </sst>
 </file>
@@ -1638,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M195" sqref="M195"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M202" sqref="M202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8246,7 +8276,7 @@
         <v>300</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" ref="K154:K190" si="14">A154&amp;" "&amp;I154</f>
+        <f t="shared" ref="K154:K198" si="14">A154&amp;" "&amp;I154</f>
         <v>Р1-8В-0,1-300 Ом ±1%-Т-А-М ОЖ0.467.164ТУ</v>
       </c>
       <c r="L154" t="s">
@@ -9595,6 +9625,303 @@
       </c>
       <c r="M190" t="s">
         <v>325</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>376</v>
+      </c>
+      <c r="B191" t="s">
+        <v>69</v>
+      </c>
+      <c r="C191" t="s">
+        <v>125</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E191" t="s">
+        <v>132</v>
+      </c>
+      <c r="F191" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="4">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC2512FR-070RL </v>
+      </c>
+      <c r="L191" t="s">
+        <v>314</v>
+      </c>
+      <c r="M191" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" t="s">
+        <v>69</v>
+      </c>
+      <c r="C192" t="s">
+        <v>125</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E192" t="s">
+        <v>132</v>
+      </c>
+      <c r="F192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="4">
+        <v>390</v>
+      </c>
+      <c r="I192" t="s">
+        <v>120</v>
+      </c>
+      <c r="J192">
+        <v>390</v>
+      </c>
+      <c r="K192" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-1-390 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L192" t="s">
+        <v>120</v>
+      </c>
+      <c r="M192" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>378</v>
+      </c>
+      <c r="B193" t="s">
+        <v>69</v>
+      </c>
+      <c r="C193" t="s">
+        <v>125</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E193" t="s">
+        <v>132</v>
+      </c>
+      <c r="F193" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="J193">
+        <v>390</v>
+      </c>
+      <c r="K193" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC2512FR-07390RL </v>
+      </c>
+      <c r="L193" t="s">
+        <v>314</v>
+      </c>
+      <c r="M193" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>379</v>
+      </c>
+      <c r="B194" t="s">
+        <v>69</v>
+      </c>
+      <c r="C194" t="s">
+        <v>125</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E194" t="s">
+        <v>132</v>
+      </c>
+      <c r="F194" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" t="s">
+        <v>255</v>
+      </c>
+      <c r="I194" t="s">
+        <v>120</v>
+      </c>
+      <c r="J194" t="s">
+        <v>255</v>
+      </c>
+      <c r="K194" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-1-2512-2,4кОм-Т-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L194" t="s">
+        <v>120</v>
+      </c>
+      <c r="M194" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>381</v>
+      </c>
+      <c r="B195" t="s">
+        <v>69</v>
+      </c>
+      <c r="C195" t="s">
+        <v>128</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E195" t="s">
+        <v>132</v>
+      </c>
+      <c r="F195" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195" s="4">
+        <v>100</v>
+      </c>
+      <c r="J195">
+        <v>100</v>
+      </c>
+      <c r="K195" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RC1206FR-07100RL </v>
+      </c>
+      <c r="L195" t="s">
+        <v>314</v>
+      </c>
+      <c r="M195" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>383</v>
+      </c>
+      <c r="B196" t="s">
+        <v>69</v>
+      </c>
+      <c r="C196" t="s">
+        <v>125</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E196" t="s">
+        <v>132</v>
+      </c>
+      <c r="F196" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" t="s">
+        <v>382</v>
+      </c>
+      <c r="I196" t="s">
+        <v>120</v>
+      </c>
+      <c r="J196" t="s">
+        <v>382</v>
+      </c>
+      <c r="K196" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-1-2512-1,2кОм-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L196" t="s">
+        <v>120</v>
+      </c>
+      <c r="M196" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>384</v>
+      </c>
+      <c r="B197" t="s">
+        <v>69</v>
+      </c>
+      <c r="C197" t="s">
+        <v>125</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E197" t="s">
+        <v>132</v>
+      </c>
+      <c r="F197" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" t="s">
+        <v>382</v>
+      </c>
+      <c r="K197" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">RС2512FR-071K2L </v>
+      </c>
+      <c r="L197" t="s">
+        <v>314</v>
+      </c>
+      <c r="M197" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>385</v>
+      </c>
+      <c r="B198" t="s">
+        <v>69</v>
+      </c>
+      <c r="C198" t="s">
+        <v>125</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E198" t="s">
+        <v>132</v>
+      </c>
+      <c r="F198" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198">
+        <v>750</v>
+      </c>
+      <c r="I198" t="s">
+        <v>120</v>
+      </c>
+      <c r="J198">
+        <v>750</v>
+      </c>
+      <c r="K198" t="str">
+        <f t="shared" si="14"/>
+        <v>Р1-8В-1-750 Ом±1%-Л-А-М ОЖ0.467.164ТУ</v>
+      </c>
+      <c r="L198" t="s">
+        <v>120</v>
+      </c>
+      <c r="M198" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/ResGOST.xlsx
+++ b/ResGOST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAAC247-2749-45A2-91EE-2498230474C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096736A8-E0B9-444D-B1E0-6C4BFF92EFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M202" sqref="M202"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7736,11 +7736,11 @@
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>225</v>
+        <v>351</v>
       </c>
       <c r="J140" t="str">
         <f t="shared" si="13"/>
-        <v>1к</v>
+        <v>1,1к</v>
       </c>
       <c r="K140" t="str">
         <f t="shared" si="12"/>
